--- a/aichan/548405540597054123_2021-07-17_20-13-35.xlsx
+++ b/aichan/548405540597054123_2021-07-17_20-13-35.xlsx
@@ -4002,7 +4002,7 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -4345,7 +4345,7 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
@@ -4412,7 +4412,7 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -4554,7 +4554,7 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -4756,7 +4756,7 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
@@ -4969,7 +4969,7 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
@@ -5265,7 +5265,7 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
@@ -5399,7 +5399,7 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
@@ -6323,7 +6323,7 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
@@ -6623,7 +6623,7 @@
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
@@ -7057,7 +7057,7 @@
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
@@ -7192,7 +7192,7 @@
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
@@ -8794,7 +8794,7 @@
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K117" t="inlineStr">
@@ -8936,7 +8936,7 @@
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K119" t="inlineStr">
@@ -9398,7 +9398,7 @@
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K125" t="inlineStr">
@@ -9635,7 +9635,7 @@
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K128" t="inlineStr">
@@ -9793,7 +9793,7 @@
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K130" t="inlineStr">
@@ -10026,7 +10026,7 @@
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K133" t="inlineStr">
@@ -10252,7 +10252,7 @@
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K136" t="inlineStr">
@@ -10319,7 +10319,7 @@
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K137" t="inlineStr">
@@ -10611,7 +10611,7 @@
       </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K141" t="inlineStr">
@@ -10682,7 +10682,7 @@
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K142" t="inlineStr">
@@ -11794,7 +11794,7 @@
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K157" t="inlineStr">
@@ -12434,7 +12434,7 @@
       </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K166" t="inlineStr">
@@ -12959,7 +12959,7 @@
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K173" t="inlineStr">
@@ -13109,7 +13109,7 @@
       </c>
       <c r="J175" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K175" t="inlineStr">
@@ -14599,7 +14599,7 @@
       </c>
       <c r="J196" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K196" t="inlineStr">
@@ -14674,7 +14674,7 @@
       </c>
       <c r="J197" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K197" t="inlineStr">
@@ -15396,7 +15396,7 @@
       </c>
       <c r="J207" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K207" t="inlineStr">
@@ -16894,7 +16894,7 @@
       </c>
       <c r="J228" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K228" t="inlineStr">
@@ -17981,7 +17981,7 @@
       </c>
       <c r="J243" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K243" t="inlineStr">
@@ -23348,7 +23348,7 @@
       </c>
       <c r="J318" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K318" t="inlineStr">
@@ -24149,7 +24149,7 @@
       </c>
       <c r="J329" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K329" t="inlineStr">
@@ -24828,7 +24828,7 @@
       </c>
       <c r="J338" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K338" t="inlineStr">
@@ -25120,7 +25120,7 @@
       </c>
       <c r="J342" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K342" t="inlineStr">
@@ -25475,7 +25475,7 @@
       </c>
       <c r="J347" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K347" t="inlineStr">
@@ -26152,7 +26152,7 @@
       </c>
       <c r="J356" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K356" t="inlineStr">
@@ -28022,7 +28022,7 @@
       </c>
       <c r="J381" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K381" t="inlineStr">
@@ -29484,7 +29484,7 @@
       </c>
       <c r="J401" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K401" t="inlineStr">
@@ -30159,7 +30159,7 @@
       </c>
       <c r="J410" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K410" t="inlineStr">
@@ -31344,7 +31344,7 @@
       </c>
       <c r="J426" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K426" t="inlineStr">
@@ -33154,7 +33154,7 @@
       </c>
       <c r="J450" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K450" t="inlineStr">
@@ -34254,7 +34254,7 @@
       </c>
       <c r="J465" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K465" t="inlineStr">
@@ -34787,7 +34787,7 @@
       </c>
       <c r="J472" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K472" t="inlineStr">
@@ -35229,7 +35229,7 @@
       </c>
       <c r="J478" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K478" t="inlineStr">
@@ -35667,7 +35667,7 @@
       </c>
       <c r="J484" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K484" t="inlineStr">
@@ -35889,7 +35889,7 @@
       </c>
       <c r="J487" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K487" t="inlineStr">
@@ -36506,7 +36506,7 @@
       </c>
       <c r="J495" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K495" t="inlineStr">
@@ -36743,7 +36743,7 @@
       </c>
       <c r="J498" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K498" t="inlineStr">
@@ -37418,7 +37418,7 @@
       </c>
       <c r="J507" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K507" t="inlineStr">
@@ -37577,7 +37577,7 @@
       </c>
       <c r="J509" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K509" t="inlineStr">
@@ -38117,7 +38117,7 @@
       </c>
       <c r="J516" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K516" t="inlineStr">
@@ -38338,7 +38338,7 @@
       </c>
       <c r="J519" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K519" t="inlineStr">
@@ -39273,7 +39273,7 @@
       </c>
       <c r="J532" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K532" t="inlineStr">
@@ -39553,7 +39553,7 @@
       </c>
       <c r="J536" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K536" t="inlineStr">
@@ -41082,7 +41082,7 @@
       </c>
       <c r="J556" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K556" t="inlineStr">
@@ -41524,7 +41524,7 @@
       </c>
       <c r="J562" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K562" t="inlineStr">
@@ -41895,7 +41895,7 @@
       </c>
       <c r="J567" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K567" t="inlineStr">
@@ -42340,7 +42340,7 @@
       </c>
       <c r="J573" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K573" t="inlineStr">
@@ -42633,7 +42633,7 @@
       </c>
       <c r="J577" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K577" t="inlineStr">
@@ -42787,7 +42787,7 @@
       </c>
       <c r="J579" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K579" t="inlineStr">
@@ -42946,7 +42946,7 @@
       </c>
       <c r="J581" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K581" t="inlineStr">
@@ -45384,7 +45384,7 @@
       </c>
       <c r="J614" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K614" t="inlineStr">
@@ -46411,7 +46411,7 @@
       </c>
       <c r="J628" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K628" t="inlineStr">
@@ -46955,7 +46955,7 @@
       </c>
       <c r="J635" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K635" t="inlineStr">
@@ -47175,7 +47175,7 @@
       </c>
       <c r="J638" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K638" t="inlineStr">
@@ -47250,7 +47250,7 @@
       </c>
       <c r="J639" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K639" t="inlineStr">
@@ -48943,7 +48943,7 @@
       </c>
       <c r="J662" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K662" t="inlineStr">
@@ -52606,7 +52606,7 @@
       </c>
       <c r="J712" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K712" t="inlineStr">
@@ -52823,7 +52823,7 @@
       </c>
       <c r="J715" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K715" t="inlineStr">
@@ -54162,7 +54162,7 @@
       </c>
       <c r="J734" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K734" t="inlineStr">
@@ -54243,7 +54243,7 @@
       </c>
       <c r="J735" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K735" t="inlineStr">

--- a/aichan/548405540597054123_2021-07-17_20-13-35.xlsx
+++ b/aichan/548405540597054123_2021-07-17_20-13-35.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -46,8 +48,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -419,6 +422,19 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="20" customWidth="1" min="17" max="17"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -539,10 +555,8 @@
           <t>4936001478</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2021-07-22 00:21:24</t>
-        </is>
+      <c r="H2" s="1" t="n">
+        <v>44399.01486111111</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -606,10 +620,8 @@
           <t>4948494278</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2021-07-20 05:38:45</t>
-        </is>
+      <c r="H3" s="1" t="n">
+        <v>44397.23524305555</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -683,10 +695,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2021-07-19 21:17:08</t>
-        </is>
+      <c r="H4" s="1" t="n">
+        <v>44396.88689814815</v>
       </c>
       <c r="I4" t="n">
         <v>1</v>
@@ -754,10 +764,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2021-07-19 10:01:41</t>
-        </is>
+      <c r="H5" s="1" t="n">
+        <v>44396.41783564815</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -821,10 +829,8 @@
           <t>4932594706</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2021-07-18 21:30:50</t>
-        </is>
+      <c r="H6" s="1" t="n">
+        <v>44395.89641203704</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -896,10 +902,8 @@
           <t>4935099137</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2021-07-18 19:11:50</t>
-        </is>
+      <c r="H7" s="1" t="n">
+        <v>44395.79988425926</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -971,10 +975,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2021-07-18 19:00:15</t>
-        </is>
+      <c r="H8" s="1" t="n">
+        <v>44395.79184027778</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1038,10 +1040,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2021-07-18 18:46:03</t>
-        </is>
+      <c r="H9" s="1" t="n">
+        <v>44395.78197916667</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
@@ -1113,10 +1113,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2021-07-18 18:45:59</t>
-        </is>
+      <c r="H10" s="1" t="n">
+        <v>44395.78193287037</v>
       </c>
       <c r="I10" t="n">
         <v>1</v>
@@ -1194,10 +1192,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:05:41</t>
-        </is>
+      <c r="H11" s="1" t="n">
+        <v>44395.62894675926</v>
       </c>
       <c r="I11" t="n">
         <v>7</v>
@@ -1261,10 +1257,8 @@
           <t>4934308372</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2021-07-18 14:35:45</t>
-        </is>
+      <c r="H12" s="1" t="n">
+        <v>44395.60815972222</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1332,10 +1326,8 @@
           <t>4933572940</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2021-07-18 14:33:13</t>
-        </is>
+      <c r="H13" s="1" t="n">
+        <v>44395.60640046297</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1407,10 +1399,8 @@
           <t>4933572940</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2021-07-18 14:07:04</t>
-        </is>
+      <c r="H14" s="1" t="n">
+        <v>44395.58824074074</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1486,10 +1476,8 @@
           <t>4933572940</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2021-07-18 14:06:25</t>
-        </is>
+      <c r="H15" s="1" t="n">
+        <v>44395.58778935186</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1565,10 +1553,8 @@
           <t>4933572940</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2021-07-18 13:39:35</t>
-        </is>
+      <c r="H16" s="1" t="n">
+        <v>44395.56915509259</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1640,10 +1626,8 @@
           <t>4933572940</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2021-07-18 13:38:50</t>
-        </is>
+      <c r="H17" s="1" t="n">
+        <v>44395.56863425926</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1720,10 +1704,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2021-07-18 13:24:54</t>
-        </is>
+      <c r="H18" s="1" t="n">
+        <v>44395.55895833333</v>
       </c>
       <c r="I18" t="n">
         <v>3</v>
@@ -1790,10 +1772,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2021-07-18 13:24:43</t>
-        </is>
+      <c r="H19" s="1" t="n">
+        <v>44395.55883101852</v>
       </c>
       <c r="I19" t="n">
         <v>4</v>
@@ -1857,10 +1837,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2021-07-18 13:24:36</t>
-        </is>
+      <c r="H20" s="1" t="n">
+        <v>44395.55875</v>
       </c>
       <c r="I20" t="n">
         <v>3</v>
@@ -1924,10 +1902,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2021-07-18 13:24:28</t>
-        </is>
+      <c r="H21" s="1" t="n">
+        <v>44395.5586574074</v>
       </c>
       <c r="I21" t="n">
         <v>4</v>
@@ -1998,10 +1974,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2021-07-18 13:24:23</t>
-        </is>
+      <c r="H22" s="1" t="n">
+        <v>44395.55859953703</v>
       </c>
       <c r="I22" t="n">
         <v>3</v>
@@ -2065,10 +2039,8 @@
           <t>4936001478</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2021-07-18 13:18:14</t>
-        </is>
+      <c r="H23" s="1" t="n">
+        <v>44395.55432870371</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2132,10 +2104,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2021-07-18 13:17:07</t>
-        </is>
+      <c r="H24" s="1" t="n">
+        <v>44395.55355324074</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2211,10 +2181,8 @@
           <t>4934308372</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:11:24</t>
-        </is>
+      <c r="H25" s="1" t="n">
+        <v>44395.50791666667</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2282,10 +2250,8 @@
           <t>4934308372</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:06:46</t>
-        </is>
+      <c r="H26" s="1" t="n">
+        <v>44395.50469907407</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2353,10 +2319,8 @@
           <t>4934308372</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:05:48</t>
-        </is>
+      <c r="H27" s="1" t="n">
+        <v>44395.50402777778</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2431,10 +2395,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:03:19</t>
-        </is>
+      <c r="H28" s="1" t="n">
+        <v>44395.50230324074</v>
       </c>
       <c r="I28" t="n">
         <v>9</v>
@@ -2502,10 +2464,8 @@
           <t>4934308372</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:01:14</t>
-        </is>
+      <c r="H29" s="1" t="n">
+        <v>44395.50085648148</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2573,10 +2533,8 @@
           <t>4933572940</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:01:09</t>
-        </is>
+      <c r="H30" s="1" t="n">
+        <v>44395.50079861111</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2652,10 +2610,8 @@
           <t>4934308372</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:58:56</t>
-        </is>
+      <c r="H31" s="1" t="n">
+        <v>44395.49925925926</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2723,10 +2679,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:57:08</t>
-        </is>
+      <c r="H32" s="1" t="n">
+        <v>44395.49800925926</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -2790,10 +2744,8 @@
           <t>4933572940</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:56:52</t>
-        </is>
+      <c r="H33" s="1" t="n">
+        <v>44395.49782407407</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -2869,10 +2821,8 @@
           <t>4934318798</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:55:21</t>
-        </is>
+      <c r="H34" s="1" t="n">
+        <v>44395.49677083334</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -2940,10 +2890,8 @@
           <t>4934308372</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:54:52</t>
-        </is>
+      <c r="H35" s="1" t="n">
+        <v>44395.49643518519</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3011,10 +2959,8 @@
           <t>4934318798</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:54:13</t>
-        </is>
+      <c r="H36" s="1" t="n">
+        <v>44395.4959837963</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3082,10 +3028,8 @@
           <t>4934308372</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:53:22</t>
-        </is>
+      <c r="H37" s="1" t="n">
+        <v>44395.49539351852</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3153,10 +3097,8 @@
           <t>4934318798</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:53:00</t>
-        </is>
+      <c r="H38" s="1" t="n">
+        <v>44395.49513888889</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3224,10 +3166,8 @@
           <t>4934318798</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:52:02</t>
-        </is>
+      <c r="H39" s="1" t="n">
+        <v>44395.49446759259</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3295,10 +3235,8 @@
           <t>4934318798</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:50:23</t>
-        </is>
+      <c r="H40" s="1" t="n">
+        <v>44395.49332175926</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3366,10 +3304,8 @@
           <t>4934308372</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:50:01</t>
-        </is>
+      <c r="H41" s="1" t="n">
+        <v>44395.49306712963</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3437,10 +3373,8 @@
           <t>4934318798</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:49:41</t>
-        </is>
+      <c r="H42" s="1" t="n">
+        <v>44395.49283564815</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3508,10 +3442,8 @@
           <t>4935386520</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:49:13</t>
-        </is>
+      <c r="H43" s="1" t="n">
+        <v>44395.49251157408</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3575,10 +3507,8 @@
           <t>4934318798</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:48:56</t>
-        </is>
+      <c r="H44" s="1" t="n">
+        <v>44395.49231481482</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -3646,10 +3576,8 @@
           <t>4935112360</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:43:58</t>
-        </is>
+      <c r="H45" s="1" t="n">
+        <v>44395.48886574074</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -3718,10 +3646,8 @@
           <t>4935274350</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:36:10</t>
-        </is>
+      <c r="H46" s="1" t="n">
+        <v>44395.48344907408</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -3785,10 +3711,8 @@
           <t>4935274350</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:32:44</t>
-        </is>
+      <c r="H47" s="1" t="n">
+        <v>44395.48106481481</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
@@ -3852,10 +3776,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:27:57</t>
-        </is>
+      <c r="H48" s="1" t="n">
+        <v>44395.47774305556</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
@@ -3927,10 +3849,8 @@
           <t>4935214113</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:23:22</t>
-        </is>
+      <c r="H49" s="1" t="n">
+        <v>44395.47456018518</v>
       </c>
       <c r="I49" t="n">
         <v>1</v>
@@ -3992,10 +3912,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:20:41</t>
-        </is>
+      <c r="H50" s="1" t="n">
+        <v>44395.47269675926</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
@@ -4059,10 +3977,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:19:39</t>
-        </is>
+      <c r="H51" s="1" t="n">
+        <v>44395.47197916666</v>
       </c>
       <c r="I51" t="n">
         <v>1</v>
@@ -4122,10 +4038,8 @@
           <t>4933278074</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:17:29</t>
-        </is>
+      <c r="H52" s="1" t="n">
+        <v>44395.47047453704</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
@@ -4201,10 +4115,8 @@
           <t>4933278074</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:14:32</t>
-        </is>
+      <c r="H53" s="1" t="n">
+        <v>44395.46842592592</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
@@ -4268,10 +4180,8 @@
           <t>4933278074</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:14:32</t>
-        </is>
+      <c r="H54" s="1" t="n">
+        <v>44395.46842592592</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
@@ -4335,10 +4245,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:13:53</t>
-        </is>
+      <c r="H55" s="1" t="n">
+        <v>44395.46797453704</v>
       </c>
       <c r="I55" t="n">
         <v>1</v>
@@ -4402,10 +4310,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:11:18</t>
-        </is>
+      <c r="H56" s="1" t="n">
+        <v>44395.46618055556</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
@@ -4477,10 +4383,8 @@
           <t>4935112360</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:06:07</t>
-        </is>
+      <c r="H57" s="1" t="n">
+        <v>44395.46258101852</v>
       </c>
       <c r="I57" t="n">
         <v>1</v>
@@ -4544,10 +4448,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:05:32</t>
-        </is>
+      <c r="H58" s="1" t="n">
+        <v>44395.46217592592</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
@@ -4615,10 +4517,8 @@
           <t>4935099137</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:04:36</t>
-        </is>
+      <c r="H59" s="1" t="n">
+        <v>44395.46152777778</v>
       </c>
       <c r="I59" t="n">
         <v>1</v>
@@ -4683,10 +4583,8 @@
           <t>4935097158</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:03:43</t>
-        </is>
+      <c r="H60" s="1" t="n">
+        <v>44395.46091435185</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
@@ -4746,10 +4644,8 @@
           <t>4935079342</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:02:04</t>
-        </is>
+      <c r="H61" s="1" t="n">
+        <v>44395.45976851852</v>
       </c>
       <c r="I61" t="n">
         <v>1</v>
@@ -4813,10 +4709,8 @@
           <t>4935081917</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:01:14</t>
-        </is>
+      <c r="H62" s="1" t="n">
+        <v>44395.45918981481</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
@@ -4880,10 +4774,8 @@
           <t>4934271987</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:00:50</t>
-        </is>
+      <c r="H63" s="1" t="n">
+        <v>44395.45891203704</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
@@ -4959,10 +4851,8 @@
           <t>4931257502</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:00:39</t>
-        </is>
+      <c r="H64" s="1" t="n">
+        <v>44395.45878472222</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
@@ -5038,10 +4928,8 @@
           <t>4934271987</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>2021-07-18 10:58:23</t>
-        </is>
+      <c r="H65" s="1" t="n">
+        <v>44395.45721064815</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
@@ -5117,10 +5005,8 @@
           <t>4935061801</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>2021-07-18 10:58:09</t>
-        </is>
+      <c r="H66" s="1" t="n">
+        <v>44395.45704861111</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
@@ -5188,10 +5074,8 @@
           <t>4935054483</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>2021-07-18 10:57:36</t>
-        </is>
+      <c r="H67" s="1" t="n">
+        <v>44395.45666666667</v>
       </c>
       <c r="I67" t="n">
         <v>1</v>
@@ -5255,10 +5139,8 @@
           <t>4935048909</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>2021-07-18 10:56:42</t>
-        </is>
+      <c r="H68" s="1" t="n">
+        <v>44395.45604166666</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
@@ -5322,10 +5204,8 @@
           <t>4935051745</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>2021-07-18 10:56:17</t>
-        </is>
+      <c r="H69" s="1" t="n">
+        <v>44395.45575231482</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
@@ -5389,10 +5269,8 @@
           <t>4935047882</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>2021-07-18 10:56:10</t>
-        </is>
+      <c r="H70" s="1" t="n">
+        <v>44395.45567129629</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
@@ -5456,10 +5334,8 @@
           <t>4933278074</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>2021-07-18 10:55:54</t>
-        </is>
+      <c r="H71" s="1" t="n">
+        <v>44395.45548611111</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
@@ -5523,10 +5399,8 @@
           <t>4931501148</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>2021-07-18 10:55:45</t>
-        </is>
+      <c r="H72" s="1" t="n">
+        <v>44395.45538194444</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
@@ -5594,10 +5468,8 @@
           <t>4935045241</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>2021-07-18 10:54:48</t>
-        </is>
+      <c r="H73" s="1" t="n">
+        <v>44395.45472222222</v>
       </c>
       <c r="I73" t="n">
         <v>1</v>
@@ -5661,10 +5533,8 @@
           <t>4935031621</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>2021-07-18 10:52:53</t>
-        </is>
+      <c r="H74" s="1" t="n">
+        <v>44395.4533912037</v>
       </c>
       <c r="I74" t="n">
         <v>1</v>
@@ -5729,10 +5599,8 @@
           <t>4931608043</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>2021-07-18 10:50:55</t>
-        </is>
+      <c r="H75" s="1" t="n">
+        <v>44395.45202546296</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
@@ -5800,10 +5668,8 @@
           <t>4933539923</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>2021-07-18 10:50:32</t>
-        </is>
+      <c r="H76" s="1" t="n">
+        <v>44395.45175925926</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
@@ -5867,10 +5733,8 @@
           <t>4934896184</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>2021-07-18 10:49:56</t>
-        </is>
+      <c r="H77" s="1" t="n">
+        <v>44395.45134259259</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
@@ -5942,10 +5806,8 @@
           <t>4934896184</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>2021-07-18 10:49:12</t>
-        </is>
+      <c r="H78" s="1" t="n">
+        <v>44395.45083333334</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
@@ -6017,10 +5879,8 @@
           <t>4934281347</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>2021-07-18 10:40:14</t>
-        </is>
+      <c r="H79" s="1" t="n">
+        <v>44395.44460648148</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
@@ -6084,10 +5944,8 @@
           <t>4934896184</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>2021-07-18 10:39:40</t>
-        </is>
+      <c r="H80" s="1" t="n">
+        <v>44395.44421296296</v>
       </c>
       <c r="I80" t="n">
         <v>1</v>
@@ -6163,10 +6021,8 @@
           <t>4934911627</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>2021-07-18 10:32:17</t>
-        </is>
+      <c r="H81" s="1" t="n">
+        <v>44395.43908564815</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
@@ -6238,10 +6094,8 @@
           <t>4934896184</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>2021-07-18 10:29:31</t>
-        </is>
+      <c r="H82" s="1" t="n">
+        <v>44395.43716435185</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
@@ -6313,10 +6167,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>2021-07-18 10:15:21</t>
-        </is>
+      <c r="H83" s="1" t="n">
+        <v>44395.42732638889</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
@@ -6388,10 +6240,8 @@
           <t>4934682589</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>2021-07-18 09:51:55</t>
-        </is>
+      <c r="H84" s="1" t="n">
+        <v>44395.41105324074</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
@@ -6463,10 +6313,8 @@
           <t>4934678217</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>2021-07-18 09:50:47</t>
-        </is>
+      <c r="H85" s="1" t="n">
+        <v>44395.4102662037</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
@@ -6538,10 +6386,8 @@
           <t>4933312774</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>2021-07-18 09:48:26</t>
-        </is>
+      <c r="H86" s="1" t="n">
+        <v>44395.40863425926</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
@@ -6613,10 +6459,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>2021-07-18 09:37:52</t>
-        </is>
+      <c r="H87" s="1" t="n">
+        <v>44395.4012962963</v>
       </c>
       <c r="I87" t="n">
         <v>10</v>
@@ -6684,10 +6528,8 @@
           <t>4934610181</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>2021-07-18 09:36:36</t>
-        </is>
+      <c r="H88" s="1" t="n">
+        <v>44395.40041666666</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
@@ -6759,10 +6601,8 @@
           <t>4932880167</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>2021-07-18 09:34:45</t>
-        </is>
+      <c r="H89" s="1" t="n">
+        <v>44395.39913194445</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
@@ -6834,10 +6674,8 @@
           <t>4934263082</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>2021-07-18 09:27:19</t>
-        </is>
+      <c r="H90" s="1" t="n">
+        <v>44395.39396990741</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
@@ -6905,10 +6743,8 @@
           <t>4934308372</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>2021-07-18 09:25:52</t>
-        </is>
+      <c r="H91" s="1" t="n">
+        <v>44395.39296296296</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
@@ -6976,10 +6812,8 @@
           <t>4933539923</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>2021-07-18 09:24:07</t>
-        </is>
+      <c r="H92" s="1" t="n">
+        <v>44395.39174768519</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
@@ -7047,10 +6881,8 @@
           <t>4934528548</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>2021-07-18 09:21:20</t>
-        </is>
+      <c r="H93" s="1" t="n">
+        <v>44395.38981481481</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
@@ -7114,10 +6946,8 @@
           <t>4934498709</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>2021-07-18 09:14:58</t>
-        </is>
+      <c r="H94" s="1" t="n">
+        <v>44395.38539351852</v>
       </c>
       <c r="I94" t="n">
         <v>1</v>
@@ -7182,10 +7012,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>2021-07-18 09:11:56</t>
-        </is>
+      <c r="H95" s="1" t="n">
+        <v>44395.38328703704</v>
       </c>
       <c r="I95" t="n">
         <v>4</v>
@@ -7253,10 +7081,8 @@
           <t>4934281347</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>2021-07-18 08:53:31</t>
-        </is>
+      <c r="H96" s="1" t="n">
+        <v>44395.37049768519</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
@@ -7332,10 +7158,8 @@
           <t>4934358959</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>2021-07-18 08:43:01</t>
-        </is>
+      <c r="H97" s="1" t="n">
+        <v>44395.36320601852</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
@@ -7413,10 +7237,8 @@
           <t>4933469281</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>2021-07-18 08:41:26</t>
-        </is>
+      <c r="H98" s="1" t="n">
+        <v>44395.36210648148</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
@@ -7484,10 +7306,8 @@
           <t>4933469281</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>2021-07-18 08:39:21</t>
-        </is>
+      <c r="H99" s="1" t="n">
+        <v>44395.36065972222</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
@@ -7555,10 +7375,8 @@
           <t>4933613537</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>2021-07-18 08:34:37</t>
-        </is>
+      <c r="H100" s="1" t="n">
+        <v>44395.35737268518</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
@@ -7634,10 +7452,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>2021-07-18 08:34:17</t>
-        </is>
+      <c r="H101" s="1" t="n">
+        <v>44395.35714120371</v>
       </c>
       <c r="I101" t="n">
         <v>4</v>
@@ -7713,10 +7529,8 @@
           <t>4934318798</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>2021-07-18 08:32:33</t>
-        </is>
+      <c r="H102" s="1" t="n">
+        <v>44395.3559375</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
@@ -7784,10 +7598,8 @@
           <t>4933613537</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>2021-07-18 08:30:30</t>
-        </is>
+      <c r="H103" s="1" t="n">
+        <v>44395.35451388889</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
@@ -7855,10 +7667,8 @@
           <t>4933613537</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>2021-07-18 08:30:10</t>
-        </is>
+      <c r="H104" s="1" t="n">
+        <v>44395.35428240741</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
@@ -7926,10 +7736,8 @@
           <t>4934308372</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>2021-07-18 08:28:53</t>
-        </is>
+      <c r="H105" s="1" t="n">
+        <v>44395.3533912037</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
@@ -7997,10 +7805,8 @@
           <t>4931520598</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>2021-07-18 08:24:26</t>
-        </is>
+      <c r="H106" s="1" t="n">
+        <v>44395.35030092593</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
@@ -8068,10 +7874,8 @@
           <t>4934281347</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>2021-07-18 08:21:25</t>
-        </is>
+      <c r="H107" s="1" t="n">
+        <v>44395.34820601852</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
@@ -8139,10 +7943,8 @@
           <t>4933613537</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>2021-07-18 08:19:22</t>
-        </is>
+      <c r="H108" s="1" t="n">
+        <v>44395.34678240741</v>
       </c>
       <c r="I108" t="n">
         <v>1</v>
@@ -8218,10 +8020,8 @@
           <t>4934277020</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>2021-07-18 08:19:20</t>
-        </is>
+      <c r="H109" s="1" t="n">
+        <v>44395.34675925926</v>
       </c>
       <c r="I109" t="n">
         <v>3</v>
@@ -8281,10 +8081,8 @@
           <t>4934271987</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>2021-07-18 08:18:39</t>
-        </is>
+      <c r="H110" s="1" t="n">
+        <v>44395.34628472223</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
@@ -8352,10 +8150,8 @@
           <t>4934263082</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>2021-07-18 08:15:58</t>
-        </is>
+      <c r="H111" s="1" t="n">
+        <v>44395.34442129629</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
@@ -8423,10 +8219,8 @@
           <t>4933469281</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>2021-07-18 08:07:28</t>
-        </is>
+      <c r="H112" s="1" t="n">
+        <v>44395.33851851852</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
@@ -8494,10 +8288,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>2021-07-18 07:56:26</t>
-        </is>
+      <c r="H113" s="1" t="n">
+        <v>44395.33085648148</v>
       </c>
       <c r="I113" t="n">
         <v>2</v>
@@ -8561,10 +8353,8 @@
           <t>4933613537</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>2021-07-18 07:39:45</t>
-        </is>
+      <c r="H114" s="1" t="n">
+        <v>44395.31927083333</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
@@ -8632,10 +8422,8 @@
           <t>4934059757</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>2021-07-18 07:00:43</t>
-        </is>
+      <c r="H115" s="1" t="n">
+        <v>44395.29216435185</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
@@ -8708,10 +8496,8 @@
           <t>4933572940</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>2021-07-18 06:54:53</t>
-        </is>
+      <c r="H116" s="1" t="n">
+        <v>44395.28811342592</v>
       </c>
       <c r="I116" t="n">
         <v>1</v>
@@ -8784,10 +8570,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>2021-07-18 06:27:51</t>
-        </is>
+      <c r="H117" s="1" t="n">
+        <v>44395.26934027778</v>
       </c>
       <c r="I117" t="n">
         <v>1</v>
@@ -8855,10 +8639,8 @@
           <t>4932315730</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>2021-07-18 05:23:23</t>
-        </is>
+      <c r="H118" s="1" t="n">
+        <v>44395.22457175926</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
@@ -8926,10 +8708,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>2021-07-18 04:53:27</t>
-        </is>
+      <c r="H119" s="1" t="n">
+        <v>44395.20378472222</v>
       </c>
       <c r="I119" t="n">
         <v>4</v>
@@ -9001,10 +8781,8 @@
           <t>4931923593</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>2021-07-18 03:57:11</t>
-        </is>
+      <c r="H120" s="1" t="n">
+        <v>44395.16471064815</v>
       </c>
       <c r="I120" t="n">
         <v>1</v>
@@ -9080,10 +8858,8 @@
           <t>4933572940</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>2021-07-18 03:11:29</t>
-        </is>
+      <c r="H121" s="1" t="n">
+        <v>44395.13297453704</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
@@ -9159,10 +8935,8 @@
           <t>4933572940</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>2021-07-18 03:10:42</t>
-        </is>
+      <c r="H122" s="1" t="n">
+        <v>44395.13243055555</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
@@ -9238,10 +9012,8 @@
           <t>4933572940</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>2021-07-18 02:56:05</t>
-        </is>
+      <c r="H123" s="1" t="n">
+        <v>44395.12228009259</v>
       </c>
       <c r="I123" t="n">
         <v>1</v>
@@ -9313,10 +9085,8 @@
           <t>4933572940</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>2021-07-18 02:49:55</t>
-        </is>
+      <c r="H124" s="1" t="n">
+        <v>44395.11799768519</v>
       </c>
       <c r="I124" t="n">
         <v>1</v>
@@ -9388,10 +9158,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>2021-07-18 02:37:22</t>
-        </is>
+      <c r="H125" s="1" t="n">
+        <v>44395.10928240741</v>
       </c>
       <c r="I125" t="n">
         <v>5</v>
@@ -9467,10 +9235,8 @@
           <t>4933714397</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>2021-07-18 02:30:32</t>
-        </is>
+      <c r="H126" s="1" t="n">
+        <v>44395.10453703703</v>
       </c>
       <c r="I126" t="n">
         <v>1</v>
@@ -9546,10 +9312,8 @@
           <t>4933718324</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>2021-07-18 02:30:16</t>
-        </is>
+      <c r="H127" s="1" t="n">
+        <v>44395.10435185185</v>
       </c>
       <c r="I127" t="n">
         <v>1</v>
@@ -9625,10 +9389,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>2021-07-18 02:29:55</t>
-        </is>
+      <c r="H128" s="1" t="n">
+        <v>44395.10410879629</v>
       </c>
       <c r="I128" t="n">
         <v>3</v>
@@ -9704,10 +9466,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>2021-07-18 02:29:39</t>
-        </is>
+      <c r="H129" s="1" t="n">
+        <v>44395.10392361111</v>
       </c>
       <c r="I129" t="n">
         <v>19</v>
@@ -9783,10 +9543,8 @@
           <t>4933712381</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>2021-07-18 02:28:03</t>
-        </is>
+      <c r="H130" s="1" t="n">
+        <v>44395.1028125</v>
       </c>
       <c r="I130" t="n">
         <v>1</v>
@@ -9858,10 +9616,8 @@
           <t>4933572940</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>2021-07-18 01:58:37</t>
-        </is>
+      <c r="H131" s="1" t="n">
+        <v>44395.08237268519</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
@@ -9937,10 +9693,8 @@
           <t>4933622965</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>2021-07-18 01:57:02</t>
-        </is>
+      <c r="H132" s="1" t="n">
+        <v>44395.08127314815</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
@@ -10016,10 +9770,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>2021-07-18 01:56:01</t>
-        </is>
+      <c r="H133" s="1" t="n">
+        <v>44395.08056712963</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
@@ -10091,10 +9843,8 @@
           <t>4933613537</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>2021-07-18 01:54:00</t>
-        </is>
+      <c r="H134" s="1" t="n">
+        <v>44395.07916666667</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
@@ -10166,10 +9916,8 @@
           <t>4933611605</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>2021-07-18 01:52:12</t>
-        </is>
+      <c r="H135" s="1" t="n">
+        <v>44395.07791666667</v>
       </c>
       <c r="I135" t="n">
         <v>2</v>
@@ -10242,10 +9990,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>2021-07-18 01:48:23</t>
-        </is>
+      <c r="H136" s="1" t="n">
+        <v>44395.0752662037</v>
       </c>
       <c r="I136" t="n">
         <v>4</v>
@@ -10309,10 +10055,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>2021-07-18 01:44:05</t>
-        </is>
+      <c r="H137" s="1" t="n">
+        <v>44395.07228009259</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
@@ -10384,10 +10128,8 @@
           <t>4933573148</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>2021-07-18 01:41:27</t>
-        </is>
+      <c r="H138" s="1" t="n">
+        <v>44395.07045138889</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
@@ -10451,10 +10193,8 @@
           <t>4933572940</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>2021-07-18 01:41:16</t>
-        </is>
+      <c r="H139" s="1" t="n">
+        <v>44395.07032407408</v>
       </c>
       <c r="I139" t="n">
         <v>6</v>
@@ -10526,10 +10266,8 @@
           <t>4933563286</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>2021-07-18 01:39:36</t>
-        </is>
+      <c r="H140" s="1" t="n">
+        <v>44395.06916666667</v>
       </c>
       <c r="I140" t="n">
         <v>2</v>
@@ -10601,10 +10339,8 @@
           <t>4933559773</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>2021-07-18 01:38:42</t>
-        </is>
+      <c r="H141" s="1" t="n">
+        <v>44395.06854166667</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
@@ -10672,10 +10408,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>2021-07-18 01:37:05</t>
-        </is>
+      <c r="H142" s="1" t="n">
+        <v>44395.06741898148</v>
       </c>
       <c r="I142" t="n">
         <v>1</v>
@@ -10747,10 +10481,8 @@
           <t>4933549197</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>2021-07-18 01:36:15</t>
-        </is>
+      <c r="H143" s="1" t="n">
+        <v>44395.06684027778</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
@@ -10826,10 +10558,8 @@
           <t>4933539923</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>2021-07-18 01:33:47</t>
-        </is>
+      <c r="H144" s="1" t="n">
+        <v>44395.06512731482</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
@@ -10893,10 +10623,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>2021-07-18 01:31:02</t>
-        </is>
+      <c r="H145" s="1" t="n">
+        <v>44395.06321759259</v>
       </c>
       <c r="I145" t="n">
         <v>14</v>
@@ -10965,10 +10693,8 @@
           <t>4932217295</t>
         </is>
       </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>2021-07-18 01:22:11</t>
-        </is>
+      <c r="H146" s="1" t="n">
+        <v>44395.05707175926</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
@@ -11036,10 +10762,8 @@
           <t>4933469281</t>
         </is>
       </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>2021-07-18 01:16:00</t>
-        </is>
+      <c r="H147" s="1" t="n">
+        <v>44395.05277777778</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
@@ -11130,10 +10854,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>2021-07-18 01:15:53</t>
-        </is>
+      <c r="H148" s="1" t="n">
+        <v>44395.05269675926</v>
       </c>
       <c r="I148" t="n">
         <v>12</v>
@@ -11197,10 +10919,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>2021-07-18 01:07:46</t>
-        </is>
+      <c r="H149" s="1" t="n">
+        <v>44395.04706018518</v>
       </c>
       <c r="I149" t="n">
         <v>1</v>
@@ -11274,10 +10994,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>2021-07-18 01:07:14</t>
-        </is>
+      <c r="H150" s="1" t="n">
+        <v>44395.04668981482</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
@@ -11345,10 +11063,8 @@
           <t>4933430266</t>
         </is>
       </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>2021-07-18 01:05:19</t>
-        </is>
+      <c r="H151" s="1" t="n">
+        <v>44395.0453587963</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
@@ -11424,10 +11140,8 @@
           <t>4933418689</t>
         </is>
       </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>2021-07-18 01:04:18</t>
-        </is>
+      <c r="H152" s="1" t="n">
+        <v>44395.04465277777</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
@@ -11487,10 +11201,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>2021-07-18 00:52:46</t>
-        </is>
+      <c r="H153" s="1" t="n">
+        <v>44395.03664351852</v>
       </c>
       <c r="I153" t="n">
         <v>15</v>
@@ -11563,10 +11275,8 @@
           <t>4933312774</t>
         </is>
       </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>2021-07-18 00:43:11</t>
-        </is>
+      <c r="H154" s="1" t="n">
+        <v>44395.02998842593</v>
       </c>
       <c r="I154" t="n">
         <v>2</v>
@@ -11626,10 +11336,8 @@
           <t>4933278074</t>
         </is>
       </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>2021-07-18 00:37:30</t>
-        </is>
+      <c r="H155" s="1" t="n">
+        <v>44395.02604166666</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
@@ -11705,10 +11413,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>2021-07-18 00:36:32</t>
-        </is>
+      <c r="H156" s="1" t="n">
+        <v>44395.02537037037</v>
       </c>
       <c r="I156" t="n">
         <v>2</v>
@@ -11784,10 +11490,8 @@
           <t>4933258326</t>
         </is>
       </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>2021-07-18 00:34:59</t>
-        </is>
+      <c r="H157" s="1" t="n">
+        <v>44395.02429398148</v>
       </c>
       <c r="I157" t="n">
         <v>1</v>
@@ -11852,10 +11556,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>2021-07-18 00:25:19</t>
-        </is>
+      <c r="H158" s="1" t="n">
+        <v>44395.01758101852</v>
       </c>
       <c r="I158" t="n">
         <v>6</v>
@@ -11919,10 +11621,8 @@
           <t>4931923593</t>
         </is>
       </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>2021-07-18 00:23:28</t>
-        </is>
+      <c r="H159" s="1" t="n">
+        <v>44395.01629629629</v>
       </c>
       <c r="I159" t="n">
         <v>0</v>
@@ -11998,10 +11698,8 @@
           <t>4931589421</t>
         </is>
       </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>2021-07-18 00:20:44</t>
-        </is>
+      <c r="H160" s="1" t="n">
+        <v>44395.01439814815</v>
       </c>
       <c r="I160" t="n">
         <v>0</v>
@@ -12077,10 +11775,8 @@
           <t>4933142114</t>
         </is>
       </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>2021-07-18 00:15:46</t>
-        </is>
+      <c r="H161" s="1" t="n">
+        <v>44395.01094907407</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
@@ -12148,10 +11844,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>2021-07-18 00:13:56</t>
-        </is>
+      <c r="H162" s="1" t="n">
+        <v>44395.00967592592</v>
       </c>
       <c r="I162" t="n">
         <v>9</v>
@@ -12215,10 +11909,8 @@
           <t>4933125658</t>
         </is>
       </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>2021-07-18 00:12:56</t>
-        </is>
+      <c r="H163" s="1" t="n">
+        <v>44395.00898148148</v>
       </c>
       <c r="I163" t="n">
         <v>0</v>
@@ -12286,10 +11978,8 @@
           <t>4933114909</t>
         </is>
       </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>2021-07-18 00:12:37</t>
-        </is>
+      <c r="H164" s="1" t="n">
+        <v>44395.00876157408</v>
       </c>
       <c r="I164" t="n">
         <v>3</v>
@@ -12357,10 +12047,8 @@
           <t>4933061353</t>
         </is>
       </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>2021-07-18 00:10:40</t>
-        </is>
+      <c r="H165" s="1" t="n">
+        <v>44395.00740740741</v>
       </c>
       <c r="I165" t="n">
         <v>0</v>
@@ -12424,10 +12112,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>2021-07-18 00:10:22</t>
-        </is>
+      <c r="H166" s="1" t="n">
+        <v>44395.00719907408</v>
       </c>
       <c r="I166" t="n">
         <v>9</v>
@@ -12514,10 +12200,8 @@
           <t>4933100056</t>
         </is>
       </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>2021-07-18 00:08:34</t>
-        </is>
+      <c r="H167" s="1" t="n">
+        <v>44395.00594907408</v>
       </c>
       <c r="I167" t="n">
         <v>0</v>
@@ -12593,10 +12277,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>2021-07-18 00:04:52</t>
-        </is>
+      <c r="H168" s="1" t="n">
+        <v>44395.00337962963</v>
       </c>
       <c r="I168" t="n">
         <v>10</v>
@@ -12664,10 +12346,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>2021-07-18 00:01:33</t>
-        </is>
+      <c r="H169" s="1" t="n">
+        <v>44395.00107638889</v>
       </c>
       <c r="I169" t="n">
         <v>0</v>
@@ -12735,10 +12415,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>2021-07-17 23:52:31</t>
-        </is>
+      <c r="H170" s="1" t="n">
+        <v>44394.99480324074</v>
       </c>
       <c r="I170" t="n">
         <v>1</v>
@@ -12806,10 +12484,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>2021-07-17 23:42:47</t>
-        </is>
+      <c r="H171" s="1" t="n">
+        <v>44394.98804398148</v>
       </c>
       <c r="I171" t="n">
         <v>0</v>
@@ -12877,10 +12553,8 @@
           <t>4932880167</t>
         </is>
       </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>2021-07-17 23:38:50</t>
-        </is>
+      <c r="H172" s="1" t="n">
+        <v>44394.98530092592</v>
       </c>
       <c r="I172" t="n">
         <v>1</v>
@@ -12949,10 +12623,8 @@
           <t>4931274199</t>
         </is>
       </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>2021-07-17 23:37:08</t>
-        </is>
+      <c r="H173" s="1" t="n">
+        <v>44394.98412037037</v>
       </c>
       <c r="I173" t="n">
         <v>1</v>
@@ -13024,10 +12696,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>2021-07-17 23:35:49</t>
-        </is>
+      <c r="H174" s="1" t="n">
+        <v>44394.98320601852</v>
       </c>
       <c r="I174" t="n">
         <v>2</v>
@@ -13099,10 +12769,8 @@
           <t>4931274199</t>
         </is>
       </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>2021-07-17 23:26:48</t>
-        </is>
+      <c r="H175" s="1" t="n">
+        <v>44394.97694444445</v>
       </c>
       <c r="I175" t="n">
         <v>0</v>
@@ -13166,10 +12834,8 @@
           <t>4931923593</t>
         </is>
       </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>2021-07-17 23:25:05</t>
-        </is>
+      <c r="H176" s="1" t="n">
+        <v>44394.97575231481</v>
       </c>
       <c r="I176" t="n">
         <v>0</v>
@@ -13237,10 +12903,8 @@
           <t>4931923593</t>
         </is>
       </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>2021-07-17 23:24:23</t>
-        </is>
+      <c r="H177" s="1" t="n">
+        <v>44394.97526620371</v>
       </c>
       <c r="I177" t="n">
         <v>0</v>
@@ -13308,10 +12972,8 @@
           <t>4932760595</t>
         </is>
       </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>2021-07-17 23:24:02</t>
-        </is>
+      <c r="H178" s="1" t="n">
+        <v>44394.97502314814</v>
       </c>
       <c r="I178" t="n">
         <v>0</v>
@@ -13379,10 +13041,8 @@
           <t>4932608276</t>
         </is>
       </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>2021-07-17 23:23:04</t>
-        </is>
+      <c r="H179" s="1" t="n">
+        <v>44394.97435185185</v>
       </c>
       <c r="I179" t="n">
         <v>1</v>
@@ -13454,10 +13114,8 @@
           <t>4931923593</t>
         </is>
       </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>2021-07-17 23:21:35</t>
-        </is>
+      <c r="H180" s="1" t="n">
+        <v>44394.97332175926</v>
       </c>
       <c r="I180" t="n">
         <v>0</v>
@@ -13525,10 +13183,8 @@
           <t>4932608276</t>
         </is>
       </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>2021-07-17 23:21:04</t>
-        </is>
+      <c r="H181" s="1" t="n">
+        <v>44394.97296296297</v>
       </c>
       <c r="I181" t="n">
         <v>1</v>
@@ -13600,10 +13256,8 @@
           <t>4932608276</t>
         </is>
       </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>2021-07-17 23:20:54</t>
-        </is>
+      <c r="H182" s="1" t="n">
+        <v>44394.97284722222</v>
       </c>
       <c r="I182" t="n">
         <v>1</v>
@@ -13675,10 +13329,8 @@
           <t>4931923593</t>
         </is>
       </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>2021-07-17 23:20:07</t>
-        </is>
+      <c r="H183" s="1" t="n">
+        <v>44394.97230324074</v>
       </c>
       <c r="I183" t="n">
         <v>0</v>
@@ -13751,10 +13403,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>2021-07-17 23:19:09</t>
-        </is>
+      <c r="H184" s="1" t="n">
+        <v>44394.97163194444</v>
       </c>
       <c r="I184" t="n">
         <v>8</v>
@@ -13821,10 +13471,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>2021-07-17 23:18:58</t>
-        </is>
+      <c r="H185" s="1" t="n">
+        <v>44394.97150462963</v>
       </c>
       <c r="I185" t="n">
         <v>10</v>
@@ -13888,10 +13536,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>2021-07-17 23:18:50</t>
-        </is>
+      <c r="H186" s="1" t="n">
+        <v>44394.97141203703</v>
       </c>
       <c r="I186" t="n">
         <v>5</v>
@@ -13962,10 +13608,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>2021-07-17 23:18:43</t>
-        </is>
+      <c r="H187" s="1" t="n">
+        <v>44394.97133101852</v>
       </c>
       <c r="I187" t="n">
         <v>4</v>
@@ -14029,10 +13673,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>2021-07-17 23:18:37</t>
-        </is>
+      <c r="H188" s="1" t="n">
+        <v>44394.97126157407</v>
       </c>
       <c r="I188" t="n">
         <v>7</v>
@@ -14096,10 +13738,8 @@
           <t>4932716089</t>
         </is>
       </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>2021-07-17 23:18:16</t>
-        </is>
+      <c r="H189" s="1" t="n">
+        <v>44394.97101851852</v>
       </c>
       <c r="I189" t="n">
         <v>3</v>
@@ -14167,10 +13807,8 @@
           <t>4931923593</t>
         </is>
       </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>2021-07-17 23:18:12</t>
-        </is>
+      <c r="H190" s="1" t="n">
+        <v>44394.97097222223</v>
       </c>
       <c r="I190" t="n">
         <v>0</v>
@@ -14238,10 +13876,8 @@
           <t>4931716341</t>
         </is>
       </c>
-      <c r="H191" t="inlineStr">
-        <is>
-          <t>2021-07-17 23:17:19</t>
-        </is>
+      <c r="H191" s="1" t="n">
+        <v>44394.97035879629</v>
       </c>
       <c r="I191" t="n">
         <v>1</v>
@@ -14305,10 +13941,8 @@
           <t>4931923593</t>
         </is>
       </c>
-      <c r="H192" t="inlineStr">
-        <is>
-          <t>2021-07-17 23:17:15</t>
-        </is>
+      <c r="H192" s="1" t="n">
+        <v>44394.9703125</v>
       </c>
       <c r="I192" t="n">
         <v>0</v>
@@ -14376,10 +14010,8 @@
           <t>4931923593</t>
         </is>
       </c>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>2021-07-17 23:16:42</t>
-        </is>
+      <c r="H193" s="1" t="n">
+        <v>44394.96993055556</v>
       </c>
       <c r="I193" t="n">
         <v>0</v>
@@ -14447,10 +14079,8 @@
           <t>4931923593</t>
         </is>
       </c>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>2021-07-17 23:15:29</t>
-        </is>
+      <c r="H194" s="1" t="n">
+        <v>44394.96908564815</v>
       </c>
       <c r="I194" t="n">
         <v>0</v>
@@ -14518,10 +14148,8 @@
           <t>4931923593</t>
         </is>
       </c>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t>2021-07-17 23:13:51</t>
-        </is>
+      <c r="H195" s="1" t="n">
+        <v>44394.96795138889</v>
       </c>
       <c r="I195" t="n">
         <v>0</v>
@@ -14589,10 +14217,8 @@
           <t>4932608276</t>
         </is>
       </c>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>2021-07-17 23:13:24</t>
-        </is>
+      <c r="H196" s="1" t="n">
+        <v>44394.96763888889</v>
       </c>
       <c r="I196" t="n">
         <v>1</v>
@@ -14664,10 +14290,8 @@
           <t>4932608276</t>
         </is>
       </c>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>2021-07-17 23:13:18</t>
-        </is>
+      <c r="H197" s="1" t="n">
+        <v>44394.96756944444</v>
       </c>
       <c r="I197" t="n">
         <v>2</v>
@@ -14735,10 +14359,8 @@
           <t>4932664321</t>
         </is>
       </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>2021-07-17 23:13:08</t>
-        </is>
+      <c r="H198" s="1" t="n">
+        <v>44394.96745370371</v>
       </c>
       <c r="I198" t="n">
         <v>0</v>
@@ -14802,10 +14424,8 @@
           <t>4931923593</t>
         </is>
       </c>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>2021-07-17 23:13:06</t>
-        </is>
+      <c r="H199" s="1" t="n">
+        <v>44394.96743055555</v>
       </c>
       <c r="I199" t="n">
         <v>0</v>
@@ -14873,10 +14493,8 @@
           <t>4931923593</t>
         </is>
       </c>
-      <c r="H200" t="inlineStr">
-        <is>
-          <t>2021-07-17 23:12:52</t>
-        </is>
+      <c r="H200" s="1" t="n">
+        <v>44394.96726851852</v>
       </c>
       <c r="I200" t="n">
         <v>0</v>
@@ -14944,10 +14562,8 @@
           <t>4931923593</t>
         </is>
       </c>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>2021-07-17 23:12:35</t>
-        </is>
+      <c r="H201" s="1" t="n">
+        <v>44394.96707175926</v>
       </c>
       <c r="I201" t="n">
         <v>0</v>
@@ -15015,10 +14631,8 @@
           <t>4931923593</t>
         </is>
       </c>
-      <c r="H202" t="inlineStr">
-        <is>
-          <t>2021-07-17 23:10:12</t>
-        </is>
+      <c r="H202" s="1" t="n">
+        <v>44394.96541666667</v>
       </c>
       <c r="I202" t="n">
         <v>0</v>
@@ -15086,10 +14700,8 @@
           <t>4931501861</t>
         </is>
       </c>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>2021-07-17 23:09:25</t>
-        </is>
+      <c r="H203" s="1" t="n">
+        <v>44394.96487268519</v>
       </c>
       <c r="I203" t="n">
         <v>1</v>
@@ -15165,10 +14777,8 @@
           <t>4931923593</t>
         </is>
       </c>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>2021-07-17 23:08:31</t>
-        </is>
+      <c r="H204" s="1" t="n">
+        <v>44394.96424768519</v>
       </c>
       <c r="I204" t="n">
         <v>0</v>
@@ -15236,10 +14846,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>2021-07-17 23:08:08</t>
-        </is>
+      <c r="H205" s="1" t="n">
+        <v>44394.96398148148</v>
       </c>
       <c r="I205" t="n">
         <v>7</v>
@@ -15315,10 +14923,8 @@
           <t>4931923593</t>
         </is>
       </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>2021-07-17 23:07:41</t>
-        </is>
+      <c r="H206" s="1" t="n">
+        <v>44394.96366898148</v>
       </c>
       <c r="I206" t="n">
         <v>0</v>
@@ -15386,10 +14992,8 @@
           <t>4932608276</t>
         </is>
       </c>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>2021-07-17 23:05:50</t>
-        </is>
+      <c r="H207" s="1" t="n">
+        <v>44394.96238425926</v>
       </c>
       <c r="I207" t="n">
         <v>1</v>
@@ -15461,10 +15065,8 @@
           <t>4931923593</t>
         </is>
       </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>2021-07-17 23:05:37</t>
-        </is>
+      <c r="H208" s="1" t="n">
+        <v>44394.96223379629</v>
       </c>
       <c r="I208" t="n">
         <v>0</v>
@@ -15532,10 +15134,8 @@
           <t>4931923593</t>
         </is>
       </c>
-      <c r="H209" t="inlineStr">
-        <is>
-          <t>2021-07-17 23:05:00</t>
-        </is>
+      <c r="H209" s="1" t="n">
+        <v>44394.96180555555</v>
       </c>
       <c r="I209" t="n">
         <v>0</v>
@@ -15603,10 +15203,8 @@
           <t>4932594706</t>
         </is>
       </c>
-      <c r="H210" t="inlineStr">
-        <is>
-          <t>2021-07-17 23:04:35</t>
-        </is>
+      <c r="H210" s="1" t="n">
+        <v>44394.9615162037</v>
       </c>
       <c r="I210" t="n">
         <v>0</v>
@@ -15674,10 +15272,8 @@
           <t>4931923593</t>
         </is>
       </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>2021-07-17 23:04:07</t>
-        </is>
+      <c r="H211" s="1" t="n">
+        <v>44394.96119212963</v>
       </c>
       <c r="I211" t="n">
         <v>1</v>
@@ -15746,10 +15342,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>2021-07-17 23:03:46</t>
-        </is>
+      <c r="H212" s="1" t="n">
+        <v>44394.96094907408</v>
       </c>
       <c r="I212" t="n">
         <v>7</v>
@@ -15817,10 +15411,8 @@
           <t>4931923593</t>
         </is>
       </c>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>2021-07-17 23:03:01</t>
-        </is>
+      <c r="H213" s="1" t="n">
+        <v>44394.96042824074</v>
       </c>
       <c r="I213" t="n">
         <v>1</v>
@@ -15888,10 +15480,8 @@
           <t>4931923593</t>
         </is>
       </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>2021-07-17 23:02:21</t>
-        </is>
+      <c r="H214" s="1" t="n">
+        <v>44394.95996527778</v>
       </c>
       <c r="I214" t="n">
         <v>0</v>
@@ -15959,10 +15549,8 @@
           <t>4931923593</t>
         </is>
       </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>2021-07-17 23:00:48</t>
-        </is>
+      <c r="H215" s="1" t="n">
+        <v>44394.95888888889</v>
       </c>
       <c r="I215" t="n">
         <v>0</v>
@@ -16030,10 +15618,8 @@
           <t>4931923593</t>
         </is>
       </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>2021-07-17 23:00:14</t>
-        </is>
+      <c r="H216" s="1" t="n">
+        <v>44394.95849537037</v>
       </c>
       <c r="I216" t="n">
         <v>0</v>
@@ -16101,10 +15687,8 @@
           <t>4931923593</t>
         </is>
       </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>2021-07-17 22:58:31</t>
-        </is>
+      <c r="H217" s="1" t="n">
+        <v>44394.95730324074</v>
       </c>
       <c r="I217" t="n">
         <v>0</v>
@@ -16172,10 +15756,8 @@
           <t>4931923593</t>
         </is>
       </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>2021-07-17 22:56:58</t>
-        </is>
+      <c r="H218" s="1" t="n">
+        <v>44394.95622685185</v>
       </c>
       <c r="I218" t="n">
         <v>0</v>
@@ -16244,10 +15826,8 @@
           <t>4931923593</t>
         </is>
       </c>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>2021-07-17 22:56:50</t>
-        </is>
+      <c r="H219" s="1" t="n">
+        <v>44394.95613425926</v>
       </c>
       <c r="I219" t="n">
         <v>0</v>
@@ -16315,10 +15895,8 @@
           <t>4932524012</t>
         </is>
       </c>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t>2021-07-17 22:56:01</t>
-        </is>
+      <c r="H220" s="1" t="n">
+        <v>44394.95556712963</v>
       </c>
       <c r="I220" t="n">
         <v>0</v>
@@ -16386,10 +15964,8 @@
           <t>4931923593</t>
         </is>
       </c>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>2021-07-17 22:54:03</t>
-        </is>
+      <c r="H221" s="1" t="n">
+        <v>44394.95420138889</v>
       </c>
       <c r="I221" t="n">
         <v>0</v>
@@ -16457,10 +16033,8 @@
           <t>4931923593</t>
         </is>
       </c>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t>2021-07-17 22:53:08</t>
-        </is>
+      <c r="H222" s="1" t="n">
+        <v>44394.95356481482</v>
       </c>
       <c r="I222" t="n">
         <v>0</v>
@@ -16528,10 +16102,8 @@
           <t>4931923593</t>
         </is>
       </c>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>2021-07-17 22:52:30</t>
-        </is>
+      <c r="H223" s="1" t="n">
+        <v>44394.953125</v>
       </c>
       <c r="I223" t="n">
         <v>0</v>
@@ -16599,10 +16171,8 @@
           <t>4932492002</t>
         </is>
       </c>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>2021-07-17 22:51:21</t>
-        </is>
+      <c r="H224" s="1" t="n">
+        <v>44394.95232638889</v>
       </c>
       <c r="I224" t="n">
         <v>0</v>
@@ -16674,10 +16244,8 @@
           <t>4931716341</t>
         </is>
       </c>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>2021-07-17 22:50:31</t>
-        </is>
+      <c r="H225" s="1" t="n">
+        <v>44394.95174768518</v>
       </c>
       <c r="I225" t="n">
         <v>1</v>
@@ -16746,10 +16314,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H226" t="inlineStr">
-        <is>
-          <t>2021-07-17 22:49:43</t>
-        </is>
+      <c r="H226" s="1" t="n">
+        <v>44394.95119212963</v>
       </c>
       <c r="I226" t="n">
         <v>15</v>
@@ -16813,10 +16379,8 @@
           <t>4931923593</t>
         </is>
       </c>
-      <c r="H227" t="inlineStr">
-        <is>
-          <t>2021-07-17 22:49:36</t>
-        </is>
+      <c r="H227" s="1" t="n">
+        <v>44394.95111111111</v>
       </c>
       <c r="I227" t="n">
         <v>0</v>
@@ -16884,10 +16448,8 @@
           <t>4932464671</t>
         </is>
       </c>
-      <c r="H228" t="inlineStr">
-        <is>
-          <t>2021-07-17 22:48:46</t>
-        </is>
+      <c r="H228" s="1" t="n">
+        <v>44394.95053240741</v>
       </c>
       <c r="I228" t="n">
         <v>0</v>
@@ -16951,10 +16513,8 @@
           <t>4931923593</t>
         </is>
       </c>
-      <c r="H229" t="inlineStr">
-        <is>
-          <t>2021-07-17 22:47:38</t>
-        </is>
+      <c r="H229" s="1" t="n">
+        <v>44394.94974537037</v>
       </c>
       <c r="I229" t="n">
         <v>0</v>
@@ -17022,10 +16582,8 @@
           <t>4932453996</t>
         </is>
       </c>
-      <c r="H230" t="inlineStr">
-        <is>
-          <t>2021-07-17 22:47:09</t>
-        </is>
+      <c r="H230" s="1" t="n">
+        <v>44394.94940972222</v>
       </c>
       <c r="I230" t="n">
         <v>0</v>
@@ -17101,10 +16659,8 @@
           <t>4931923593</t>
         </is>
       </c>
-      <c r="H231" t="inlineStr">
-        <is>
-          <t>2021-07-17 22:46:37</t>
-        </is>
+      <c r="H231" s="1" t="n">
+        <v>44394.94903935185</v>
       </c>
       <c r="I231" t="n">
         <v>0</v>
@@ -17172,10 +16728,8 @@
           <t>4931923593</t>
         </is>
       </c>
-      <c r="H232" t="inlineStr">
-        <is>
-          <t>2021-07-17 22:45:12</t>
-        </is>
+      <c r="H232" s="1" t="n">
+        <v>44394.94805555556</v>
       </c>
       <c r="I232" t="n">
         <v>0</v>
@@ -17243,10 +16797,8 @@
           <t>4931923593</t>
         </is>
       </c>
-      <c r="H233" t="inlineStr">
-        <is>
-          <t>2021-07-17 22:44:31</t>
-        </is>
+      <c r="H233" s="1" t="n">
+        <v>44394.94758101852</v>
       </c>
       <c r="I233" t="n">
         <v>0</v>
@@ -17314,10 +16866,8 @@
           <t>4931649995</t>
         </is>
       </c>
-      <c r="H234" t="inlineStr">
-        <is>
-          <t>2021-07-17 22:43:37</t>
-        </is>
+      <c r="H234" s="1" t="n">
+        <v>44394.94695601852</v>
       </c>
       <c r="I234" t="n">
         <v>2</v>
@@ -17393,10 +16943,8 @@
           <t>4931923593</t>
         </is>
       </c>
-      <c r="H235" t="inlineStr">
-        <is>
-          <t>2021-07-17 22:43:16</t>
-        </is>
+      <c r="H235" s="1" t="n">
+        <v>44394.94671296296</v>
       </c>
       <c r="I235" t="n">
         <v>0</v>
@@ -17464,10 +17012,8 @@
           <t>4931501148</t>
         </is>
       </c>
-      <c r="H236" t="inlineStr">
-        <is>
-          <t>2021-07-17 22:43:00</t>
-        </is>
+      <c r="H236" s="1" t="n">
+        <v>44394.94652777778</v>
       </c>
       <c r="I236" t="n">
         <v>0</v>
@@ -17543,10 +17089,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H237" t="inlineStr">
-        <is>
-          <t>2021-07-17 22:41:41</t>
-        </is>
+      <c r="H237" s="1" t="n">
+        <v>44394.94561342592</v>
       </c>
       <c r="I237" t="n">
         <v>1</v>
@@ -17614,10 +17158,8 @@
           <t>4931923593</t>
         </is>
       </c>
-      <c r="H238" t="inlineStr">
-        <is>
-          <t>2021-07-17 22:40:40</t>
-        </is>
+      <c r="H238" s="1" t="n">
+        <v>44394.94490740741</v>
       </c>
       <c r="I238" t="n">
         <v>1</v>
@@ -17685,10 +17227,8 @@
           <t>4931712172</t>
         </is>
       </c>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>2021-07-17 22:39:48</t>
-        </is>
+      <c r="H239" s="1" t="n">
+        <v>44394.94430555555</v>
       </c>
       <c r="I239" t="n">
         <v>0</v>
@@ -17756,10 +17296,8 @@
           <t>4931923593</t>
         </is>
       </c>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>2021-07-17 22:39:22</t>
-        </is>
+      <c r="H240" s="1" t="n">
+        <v>44394.94400462963</v>
       </c>
       <c r="I240" t="n">
         <v>1</v>
@@ -17827,10 +17365,8 @@
           <t>4932378133</t>
         </is>
       </c>
-      <c r="H241" t="inlineStr">
-        <is>
-          <t>2021-07-17 22:38:02</t>
-        </is>
+      <c r="H241" s="1" t="n">
+        <v>44394.94307870371</v>
       </c>
       <c r="I241" t="n">
         <v>2</v>
@@ -17900,10 +17436,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H242" t="inlineStr">
-        <is>
-          <t>2021-07-17 22:37:57</t>
-        </is>
+      <c r="H242" s="1" t="n">
+        <v>44394.94302083334</v>
       </c>
       <c r="I242" t="n">
         <v>0</v>
@@ -17971,10 +17505,8 @@
           <t>4931501148</t>
         </is>
       </c>
-      <c r="H243" t="inlineStr">
-        <is>
-          <t>2021-07-17 22:37:50</t>
-        </is>
+      <c r="H243" s="1" t="n">
+        <v>44394.94293981481</v>
       </c>
       <c r="I243" t="n">
         <v>0</v>
@@ -18050,10 +17582,8 @@
           <t>4931712172</t>
         </is>
       </c>
-      <c r="H244" t="inlineStr">
-        <is>
-          <t>2021-07-17 22:37:24</t>
-        </is>
+      <c r="H244" s="1" t="n">
+        <v>44394.94263888889</v>
       </c>
       <c r="I244" t="n">
         <v>0</v>
@@ -18121,10 +17651,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H245" t="inlineStr">
-        <is>
-          <t>2021-07-17 22:37:07</t>
-        </is>
+      <c r="H245" s="1" t="n">
+        <v>44394.94244212963</v>
       </c>
       <c r="I245" t="n">
         <v>1</v>
@@ -18188,10 +17716,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H246" t="inlineStr">
-        <is>
-          <t>2021-07-17 22:36:50</t>
-        </is>
+      <c r="H246" s="1" t="n">
+        <v>44394.94224537037</v>
       </c>
       <c r="I246" t="n">
         <v>5</v>
@@ -18255,10 +17781,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H247" t="inlineStr">
-        <is>
-          <t>2021-07-17 22:36:32</t>
-        </is>
+      <c r="H247" s="1" t="n">
+        <v>44394.94203703704</v>
       </c>
       <c r="I247" t="n">
         <v>9</v>
@@ -18323,10 +17847,8 @@
           <t>4931923593</t>
         </is>
       </c>
-      <c r="H248" t="inlineStr">
-        <is>
-          <t>2021-07-17 22:35:34</t>
-        </is>
+      <c r="H248" s="1" t="n">
+        <v>44394.94136574074</v>
       </c>
       <c r="I248" t="n">
         <v>0</v>
@@ -18394,10 +17916,8 @@
           <t>4932337999</t>
         </is>
       </c>
-      <c r="H249" t="inlineStr">
-        <is>
-          <t>2021-07-17 22:34:33</t>
-        </is>
+      <c r="H249" s="1" t="n">
+        <v>44394.94065972222</v>
       </c>
       <c r="I249" t="n">
         <v>0</v>
@@ -18465,10 +17985,8 @@
           <t>4932337999</t>
         </is>
       </c>
-      <c r="H250" t="inlineStr">
-        <is>
-          <t>2021-07-17 22:32:51</t>
-        </is>
+      <c r="H250" s="1" t="n">
+        <v>44394.93947916666</v>
       </c>
       <c r="I250" t="n">
         <v>1</v>
@@ -18536,10 +18054,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H251" t="inlineStr">
-        <is>
-          <t>2021-07-17 22:32:34</t>
-        </is>
+      <c r="H251" s="1" t="n">
+        <v>44394.93928240741</v>
       </c>
       <c r="I251" t="n">
         <v>0</v>
@@ -18615,10 +18131,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H252" t="inlineStr">
-        <is>
-          <t>2021-07-17 22:32:27</t>
-        </is>
+      <c r="H252" s="1" t="n">
+        <v>44394.93920138889</v>
       </c>
       <c r="I252" t="n">
         <v>0</v>
@@ -18686,10 +18200,8 @@
           <t>4932328141</t>
         </is>
       </c>
-      <c r="H253" t="inlineStr">
-        <is>
-          <t>2021-07-17 22:32:25</t>
-        </is>
+      <c r="H253" s="1" t="n">
+        <v>44394.93917824074</v>
       </c>
       <c r="I253" t="n">
         <v>1</v>
@@ -18757,10 +18269,8 @@
           <t>4931712172</t>
         </is>
       </c>
-      <c r="H254" t="inlineStr">
-        <is>
-          <t>2021-07-17 22:31:16</t>
-        </is>
+      <c r="H254" s="1" t="n">
+        <v>44394.93837962963</v>
       </c>
       <c r="I254" t="n">
         <v>0</v>
@@ -18828,10 +18338,8 @@
           <t>4932318190</t>
         </is>
       </c>
-      <c r="H255" t="inlineStr">
-        <is>
-          <t>2021-07-17 22:31:00</t>
-        </is>
+      <c r="H255" s="1" t="n">
+        <v>44394.93819444445</v>
       </c>
       <c r="I255" t="n">
         <v>0</v>
@@ -18907,10 +18415,8 @@
           <t>4932199309</t>
         </is>
       </c>
-      <c r="H256" t="inlineStr">
-        <is>
-          <t>2021-07-17 22:30:40</t>
-        </is>
+      <c r="H256" s="1" t="n">
+        <v>44394.93796296296</v>
       </c>
       <c r="I256" t="n">
         <v>0</v>
@@ -18978,10 +18484,8 @@
           <t>4932315730</t>
         </is>
       </c>
-      <c r="H257" t="inlineStr">
-        <is>
-          <t>2021-07-17 22:30:12</t>
-        </is>
+      <c r="H257" s="1" t="n">
+        <v>44394.93763888889</v>
       </c>
       <c r="I257" t="n">
         <v>0</v>
@@ -19057,10 +18561,8 @@
           <t>4932199309</t>
         </is>
       </c>
-      <c r="H258" t="inlineStr">
-        <is>
-          <t>2021-07-17 22:29:28</t>
-        </is>
+      <c r="H258" s="1" t="n">
+        <v>44394.93712962963</v>
       </c>
       <c r="I258" t="n">
         <v>1</v>
@@ -19128,10 +18630,8 @@
           <t>4932199309</t>
         </is>
       </c>
-      <c r="H259" t="inlineStr">
-        <is>
-          <t>2021-07-17 22:29:09</t>
-        </is>
+      <c r="H259" s="1" t="n">
+        <v>44394.93690972222</v>
       </c>
       <c r="I259" t="n">
         <v>1</v>
@@ -19199,10 +18699,8 @@
           <t>4932194360</t>
         </is>
       </c>
-      <c r="H260" t="inlineStr">
-        <is>
-          <t>2021-07-17 22:28:59</t>
-        </is>
+      <c r="H260" s="1" t="n">
+        <v>44394.93679398148</v>
       </c>
       <c r="I260" t="n">
         <v>0</v>
@@ -19270,10 +18768,8 @@
           <t>4932199309</t>
         </is>
       </c>
-      <c r="H261" t="inlineStr">
-        <is>
-          <t>2021-07-17 22:28:06</t>
-        </is>
+      <c r="H261" s="1" t="n">
+        <v>44394.93618055555</v>
       </c>
       <c r="I261" t="n">
         <v>0</v>
@@ -19341,10 +18837,8 @@
           <t>4932292155</t>
         </is>
       </c>
-      <c r="H262" t="inlineStr">
-        <is>
-          <t>2021-07-17 22:27:32</t>
-        </is>
+      <c r="H262" s="1" t="n">
+        <v>44394.93578703704</v>
       </c>
       <c r="I262" t="n">
         <v>0</v>
@@ -19416,10 +18910,8 @@
           <t>4931923593</t>
         </is>
       </c>
-      <c r="H263" t="inlineStr">
-        <is>
-          <t>2021-07-17 22:26:31</t>
-        </is>
+      <c r="H263" s="1" t="n">
+        <v>44394.93508101852</v>
       </c>
       <c r="I263" t="n">
         <v>0</v>
@@ -19487,10 +18979,8 @@
           <t>4932282378</t>
         </is>
       </c>
-      <c r="H264" t="inlineStr">
-        <is>
-          <t>2021-07-17 22:26:31</t>
-        </is>
+      <c r="H264" s="1" t="n">
+        <v>44394.93508101852</v>
       </c>
       <c r="I264" t="n">
         <v>2</v>
@@ -19558,10 +19048,8 @@
           <t>4931923593</t>
         </is>
       </c>
-      <c r="H265" t="inlineStr">
-        <is>
-          <t>2021-07-17 22:25:51</t>
-        </is>
+      <c r="H265" s="1" t="n">
+        <v>44394.93461805556</v>
       </c>
       <c r="I265" t="n">
         <v>0</v>
@@ -19631,10 +19119,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H266" t="inlineStr">
-        <is>
-          <t>2021-07-17 22:25:26</t>
-        </is>
+      <c r="H266" s="1" t="n">
+        <v>44394.9343287037</v>
       </c>
       <c r="I266" t="n">
         <v>0</v>
@@ -19702,10 +19188,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H267" t="inlineStr">
-        <is>
-          <t>2021-07-17 22:24:04</t>
-        </is>
+      <c r="H267" s="1" t="n">
+        <v>44394.93337962963</v>
       </c>
       <c r="I267" t="n">
         <v>0</v>
@@ -19765,10 +19249,8 @@
           <t>4931923593</t>
         </is>
       </c>
-      <c r="H268" t="inlineStr">
-        <is>
-          <t>2021-07-17 22:23:50</t>
-        </is>
+      <c r="H268" s="1" t="n">
+        <v>44394.9332175926</v>
       </c>
       <c r="I268" t="n">
         <v>1</v>
@@ -19836,10 +19318,8 @@
           <t>4932260415</t>
         </is>
       </c>
-      <c r="H269" t="inlineStr">
-        <is>
-          <t>2021-07-17 22:23:42</t>
-        </is>
+      <c r="H269" s="1" t="n">
+        <v>44394.933125</v>
       </c>
       <c r="I269" t="n">
         <v>1</v>
@@ -19907,10 +19387,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H270" t="inlineStr">
-        <is>
-          <t>2021-07-17 22:22:13</t>
-        </is>
+      <c r="H270" s="1" t="n">
+        <v>44394.93209490741</v>
       </c>
       <c r="I270" t="n">
         <v>0</v>
@@ -19982,10 +19460,8 @@
           <t>4931742526</t>
         </is>
       </c>
-      <c r="H271" t="inlineStr">
-        <is>
-          <t>2021-07-17 22:21:28</t>
-        </is>
+      <c r="H271" s="1" t="n">
+        <v>44394.93157407407</v>
       </c>
       <c r="I271" t="n">
         <v>1</v>
@@ -20054,10 +19530,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H272" t="inlineStr">
-        <is>
-          <t>2021-07-17 22:21:07</t>
-        </is>
+      <c r="H272" s="1" t="n">
+        <v>44394.93133101852</v>
       </c>
       <c r="I272" t="n">
         <v>4</v>
@@ -20125,10 +19599,8 @@
           <t>4932235877</t>
         </is>
       </c>
-      <c r="H273" t="inlineStr">
-        <is>
-          <t>2021-07-17 22:20:32</t>
-        </is>
+      <c r="H273" s="1" t="n">
+        <v>44394.93092592592</v>
       </c>
       <c r="I273" t="n">
         <v>3</v>
@@ -20196,10 +19668,8 @@
           <t>4931923593</t>
         </is>
       </c>
-      <c r="H274" t="inlineStr">
-        <is>
-          <t>2021-07-17 22:19:51</t>
-        </is>
+      <c r="H274" s="1" t="n">
+        <v>44394.93045138889</v>
       </c>
       <c r="I274" t="n">
         <v>3</v>
@@ -20267,10 +19737,8 @@
           <t>4932217295</t>
         </is>
       </c>
-      <c r="H275" t="inlineStr">
-        <is>
-          <t>2021-07-17 22:19:05</t>
-        </is>
+      <c r="H275" s="1" t="n">
+        <v>44394.92991898148</v>
       </c>
       <c r="I275" t="n">
         <v>0</v>
@@ -20338,10 +19806,8 @@
           <t>4931712172</t>
         </is>
       </c>
-      <c r="H276" t="inlineStr">
-        <is>
-          <t>2021-07-17 22:18:59</t>
-        </is>
+      <c r="H276" s="1" t="n">
+        <v>44394.92984953704</v>
       </c>
       <c r="I276" t="n">
         <v>0</v>
@@ -20409,10 +19875,8 @@
           <t>4932199309</t>
         </is>
       </c>
-      <c r="H277" t="inlineStr">
-        <is>
-          <t>2021-07-17 22:17:58</t>
-        </is>
+      <c r="H277" s="1" t="n">
+        <v>44394.92914351852</v>
       </c>
       <c r="I277" t="n">
         <v>0</v>
@@ -20480,10 +19944,8 @@
           <t>4932208029</t>
         </is>
       </c>
-      <c r="H278" t="inlineStr">
-        <is>
-          <t>2021-07-17 22:17:52</t>
-        </is>
+      <c r="H278" s="1" t="n">
+        <v>44394.92907407408</v>
       </c>
       <c r="I278" t="n">
         <v>0</v>
@@ -20551,10 +20013,8 @@
           <t>4932194360</t>
         </is>
       </c>
-      <c r="H279" t="inlineStr">
-        <is>
-          <t>2021-07-17 22:16:38</t>
-        </is>
+      <c r="H279" s="1" t="n">
+        <v>44394.92821759259</v>
       </c>
       <c r="I279" t="n">
         <v>0</v>
@@ -20622,10 +20082,8 @@
           <t>4932192641</t>
         </is>
       </c>
-      <c r="H280" t="inlineStr">
-        <is>
-          <t>2021-07-17 22:16:04</t>
-        </is>
+      <c r="H280" s="1" t="n">
+        <v>44394.92782407408</v>
       </c>
       <c r="I280" t="n">
         <v>0</v>
@@ -20693,10 +20151,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H281" t="inlineStr">
-        <is>
-          <t>2021-07-17 22:15:30</t>
-        </is>
+      <c r="H281" s="1" t="n">
+        <v>44394.92743055556</v>
       </c>
       <c r="I281" t="n">
         <v>2</v>
@@ -20764,10 +20220,8 @@
           <t>4931742526</t>
         </is>
       </c>
-      <c r="H282" t="inlineStr">
-        <is>
-          <t>2021-07-17 22:11:54</t>
-        </is>
+      <c r="H282" s="1" t="n">
+        <v>44394.92493055556</v>
       </c>
       <c r="I282" t="n">
         <v>0</v>
@@ -20831,10 +20285,8 @@
           <t>4932149173</t>
         </is>
       </c>
-      <c r="H283" t="inlineStr">
-        <is>
-          <t>2021-07-17 22:11:28</t>
-        </is>
+      <c r="H283" s="1" t="n">
+        <v>44394.92462962963</v>
       </c>
       <c r="I283" t="n">
         <v>0</v>
@@ -20898,10 +20350,8 @@
           <t>4931297038</t>
         </is>
       </c>
-      <c r="H284" t="inlineStr">
-        <is>
-          <t>2021-07-17 22:11:23</t>
-        </is>
+      <c r="H284" s="1" t="n">
+        <v>44394.92457175926</v>
       </c>
       <c r="I284" t="n">
         <v>0</v>
@@ -20970,10 +20420,8 @@
           <t>4931716341</t>
         </is>
       </c>
-      <c r="H285" t="inlineStr">
-        <is>
-          <t>2021-07-17 22:10:50</t>
-        </is>
+      <c r="H285" s="1" t="n">
+        <v>44394.92418981482</v>
       </c>
       <c r="I285" t="n">
         <v>2</v>
@@ -21037,10 +20485,8 @@
           <t>4932142420</t>
         </is>
       </c>
-      <c r="H286" t="inlineStr">
-        <is>
-          <t>2021-07-17 22:10:37</t>
-        </is>
+      <c r="H286" s="1" t="n">
+        <v>44394.92403935185</v>
       </c>
       <c r="I286" t="n">
         <v>0</v>
@@ -21104,10 +20550,8 @@
           <t>4931839883</t>
         </is>
       </c>
-      <c r="H287" t="inlineStr">
-        <is>
-          <t>2021-07-17 22:08:01</t>
-        </is>
+      <c r="H287" s="1" t="n">
+        <v>44394.92223379629</v>
       </c>
       <c r="I287" t="n">
         <v>2</v>
@@ -21175,10 +20619,8 @@
           <t>4931716341</t>
         </is>
       </c>
-      <c r="H288" t="inlineStr">
-        <is>
-          <t>2021-07-17 22:07:57</t>
-        </is>
+      <c r="H288" s="1" t="n">
+        <v>44394.9221875</v>
       </c>
       <c r="I288" t="n">
         <v>2</v>
@@ -21245,10 +20687,8 @@
           <t>4932090702</t>
         </is>
       </c>
-      <c r="H289" t="inlineStr">
-        <is>
-          <t>2021-07-17 22:03:27</t>
-        </is>
+      <c r="H289" s="1" t="n">
+        <v>44394.9190625</v>
       </c>
       <c r="I289" t="n">
         <v>1</v>
@@ -21314,10 +20754,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H290" t="inlineStr">
-        <is>
-          <t>2021-07-17 22:01:14</t>
-        </is>
+      <c r="H290" s="1" t="n">
+        <v>44394.91752314815</v>
       </c>
       <c r="I290" t="n">
         <v>1</v>
@@ -21381,10 +20819,8 @@
           <t>4931716341</t>
         </is>
       </c>
-      <c r="H291" t="inlineStr">
-        <is>
-          <t>2021-07-17 21:58:15</t>
-        </is>
+      <c r="H291" s="1" t="n">
+        <v>44394.91545138889</v>
       </c>
       <c r="I291" t="n">
         <v>1</v>
@@ -21448,10 +20884,8 @@
           <t>4931716341</t>
         </is>
       </c>
-      <c r="H292" t="inlineStr">
-        <is>
-          <t>2021-07-17 21:57:17</t>
-        </is>
+      <c r="H292" s="1" t="n">
+        <v>44394.91478009259</v>
       </c>
       <c r="I292" t="n">
         <v>0</v>
@@ -21527,10 +20961,8 @@
           <t>4932035791</t>
         </is>
       </c>
-      <c r="H293" t="inlineStr">
-        <is>
-          <t>2021-07-17 21:57:12</t>
-        </is>
+      <c r="H293" s="1" t="n">
+        <v>44394.91472222222</v>
       </c>
       <c r="I293" t="n">
         <v>0</v>
@@ -21606,10 +21038,8 @@
           <t>4932029618</t>
         </is>
       </c>
-      <c r="H294" t="inlineStr">
-        <is>
-          <t>2021-07-17 21:57:09</t>
-        </is>
+      <c r="H294" s="1" t="n">
+        <v>44394.9146875</v>
       </c>
       <c r="I294" t="n">
         <v>1</v>
@@ -21685,10 +21115,8 @@
           <t>4932019740</t>
         </is>
       </c>
-      <c r="H295" t="inlineStr">
-        <is>
-          <t>2021-07-17 21:55:43</t>
-        </is>
+      <c r="H295" s="1" t="n">
+        <v>44394.91369212963</v>
       </c>
       <c r="I295" t="n">
         <v>0</v>
@@ -21752,10 +21180,8 @@
           <t>4931716341</t>
         </is>
       </c>
-      <c r="H296" t="inlineStr">
-        <is>
-          <t>2021-07-17 21:55:25</t>
-        </is>
+      <c r="H296" s="1" t="n">
+        <v>44394.9134837963</v>
       </c>
       <c r="I296" t="n">
         <v>0</v>
@@ -21831,10 +21257,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H297" t="inlineStr">
-        <is>
-          <t>2021-07-17 21:54:32</t>
-        </is>
+      <c r="H297" s="1" t="n">
+        <v>44394.91287037037</v>
       </c>
       <c r="I297" t="n">
         <v>5</v>
@@ -21906,10 +21330,8 @@
           <t>4931716341</t>
         </is>
       </c>
-      <c r="H298" t="inlineStr">
-        <is>
-          <t>2021-07-17 21:54:12</t>
-        </is>
+      <c r="H298" s="1" t="n">
+        <v>44394.91263888889</v>
       </c>
       <c r="I298" t="n">
         <v>1</v>
@@ -21973,10 +21395,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H299" t="inlineStr">
-        <is>
-          <t>2021-07-17 21:53:57</t>
-        </is>
+      <c r="H299" s="1" t="n">
+        <v>44394.91246527778</v>
       </c>
       <c r="I299" t="n">
         <v>0</v>
@@ -22040,10 +21460,8 @@
           <t>4931716341</t>
         </is>
       </c>
-      <c r="H300" t="inlineStr">
-        <is>
-          <t>2021-07-17 21:52:53</t>
-        </is>
+      <c r="H300" s="1" t="n">
+        <v>44394.91172453704</v>
       </c>
       <c r="I300" t="n">
         <v>2</v>
@@ -22119,10 +21537,8 @@
           <t>4931649995</t>
         </is>
       </c>
-      <c r="H301" t="inlineStr">
-        <is>
-          <t>2021-07-17 21:52:27</t>
-        </is>
+      <c r="H301" s="1" t="n">
+        <v>44394.91142361111</v>
       </c>
       <c r="I301" t="n">
         <v>1</v>
@@ -22186,10 +21602,8 @@
           <t>4931716341</t>
         </is>
       </c>
-      <c r="H302" t="inlineStr">
-        <is>
-          <t>2021-07-17 21:49:49</t>
-        </is>
+      <c r="H302" s="1" t="n">
+        <v>44394.90959490741</v>
       </c>
       <c r="I302" t="n">
         <v>1</v>
@@ -22253,10 +21667,8 @@
           <t>4931839883</t>
         </is>
       </c>
-      <c r="H303" t="inlineStr">
-        <is>
-          <t>2021-07-17 21:49:19</t>
-        </is>
+      <c r="H303" s="1" t="n">
+        <v>44394.90924768519</v>
       </c>
       <c r="I303" t="n">
         <v>0</v>
@@ -22320,10 +21732,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H304" t="inlineStr">
-        <is>
-          <t>2021-07-17 21:49:11</t>
-        </is>
+      <c r="H304" s="1" t="n">
+        <v>44394.9091550926</v>
       </c>
       <c r="I304" t="n">
         <v>0</v>
@@ -22399,10 +21809,8 @@
           <t>4931839883</t>
         </is>
       </c>
-      <c r="H305" t="inlineStr">
-        <is>
-          <t>2021-07-17 21:48:39</t>
-        </is>
+      <c r="H305" s="1" t="n">
+        <v>44394.90878472223</v>
       </c>
       <c r="I305" t="n">
         <v>0</v>
@@ -22470,10 +21878,8 @@
           <t>4931716341</t>
         </is>
       </c>
-      <c r="H306" t="inlineStr">
-        <is>
-          <t>2021-07-17 21:48:13</t>
-        </is>
+      <c r="H306" s="1" t="n">
+        <v>44394.90848379629</v>
       </c>
       <c r="I306" t="n">
         <v>2</v>
@@ -22549,10 +21955,8 @@
           <t>4931716341</t>
         </is>
       </c>
-      <c r="H307" t="inlineStr">
-        <is>
-          <t>2021-07-17 21:47:32</t>
-        </is>
+      <c r="H307" s="1" t="n">
+        <v>44394.90800925926</v>
       </c>
       <c r="I307" t="n">
         <v>2</v>
@@ -22628,10 +22032,8 @@
           <t>4931952456</t>
         </is>
       </c>
-      <c r="H308" t="inlineStr">
-        <is>
-          <t>2021-07-17 21:47:06</t>
-        </is>
+      <c r="H308" s="1" t="n">
+        <v>44394.90770833333</v>
       </c>
       <c r="I308" t="n">
         <v>0</v>
@@ -22699,10 +22101,8 @@
           <t>4931716341</t>
         </is>
       </c>
-      <c r="H309" t="inlineStr">
-        <is>
-          <t>2021-07-17 21:46:38</t>
-        </is>
+      <c r="H309" s="1" t="n">
+        <v>44394.90738425926</v>
       </c>
       <c r="I309" t="n">
         <v>1</v>
@@ -22766,10 +22166,8 @@
           <t>4931716341</t>
         </is>
       </c>
-      <c r="H310" t="inlineStr">
-        <is>
-          <t>2021-07-17 21:46:17</t>
-        </is>
+      <c r="H310" s="1" t="n">
+        <v>44394.9071412037</v>
       </c>
       <c r="I310" t="n">
         <v>2</v>
@@ -22845,10 +22243,8 @@
           <t>4931712172</t>
         </is>
       </c>
-      <c r="H311" t="inlineStr">
-        <is>
-          <t>2021-07-17 21:45:50</t>
-        </is>
+      <c r="H311" s="1" t="n">
+        <v>44394.9068287037</v>
       </c>
       <c r="I311" t="n">
         <v>0</v>
@@ -22916,10 +22312,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H312" t="inlineStr">
-        <is>
-          <t>2021-07-17 21:45:33</t>
-        </is>
+      <c r="H312" s="1" t="n">
+        <v>44394.90663194445</v>
       </c>
       <c r="I312" t="n">
         <v>15</v>
@@ -22991,10 +22385,8 @@
           <t>4931855352</t>
         </is>
       </c>
-      <c r="H313" t="inlineStr">
-        <is>
-          <t>2021-07-17 21:44:37</t>
-        </is>
+      <c r="H313" s="1" t="n">
+        <v>44394.9059837963</v>
       </c>
       <c r="I313" t="n">
         <v>0</v>
@@ -23058,10 +22450,8 @@
           <t>4931934600</t>
         </is>
       </c>
-      <c r="H314" t="inlineStr">
-        <is>
-          <t>2021-07-17 21:44:32</t>
-        </is>
+      <c r="H314" s="1" t="n">
+        <v>44394.90592592592</v>
       </c>
       <c r="I314" t="n">
         <v>0</v>
@@ -23129,10 +22519,8 @@
           <t>4931716341</t>
         </is>
       </c>
-      <c r="H315" t="inlineStr">
-        <is>
-          <t>2021-07-17 21:44:31</t>
-        </is>
+      <c r="H315" s="1" t="n">
+        <v>44394.90591435185</v>
       </c>
       <c r="I315" t="n">
         <v>1</v>
@@ -23196,10 +22584,8 @@
           <t>4931928832</t>
         </is>
       </c>
-      <c r="H316" t="inlineStr">
-        <is>
-          <t>2021-07-17 21:44:09</t>
-        </is>
+      <c r="H316" s="1" t="n">
+        <v>44394.90565972222</v>
       </c>
       <c r="I316" t="n">
         <v>1</v>
@@ -23267,10 +22653,8 @@
           <t>4931923593</t>
         </is>
       </c>
-      <c r="H317" t="inlineStr">
-        <is>
-          <t>2021-07-17 21:43:52</t>
-        </is>
+      <c r="H317" s="1" t="n">
+        <v>44394.90546296296</v>
       </c>
       <c r="I317" t="n">
         <v>4</v>
@@ -23338,10 +22722,8 @@
           <t>4931308920</t>
         </is>
       </c>
-      <c r="H318" t="inlineStr">
-        <is>
-          <t>2021-07-17 21:43:26</t>
-        </is>
+      <c r="H318" s="1" t="n">
+        <v>44394.90516203704</v>
       </c>
       <c r="I318" t="n">
         <v>0</v>
@@ -23417,10 +22799,8 @@
           <t>4931855352</t>
         </is>
       </c>
-      <c r="H319" t="inlineStr">
-        <is>
-          <t>2021-07-17 21:43:23</t>
-        </is>
+      <c r="H319" s="1" t="n">
+        <v>44394.90512731481</v>
       </c>
       <c r="I319" t="n">
         <v>0</v>
@@ -23484,10 +22864,8 @@
           <t>4931839883</t>
         </is>
       </c>
-      <c r="H320" t="inlineStr">
-        <is>
-          <t>2021-07-17 21:42:54</t>
-        </is>
+      <c r="H320" s="1" t="n">
+        <v>44394.90479166667</v>
       </c>
       <c r="I320" t="n">
         <v>0</v>
@@ -23551,10 +22929,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H321" t="inlineStr">
-        <is>
-          <t>2021-07-17 21:42:45</t>
-        </is>
+      <c r="H321" s="1" t="n">
+        <v>44394.9046875</v>
       </c>
       <c r="I321" t="n">
         <v>0</v>
@@ -23622,10 +22998,8 @@
           <t>4931855352</t>
         </is>
       </c>
-      <c r="H322" t="inlineStr">
-        <is>
-          <t>2021-07-17 21:42:08</t>
-        </is>
+      <c r="H322" s="1" t="n">
+        <v>44394.90425925926</v>
       </c>
       <c r="I322" t="n">
         <v>0</v>
@@ -23689,10 +23063,8 @@
           <t>4931378204</t>
         </is>
       </c>
-      <c r="H323" t="inlineStr">
-        <is>
-          <t>2021-07-17 21:41:33</t>
-        </is>
+      <c r="H323" s="1" t="n">
+        <v>44394.90385416667</v>
       </c>
       <c r="I323" t="n">
         <v>0</v>
@@ -23768,10 +23140,8 @@
           <t>4931904232</t>
         </is>
       </c>
-      <c r="H324" t="inlineStr">
-        <is>
-          <t>2021-07-17 21:40:37</t>
-        </is>
+      <c r="H324" s="1" t="n">
+        <v>44394.90320601852</v>
       </c>
       <c r="I324" t="n">
         <v>1</v>
@@ -23843,10 +23213,8 @@
           <t>4931378204</t>
         </is>
       </c>
-      <c r="H325" t="inlineStr">
-        <is>
-          <t>2021-07-17 21:40:35</t>
-        </is>
+      <c r="H325" s="1" t="n">
+        <v>44394.90318287037</v>
       </c>
       <c r="I325" t="n">
         <v>0</v>
@@ -23922,10 +23290,8 @@
           <t>4931901800</t>
         </is>
       </c>
-      <c r="H326" t="inlineStr">
-        <is>
-          <t>2021-07-17 21:39:42</t>
-        </is>
+      <c r="H326" s="1" t="n">
+        <v>44394.90256944444</v>
       </c>
       <c r="I326" t="n">
         <v>1</v>
@@ -24001,10 +23367,8 @@
           <t>4931839883</t>
         </is>
       </c>
-      <c r="H327" t="inlineStr">
-        <is>
-          <t>2021-07-17 21:39:42</t>
-        </is>
+      <c r="H327" s="1" t="n">
+        <v>44394.90256944444</v>
       </c>
       <c r="I327" t="n">
         <v>0</v>
@@ -24072,10 +23436,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H328" t="inlineStr">
-        <is>
-          <t>2021-07-17 21:39:38</t>
-        </is>
+      <c r="H328" s="1" t="n">
+        <v>44394.90252314815</v>
       </c>
       <c r="I328" t="n">
         <v>0</v>
@@ -24139,10 +23501,8 @@
           <t>4931896300</t>
         </is>
       </c>
-      <c r="H329" t="inlineStr">
-        <is>
-          <t>2021-07-17 21:39:08</t>
-        </is>
+      <c r="H329" s="1" t="n">
+        <v>44394.90217592593</v>
       </c>
       <c r="I329" t="n">
         <v>0</v>
@@ -24206,10 +23566,8 @@
           <t>4931716341</t>
         </is>
       </c>
-      <c r="H330" t="inlineStr">
-        <is>
-          <t>2021-07-17 21:38:39</t>
-        </is>
+      <c r="H330" s="1" t="n">
+        <v>44394.90184027778</v>
       </c>
       <c r="I330" t="n">
         <v>3</v>
@@ -24285,10 +23643,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H331" t="inlineStr">
-        <is>
-          <t>2021-07-17 21:38:06</t>
-        </is>
+      <c r="H331" s="1" t="n">
+        <v>44394.90145833333</v>
       </c>
       <c r="I331" t="n">
         <v>9</v>
@@ -24356,10 +23712,8 @@
           <t>4931716341</t>
         </is>
       </c>
-      <c r="H332" t="inlineStr">
-        <is>
-          <t>2021-07-17 21:37:26</t>
-        </is>
+      <c r="H332" s="1" t="n">
+        <v>44394.90099537037</v>
       </c>
       <c r="I332" t="n">
         <v>3</v>
@@ -24435,10 +23789,8 @@
           <t>4931885470</t>
         </is>
       </c>
-      <c r="H333" t="inlineStr">
-        <is>
-          <t>2021-07-17 21:37:15</t>
-        </is>
+      <c r="H333" s="1" t="n">
+        <v>44394.90086805556</v>
       </c>
       <c r="I333" t="n">
         <v>0</v>
@@ -24514,10 +23866,8 @@
           <t>4931874273</t>
         </is>
       </c>
-      <c r="H334" t="inlineStr">
-        <is>
-          <t>2021-07-17 21:36:46</t>
-        </is>
+      <c r="H334" s="1" t="n">
+        <v>44394.90053240741</v>
       </c>
       <c r="I334" t="n">
         <v>0</v>
@@ -24593,10 +23943,8 @@
           <t>4931716341</t>
         </is>
       </c>
-      <c r="H335" t="inlineStr">
-        <is>
-          <t>2021-07-17 21:36:23</t>
-        </is>
+      <c r="H335" s="1" t="n">
+        <v>44394.9002662037</v>
       </c>
       <c r="I335" t="n">
         <v>1</v>
@@ -24672,10 +24020,8 @@
           <t>4931839883</t>
         </is>
       </c>
-      <c r="H336" t="inlineStr">
-        <is>
-          <t>2021-07-17 21:36:16</t>
-        </is>
+      <c r="H336" s="1" t="n">
+        <v>44394.90018518519</v>
       </c>
       <c r="I336" t="n">
         <v>0</v>
@@ -24743,10 +24089,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H337" t="inlineStr">
-        <is>
-          <t>2021-07-17 21:36:02</t>
-        </is>
+      <c r="H337" s="1" t="n">
+        <v>44394.90002314815</v>
       </c>
       <c r="I337" t="n">
         <v>0</v>
@@ -24818,10 +24162,8 @@
           <t>4931855352</t>
         </is>
       </c>
-      <c r="H338" t="inlineStr">
-        <is>
-          <t>2021-07-17 21:35:40</t>
-        </is>
+      <c r="H338" s="1" t="n">
+        <v>44394.89976851852</v>
       </c>
       <c r="I338" t="n">
         <v>2</v>
@@ -24889,10 +24231,8 @@
           <t>4931800899</t>
         </is>
       </c>
-      <c r="H339" t="inlineStr">
-        <is>
-          <t>2021-07-17 21:35:39</t>
-        </is>
+      <c r="H339" s="1" t="n">
+        <v>44394.89975694445</v>
       </c>
       <c r="I339" t="n">
         <v>0</v>
@@ -24964,10 +24304,8 @@
           <t>4931859997</t>
         </is>
       </c>
-      <c r="H340" t="inlineStr">
-        <is>
-          <t>2021-07-17 21:35:09</t>
-        </is>
+      <c r="H340" s="1" t="n">
+        <v>44394.89940972222</v>
       </c>
       <c r="I340" t="n">
         <v>1</v>
@@ -25043,10 +24381,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H341" t="inlineStr">
-        <is>
-          <t>2021-07-17 21:34:27</t>
-        </is>
+      <c r="H341" s="1" t="n">
+        <v>44394.89892361111</v>
       </c>
       <c r="I341" t="n">
         <v>9</v>
@@ -25110,10 +24446,8 @@
           <t>4931860255</t>
         </is>
       </c>
-      <c r="H342" t="inlineStr">
-        <is>
-          <t>2021-07-17 21:34:24</t>
-        </is>
+      <c r="H342" s="1" t="n">
+        <v>44394.89888888889</v>
       </c>
       <c r="I342" t="n">
         <v>0</v>
@@ -25189,10 +24523,8 @@
           <t>4931742526</t>
         </is>
       </c>
-      <c r="H343" t="inlineStr">
-        <is>
-          <t>2021-07-17 21:34:08</t>
-        </is>
+      <c r="H343" s="1" t="n">
+        <v>44394.8987037037</v>
       </c>
       <c r="I343" t="n">
         <v>0</v>
@@ -25260,10 +24592,8 @@
           <t>4931716341</t>
         </is>
       </c>
-      <c r="H344" t="inlineStr">
-        <is>
-          <t>2021-07-17 21:34:02</t>
-        </is>
+      <c r="H344" s="1" t="n">
+        <v>44394.89863425926</v>
       </c>
       <c r="I344" t="n">
         <v>1</v>
@@ -25327,10 +24657,8 @@
           <t>4931839883</t>
         </is>
       </c>
-      <c r="H345" t="inlineStr">
-        <is>
-          <t>2021-07-17 21:33:59</t>
-        </is>
+      <c r="H345" s="1" t="n">
+        <v>44394.89859953704</v>
       </c>
       <c r="I345" t="n">
         <v>0</v>
@@ -25398,10 +24726,8 @@
           <t>4931855352</t>
         </is>
       </c>
-      <c r="H346" t="inlineStr">
-        <is>
-          <t>2021-07-17 21:33:22</t>
-        </is>
+      <c r="H346" s="1" t="n">
+        <v>44394.8981712963</v>
       </c>
       <c r="I346" t="n">
         <v>0</v>
@@ -25465,10 +24791,8 @@
           <t>4931511355</t>
         </is>
       </c>
-      <c r="H347" t="inlineStr">
-        <is>
-          <t>2021-07-17 21:33:06</t>
-        </is>
+      <c r="H347" s="1" t="n">
+        <v>44394.89798611111</v>
       </c>
       <c r="I347" t="n">
         <v>0</v>
@@ -25536,10 +24860,8 @@
           <t>4931839883</t>
         </is>
       </c>
-      <c r="H348" t="inlineStr">
-        <is>
-          <t>2021-07-17 21:32:56</t>
-        </is>
+      <c r="H348" s="1" t="n">
+        <v>44394.89787037037</v>
       </c>
       <c r="I348" t="n">
         <v>5</v>
@@ -25615,10 +24937,8 @@
           <t>4931712172</t>
         </is>
       </c>
-      <c r="H349" t="inlineStr">
-        <is>
-          <t>2021-07-17 21:32:53</t>
-        </is>
+      <c r="H349" s="1" t="n">
+        <v>44394.89783564815</v>
       </c>
       <c r="I349" t="n">
         <v>1</v>
@@ -25690,10 +25010,8 @@
           <t>4931747700</t>
         </is>
       </c>
-      <c r="H350" t="inlineStr">
-        <is>
-          <t>2021-07-17 21:32:39</t>
-        </is>
+      <c r="H350" s="1" t="n">
+        <v>44394.89767361111</v>
       </c>
       <c r="I350" t="n">
         <v>0</v>
@@ -25770,10 +25088,8 @@
           <t>4931747700</t>
         </is>
       </c>
-      <c r="H351" t="inlineStr">
-        <is>
-          <t>2021-07-17 21:32:23</t>
-        </is>
+      <c r="H351" s="1" t="n">
+        <v>44394.89748842592</v>
       </c>
       <c r="I351" t="n">
         <v>0</v>
@@ -25845,10 +25161,8 @@
           <t>4931845148</t>
         </is>
       </c>
-      <c r="H352" t="inlineStr">
-        <is>
-          <t>2021-07-17 21:32:19</t>
-        </is>
+      <c r="H352" s="1" t="n">
+        <v>44394.89744212963</v>
       </c>
       <c r="I352" t="n">
         <v>0</v>
@@ -25912,10 +25226,8 @@
           <t>4931837789</t>
         </is>
       </c>
-      <c r="H353" t="inlineStr">
-        <is>
-          <t>2021-07-17 21:32:10</t>
-        </is>
+      <c r="H353" s="1" t="n">
+        <v>44394.89733796296</v>
       </c>
       <c r="I353" t="n">
         <v>2</v>
@@ -25991,10 +25303,8 @@
           <t>4931716341</t>
         </is>
       </c>
-      <c r="H354" t="inlineStr">
-        <is>
-          <t>2021-07-17 21:32:09</t>
-        </is>
+      <c r="H354" s="1" t="n">
+        <v>44394.89732638889</v>
       </c>
       <c r="I354" t="n">
         <v>1</v>
@@ -26062,10 +25372,8 @@
           <t>4931633399</t>
         </is>
       </c>
-      <c r="H355" t="inlineStr">
-        <is>
-          <t>2021-07-17 21:31:46</t>
-        </is>
+      <c r="H355" s="1" t="n">
+        <v>44394.89706018518</v>
       </c>
       <c r="I355" t="n">
         <v>1</v>
@@ -26142,10 +25450,8 @@
           <t>4931747700</t>
         </is>
       </c>
-      <c r="H356" t="inlineStr">
-        <is>
-          <t>2021-07-17 21:31:37</t>
-        </is>
+      <c r="H356" s="1" t="n">
+        <v>44394.89695601852</v>
       </c>
       <c r="I356" t="n">
         <v>0</v>
@@ -26217,10 +25523,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H357" t="inlineStr">
-        <is>
-          <t>2021-07-17 21:31:21</t>
-        </is>
+      <c r="H357" s="1" t="n">
+        <v>44394.89677083334</v>
       </c>
       <c r="I357" t="n">
         <v>3</v>
@@ -26284,10 +25588,8 @@
           <t>4931716341</t>
         </is>
       </c>
-      <c r="H358" t="inlineStr">
-        <is>
-          <t>2021-07-17 21:30:40</t>
-        </is>
+      <c r="H358" s="1" t="n">
+        <v>44394.8962962963</v>
       </c>
       <c r="I358" t="n">
         <v>0</v>
@@ -26363,10 +25665,8 @@
           <t>4931716341</t>
         </is>
       </c>
-      <c r="H359" t="inlineStr">
-        <is>
-          <t>2021-07-17 21:28:57</t>
-        </is>
+      <c r="H359" s="1" t="n">
+        <v>44394.89510416667</v>
       </c>
       <c r="I359" t="n">
         <v>1</v>
@@ -26434,10 +25734,8 @@
           <t>4931716341</t>
         </is>
       </c>
-      <c r="H360" t="inlineStr">
-        <is>
-          <t>2021-07-17 21:27:30</t>
-        </is>
+      <c r="H360" s="1" t="n">
+        <v>44394.89409722222</v>
       </c>
       <c r="I360" t="n">
         <v>0</v>
@@ -26513,10 +25811,8 @@
           <t>4931716341</t>
         </is>
       </c>
-      <c r="H361" t="inlineStr">
-        <is>
-          <t>2021-07-17 21:27:08</t>
-        </is>
+      <c r="H361" s="1" t="n">
+        <v>44394.8938425926</v>
       </c>
       <c r="I361" t="n">
         <v>1</v>
@@ -26584,10 +25880,8 @@
           <t>4931589421</t>
         </is>
       </c>
-      <c r="H362" t="inlineStr">
-        <is>
-          <t>2021-07-17 21:26:54</t>
-        </is>
+      <c r="H362" s="1" t="n">
+        <v>44394.89368055556</v>
       </c>
       <c r="I362" t="n">
         <v>1</v>
@@ -26663,10 +25957,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H363" t="inlineStr">
-        <is>
-          <t>2021-07-17 21:26:39</t>
-        </is>
+      <c r="H363" s="1" t="n">
+        <v>44394.89350694444</v>
       </c>
       <c r="I363" t="n">
         <v>18</v>
@@ -26734,10 +26026,8 @@
           <t>4931800899</t>
         </is>
       </c>
-      <c r="H364" t="inlineStr">
-        <is>
-          <t>2021-07-17 21:26:33</t>
-        </is>
+      <c r="H364" s="1" t="n">
+        <v>44394.8934375</v>
       </c>
       <c r="I364" t="n">
         <v>1</v>
@@ -26809,10 +26099,8 @@
           <t>4931742526</t>
         </is>
       </c>
-      <c r="H365" t="inlineStr">
-        <is>
-          <t>2021-07-17 21:26:28</t>
-        </is>
+      <c r="H365" s="1" t="n">
+        <v>44394.89337962963</v>
       </c>
       <c r="I365" t="n">
         <v>2</v>
@@ -26884,10 +26172,8 @@
           <t>4931378204</t>
         </is>
       </c>
-      <c r="H366" t="inlineStr">
-        <is>
-          <t>2021-07-17 21:26:24</t>
-        </is>
+      <c r="H366" s="1" t="n">
+        <v>44394.89333333333</v>
       </c>
       <c r="I366" t="n">
         <v>0</v>
@@ -26963,10 +26249,8 @@
           <t>4931747700</t>
         </is>
       </c>
-      <c r="H367" t="inlineStr">
-        <is>
-          <t>2021-07-17 21:26:23</t>
-        </is>
+      <c r="H367" s="1" t="n">
+        <v>44394.89332175926</v>
       </c>
       <c r="I367" t="n">
         <v>0</v>
@@ -27043,10 +26327,8 @@
           <t>4931716341</t>
         </is>
       </c>
-      <c r="H368" t="inlineStr">
-        <is>
-          <t>2021-07-17 21:26:08</t>
-        </is>
+      <c r="H368" s="1" t="n">
+        <v>44394.89314814815</v>
       </c>
       <c r="I368" t="n">
         <v>2</v>
@@ -27145,10 +26427,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H369" t="inlineStr">
-        <is>
-          <t>2021-07-17 21:24:54</t>
-        </is>
+      <c r="H369" s="1" t="n">
+        <v>44394.89229166666</v>
       </c>
       <c r="I369" t="n">
         <v>4</v>
@@ -27212,10 +26492,8 @@
           <t>4931378204</t>
         </is>
       </c>
-      <c r="H370" t="inlineStr">
-        <is>
-          <t>2021-07-17 21:24:41</t>
-        </is>
+      <c r="H370" s="1" t="n">
+        <v>44394.8921412037</v>
       </c>
       <c r="I370" t="n">
         <v>0</v>
@@ -27291,10 +26569,8 @@
           <t>4931633399</t>
         </is>
       </c>
-      <c r="H371" t="inlineStr">
-        <is>
-          <t>2021-07-17 21:24:37</t>
-        </is>
+      <c r="H371" s="1" t="n">
+        <v>44394.89209490741</v>
       </c>
       <c r="I371" t="n">
         <v>0</v>
@@ -27358,10 +26634,8 @@
           <t>4931785267</t>
         </is>
       </c>
-      <c r="H372" t="inlineStr">
-        <is>
-          <t>2021-07-17 21:24:16</t>
-        </is>
+      <c r="H372" s="1" t="n">
+        <v>44394.89185185185</v>
       </c>
       <c r="I372" t="n">
         <v>4</v>
@@ -27429,10 +26703,8 @@
           <t>4931378204</t>
         </is>
       </c>
-      <c r="H373" t="inlineStr">
-        <is>
-          <t>2021-07-17 21:23:38</t>
-        </is>
+      <c r="H373" s="1" t="n">
+        <v>44394.89141203704</v>
       </c>
       <c r="I373" t="n">
         <v>0</v>
@@ -27508,10 +26780,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H374" t="inlineStr">
-        <is>
-          <t>2021-07-17 21:23:03</t>
-        </is>
+      <c r="H374" s="1" t="n">
+        <v>44394.89100694445</v>
       </c>
       <c r="I374" t="n">
         <v>8</v>
@@ -27575,10 +26845,8 @@
           <t>4931742526</t>
         </is>
       </c>
-      <c r="H375" t="inlineStr">
-        <is>
-          <t>2021-07-17 21:22:56</t>
-        </is>
+      <c r="H375" s="1" t="n">
+        <v>44394.89092592592</v>
       </c>
       <c r="I375" t="n">
         <v>0</v>
@@ -27646,10 +26914,8 @@
           <t>4931716341</t>
         </is>
       </c>
-      <c r="H376" t="inlineStr">
-        <is>
-          <t>2021-07-17 21:22:32</t>
-        </is>
+      <c r="H376" s="1" t="n">
+        <v>44394.89064814815</v>
       </c>
       <c r="I376" t="n">
         <v>1</v>
@@ -27713,10 +26979,8 @@
           <t>4931770648</t>
         </is>
       </c>
-      <c r="H377" t="inlineStr">
-        <is>
-          <t>2021-07-17 21:22:27</t>
-        </is>
+      <c r="H377" s="1" t="n">
+        <v>44394.89059027778</v>
       </c>
       <c r="I377" t="n">
         <v>2</v>
@@ -27790,10 +27054,8 @@
           <t>4931716341</t>
         </is>
       </c>
-      <c r="H378" t="inlineStr">
-        <is>
-          <t>2021-07-17 21:22:09</t>
-        </is>
+      <c r="H378" s="1" t="n">
+        <v>44394.89038194445</v>
       </c>
       <c r="I378" t="n">
         <v>1</v>
@@ -27861,10 +27123,8 @@
           <t>4931754366</t>
         </is>
       </c>
-      <c r="H379" t="inlineStr">
-        <is>
-          <t>2021-07-17 21:21:45</t>
-        </is>
+      <c r="H379" s="1" t="n">
+        <v>44394.89010416667</v>
       </c>
       <c r="I379" t="n">
         <v>1</v>
@@ -27940,10 +27200,8 @@
           <t>4931716341</t>
         </is>
       </c>
-      <c r="H380" t="inlineStr">
-        <is>
-          <t>2021-07-17 21:21:14</t>
-        </is>
+      <c r="H380" s="1" t="n">
+        <v>44394.88974537037</v>
       </c>
       <c r="I380" t="n">
         <v>2</v>
@@ -28012,10 +27270,8 @@
           <t>4931747700</t>
         </is>
       </c>
-      <c r="H381" t="inlineStr">
-        <is>
-          <t>2021-07-17 21:21:12</t>
-        </is>
+      <c r="H381" s="1" t="n">
+        <v>44394.88972222222</v>
       </c>
       <c r="I381" t="n">
         <v>0</v>
@@ -28087,10 +27343,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H382" t="inlineStr">
-        <is>
-          <t>2021-07-17 21:20:53</t>
-        </is>
+      <c r="H382" s="1" t="n">
+        <v>44394.88950231481</v>
       </c>
       <c r="I382" t="n">
         <v>0</v>
@@ -28166,10 +27420,8 @@
           <t>4931716341</t>
         </is>
       </c>
-      <c r="H383" t="inlineStr">
-        <is>
-          <t>2021-07-17 21:20:26</t>
-        </is>
+      <c r="H383" s="1" t="n">
+        <v>44394.88918981481</v>
       </c>
       <c r="I383" t="n">
         <v>1</v>
@@ -28233,10 +27485,8 @@
           <t>4931742526</t>
         </is>
       </c>
-      <c r="H384" t="inlineStr">
-        <is>
-          <t>2021-07-17 21:19:24</t>
-        </is>
+      <c r="H384" s="1" t="n">
+        <v>44394.88847222222</v>
       </c>
       <c r="I384" t="n">
         <v>4</v>
@@ -28306,10 +27556,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H385" t="inlineStr">
-        <is>
-          <t>2021-07-17 21:19:08</t>
-        </is>
+      <c r="H385" s="1" t="n">
+        <v>44394.88828703704</v>
       </c>
       <c r="I385" t="n">
         <v>19</v>
@@ -28377,10 +27625,8 @@
           <t>4931633399</t>
         </is>
       </c>
-      <c r="H386" t="inlineStr">
-        <is>
-          <t>2021-07-17 21:19:07</t>
-        </is>
+      <c r="H386" s="1" t="n">
+        <v>44394.88827546296</v>
       </c>
       <c r="I386" t="n">
         <v>1</v>
@@ -28456,10 +27702,8 @@
           <t>4931731869</t>
         </is>
       </c>
-      <c r="H387" t="inlineStr">
-        <is>
-          <t>2021-07-17 21:18:49</t>
-        </is>
+      <c r="H387" s="1" t="n">
+        <v>44394.88806712963</v>
       </c>
       <c r="I387" t="n">
         <v>2</v>
@@ -28523,10 +27767,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H388" t="inlineStr">
-        <is>
-          <t>2021-07-17 21:18:25</t>
-        </is>
+      <c r="H388" s="1" t="n">
+        <v>44394.88778935185</v>
       </c>
       <c r="I388" t="n">
         <v>22</v>
@@ -28594,10 +27836,8 @@
           <t>4931716341</t>
         </is>
       </c>
-      <c r="H389" t="inlineStr">
-        <is>
-          <t>2021-07-17 21:17:59</t>
-        </is>
+      <c r="H389" s="1" t="n">
+        <v>44394.88748842593</v>
       </c>
       <c r="I389" t="n">
         <v>3</v>
@@ -28681,10 +27921,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H390" t="inlineStr">
-        <is>
-          <t>2021-07-17 21:17:29</t>
-        </is>
+      <c r="H390" s="1" t="n">
+        <v>44394.8871412037</v>
       </c>
       <c r="I390" t="n">
         <v>18</v>
@@ -28752,10 +27990,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H391" t="inlineStr">
-        <is>
-          <t>2021-07-17 21:17:25</t>
-        </is>
+      <c r="H391" s="1" t="n">
+        <v>44394.8870949074</v>
       </c>
       <c r="I391" t="n">
         <v>13</v>
@@ -28823,10 +28059,8 @@
           <t>4931633399</t>
         </is>
       </c>
-      <c r="H392" t="inlineStr">
-        <is>
-          <t>2021-07-17 21:16:44</t>
-        </is>
+      <c r="H392" s="1" t="n">
+        <v>44394.88662037037</v>
       </c>
       <c r="I392" t="n">
         <v>0</v>
@@ -28890,10 +28124,8 @@
           <t>4931716341</t>
         </is>
       </c>
-      <c r="H393" t="inlineStr">
-        <is>
-          <t>2021-07-17 21:16:31</t>
-        </is>
+      <c r="H393" s="1" t="n">
+        <v>44394.8864699074</v>
       </c>
       <c r="I393" t="n">
         <v>3</v>
@@ -28957,10 +28189,8 @@
           <t>4931715604</t>
         </is>
       </c>
-      <c r="H394" t="inlineStr">
-        <is>
-          <t>2021-07-17 21:16:12</t>
-        </is>
+      <c r="H394" s="1" t="n">
+        <v>44394.88625</v>
       </c>
       <c r="I394" t="n">
         <v>2</v>
@@ -29032,10 +28262,8 @@
           <t>4931712172</t>
         </is>
       </c>
-      <c r="H395" t="inlineStr">
-        <is>
-          <t>2021-07-17 21:15:34</t>
-        </is>
+      <c r="H395" s="1" t="n">
+        <v>44394.88581018519</v>
       </c>
       <c r="I395" t="n">
         <v>6</v>
@@ -29099,10 +28327,8 @@
           <t>4931707268</t>
         </is>
       </c>
-      <c r="H396" t="inlineStr">
-        <is>
-          <t>2021-07-17 21:15:22</t>
-        </is>
+      <c r="H396" s="1" t="n">
+        <v>44394.8856712963</v>
       </c>
       <c r="I396" t="n">
         <v>0</v>
@@ -29178,10 +28404,8 @@
           <t>4931520598</t>
         </is>
       </c>
-      <c r="H397" t="inlineStr">
-        <is>
-          <t>2021-07-17 21:14:38</t>
-        </is>
+      <c r="H397" s="1" t="n">
+        <v>44394.88516203704</v>
       </c>
       <c r="I397" t="n">
         <v>0</v>
@@ -29253,10 +28477,8 @@
           <t>4931684129</t>
         </is>
       </c>
-      <c r="H398" t="inlineStr">
-        <is>
-          <t>2021-07-17 21:14:25</t>
-        </is>
+      <c r="H398" s="1" t="n">
+        <v>44394.88501157407</v>
       </c>
       <c r="I398" t="n">
         <v>0</v>
@@ -29324,10 +28546,8 @@
           <t>4931633399</t>
         </is>
       </c>
-      <c r="H399" t="inlineStr">
-        <is>
-          <t>2021-07-17 21:14:10</t>
-        </is>
+      <c r="H399" s="1" t="n">
+        <v>44394.88483796296</v>
       </c>
       <c r="I399" t="n">
         <v>1</v>
@@ -29403,10 +28623,8 @@
           <t>4931684129</t>
         </is>
       </c>
-      <c r="H400" t="inlineStr">
-        <is>
-          <t>2021-07-17 21:12:56</t>
-        </is>
+      <c r="H400" s="1" t="n">
+        <v>44394.88398148148</v>
       </c>
       <c r="I400" t="n">
         <v>0</v>
@@ -29474,10 +28692,8 @@
           <t>4931695227</t>
         </is>
       </c>
-      <c r="H401" t="inlineStr">
-        <is>
-          <t>2021-07-17 21:12:54</t>
-        </is>
+      <c r="H401" s="1" t="n">
+        <v>44394.88395833333</v>
       </c>
       <c r="I401" t="n">
         <v>0</v>
@@ -29549,10 +28765,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H402" t="inlineStr">
-        <is>
-          <t>2021-07-17 21:12:52</t>
-        </is>
+      <c r="H402" s="1" t="n">
+        <v>44394.88393518519</v>
       </c>
       <c r="I402" t="n">
         <v>0</v>
@@ -29630,10 +28844,8 @@
           <t>4931297038</t>
         </is>
       </c>
-      <c r="H403" t="inlineStr">
-        <is>
-          <t>2021-07-17 21:12:32</t>
-        </is>
+      <c r="H403" s="1" t="n">
+        <v>44394.8837037037</v>
       </c>
       <c r="I403" t="n">
         <v>0</v>
@@ -29709,10 +28921,8 @@
           <t>4931684129</t>
         </is>
       </c>
-      <c r="H404" t="inlineStr">
-        <is>
-          <t>2021-07-17 21:12:28</t>
-        </is>
+      <c r="H404" s="1" t="n">
+        <v>44394.88365740741</v>
       </c>
       <c r="I404" t="n">
         <v>3</v>
@@ -29780,10 +28990,8 @@
           <t>4931633399</t>
         </is>
       </c>
-      <c r="H405" t="inlineStr">
-        <is>
-          <t>2021-07-17 21:11:54</t>
-        </is>
+      <c r="H405" s="1" t="n">
+        <v>44394.88326388889</v>
       </c>
       <c r="I405" t="n">
         <v>0</v>
@@ -29852,10 +29060,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H406" t="inlineStr">
-        <is>
-          <t>2021-07-17 21:11:40</t>
-        </is>
+      <c r="H406" s="1" t="n">
+        <v>44394.88310185185</v>
       </c>
       <c r="I406" t="n">
         <v>31</v>
@@ -29923,10 +29129,8 @@
           <t>4931674795</t>
         </is>
       </c>
-      <c r="H407" t="inlineStr">
-        <is>
-          <t>2021-07-17 21:11:39</t>
-        </is>
+      <c r="H407" s="1" t="n">
+        <v>44394.88309027778</v>
       </c>
       <c r="I407" t="n">
         <v>5</v>
@@ -30002,10 +29206,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H408" t="inlineStr">
-        <is>
-          <t>2021-07-17 21:10:50</t>
-        </is>
+      <c r="H408" s="1" t="n">
+        <v>44394.88252314815</v>
       </c>
       <c r="I408" t="n">
         <v>2</v>
@@ -30082,10 +29284,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H409" t="inlineStr">
-        <is>
-          <t>2021-07-17 21:09:33</t>
-        </is>
+      <c r="H409" s="1" t="n">
+        <v>44394.88163194444</v>
       </c>
       <c r="I409" t="n">
         <v>19</v>
@@ -30149,10 +29349,8 @@
           <t>4931655178</t>
         </is>
       </c>
-      <c r="H410" t="inlineStr">
-        <is>
-          <t>2021-07-17 21:08:51</t>
-        </is>
+      <c r="H410" s="1" t="n">
+        <v>44394.88114583334</v>
       </c>
       <c r="I410" t="n">
         <v>1</v>
@@ -30228,10 +29426,8 @@
           <t>4931649995</t>
         </is>
       </c>
-      <c r="H411" t="inlineStr">
-        <is>
-          <t>2021-07-17 21:08:36</t>
-        </is>
+      <c r="H411" s="1" t="n">
+        <v>44394.88097222222</v>
       </c>
       <c r="I411" t="n">
         <v>3</v>
@@ -30299,10 +29495,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H412" t="inlineStr">
-        <is>
-          <t>2021-07-17 21:08:27</t>
-        </is>
+      <c r="H412" s="1" t="n">
+        <v>44394.88086805555</v>
       </c>
       <c r="I412" t="n">
         <v>0</v>
@@ -30374,10 +29568,8 @@
           <t>4931655178</t>
         </is>
       </c>
-      <c r="H413" t="inlineStr">
-        <is>
-          <t>2021-07-17 21:07:34</t>
-        </is>
+      <c r="H413" s="1" t="n">
+        <v>44394.88025462963</v>
       </c>
       <c r="I413" t="n">
         <v>0</v>
@@ -30453,10 +29645,8 @@
           <t>4931257502</t>
         </is>
       </c>
-      <c r="H414" t="inlineStr">
-        <is>
-          <t>2021-07-17 21:07:29</t>
-        </is>
+      <c r="H414" s="1" t="n">
+        <v>44394.88019675926</v>
       </c>
       <c r="I414" t="n">
         <v>0</v>
@@ -30532,10 +29722,8 @@
           <t>4931644067</t>
         </is>
       </c>
-      <c r="H415" t="inlineStr">
-        <is>
-          <t>2021-07-17 21:07:05</t>
-        </is>
+      <c r="H415" s="1" t="n">
+        <v>44394.87991898148</v>
       </c>
       <c r="I415" t="n">
         <v>0</v>
@@ -30599,10 +29787,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H416" t="inlineStr">
-        <is>
-          <t>2021-07-17 21:06:06</t>
-        </is>
+      <c r="H416" s="1" t="n">
+        <v>44394.87923611111</v>
       </c>
       <c r="I416" t="n">
         <v>0</v>
@@ -30670,10 +29856,8 @@
           <t>4931633399</t>
         </is>
       </c>
-      <c r="H417" t="inlineStr">
-        <is>
-          <t>2021-07-17 21:06:01</t>
-        </is>
+      <c r="H417" s="1" t="n">
+        <v>44394.87917824074</v>
       </c>
       <c r="I417" t="n">
         <v>0</v>
@@ -30749,10 +29933,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H418" t="inlineStr">
-        <is>
-          <t>2021-07-17 21:05:14</t>
-        </is>
+      <c r="H418" s="1" t="n">
+        <v>44394.87863425926</v>
       </c>
       <c r="I418" t="n">
         <v>0</v>
@@ -30820,10 +30002,8 @@
           <t>4931631185</t>
         </is>
       </c>
-      <c r="H419" t="inlineStr">
-        <is>
-          <t>2021-07-17 21:05:08</t>
-        </is>
+      <c r="H419" s="1" t="n">
+        <v>44394.87856481481</v>
       </c>
       <c r="I419" t="n">
         <v>0</v>
@@ -30887,10 +30067,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H420" t="inlineStr">
-        <is>
-          <t>2021-07-17 21:04:48</t>
-        </is>
+      <c r="H420" s="1" t="n">
+        <v>44394.87833333333</v>
       </c>
       <c r="I420" t="n">
         <v>1</v>
@@ -30959,10 +30137,8 @@
           <t>4931627749</t>
         </is>
       </c>
-      <c r="H421" t="inlineStr">
-        <is>
-          <t>2021-07-17 21:04:26</t>
-        </is>
+      <c r="H421" s="1" t="n">
+        <v>44394.8780787037</v>
       </c>
       <c r="I421" t="n">
         <v>0</v>
@@ -31026,10 +30202,8 @@
           <t>4931627064</t>
         </is>
       </c>
-      <c r="H422" t="inlineStr">
-        <is>
-          <t>2021-07-17 21:04:07</t>
-        </is>
+      <c r="H422" s="1" t="n">
+        <v>44394.8778587963</v>
       </c>
       <c r="I422" t="n">
         <v>3</v>
@@ -31105,10 +30279,8 @@
           <t>4931621833</t>
         </is>
       </c>
-      <c r="H423" t="inlineStr">
-        <is>
-          <t>2021-07-17 21:03:44</t>
-        </is>
+      <c r="H423" s="1" t="n">
+        <v>44394.87759259259</v>
       </c>
       <c r="I423" t="n">
         <v>2</v>
@@ -31184,10 +30356,8 @@
           <t>4931614916</t>
         </is>
       </c>
-      <c r="H424" t="inlineStr">
-        <is>
-          <t>2021-07-17 21:03:10</t>
-        </is>
+      <c r="H424" s="1" t="n">
+        <v>44394.87719907407</v>
       </c>
       <c r="I424" t="n">
         <v>0</v>
@@ -31255,10 +30425,8 @@
           <t>4931620401</t>
         </is>
       </c>
-      <c r="H425" t="inlineStr">
-        <is>
-          <t>2021-07-17 21:03:09</t>
-        </is>
+      <c r="H425" s="1" t="n">
+        <v>44394.8771875</v>
       </c>
       <c r="I425" t="n">
         <v>0</v>
@@ -31334,10 +30502,8 @@
           <t>4931608043</t>
         </is>
       </c>
-      <c r="H426" t="inlineStr">
-        <is>
-          <t>2021-07-17 21:02:13</t>
-        </is>
+      <c r="H426" s="1" t="n">
+        <v>44394.87653935186</v>
       </c>
       <c r="I426" t="n">
         <v>0</v>
@@ -31405,10 +30571,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H427" t="inlineStr">
-        <is>
-          <t>2021-07-17 21:01:23</t>
-        </is>
+      <c r="H427" s="1" t="n">
+        <v>44394.87596064815</v>
       </c>
       <c r="I427" t="n">
         <v>24</v>
@@ -31476,10 +30640,8 @@
           <t>4931601561</t>
         </is>
       </c>
-      <c r="H428" t="inlineStr">
-        <is>
-          <t>2021-07-17 21:01:20</t>
-        </is>
+      <c r="H428" s="1" t="n">
+        <v>44394.87592592592</v>
       </c>
       <c r="I428" t="n">
         <v>0</v>
@@ -31555,10 +30717,8 @@
           <t>4931601260</t>
         </is>
       </c>
-      <c r="H429" t="inlineStr">
-        <is>
-          <t>2021-07-17 21:01:13</t>
-        </is>
+      <c r="H429" s="1" t="n">
+        <v>44394.87584490741</v>
       </c>
       <c r="I429" t="n">
         <v>0</v>
@@ -31618,10 +30778,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H430" t="inlineStr">
-        <is>
-          <t>2021-07-17 21:01:02</t>
-        </is>
+      <c r="H430" s="1" t="n">
+        <v>44394.87571759259</v>
       </c>
       <c r="I430" t="n">
         <v>17</v>
@@ -31689,10 +30847,8 @@
           <t>4931377457</t>
         </is>
       </c>
-      <c r="H431" t="inlineStr">
-        <is>
-          <t>2021-07-17 21:00:56</t>
-        </is>
+      <c r="H431" s="1" t="n">
+        <v>44394.87564814815</v>
       </c>
       <c r="I431" t="n">
         <v>0</v>
@@ -31760,10 +30916,8 @@
           <t>4931600399</t>
         </is>
       </c>
-      <c r="H432" t="inlineStr">
-        <is>
-          <t>2021-07-17 21:00:52</t>
-        </is>
+      <c r="H432" s="1" t="n">
+        <v>44394.87560185185</v>
       </c>
       <c r="I432" t="n">
         <v>0</v>
@@ -31839,10 +30993,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H433" t="inlineStr">
-        <is>
-          <t>2021-07-17 21:00:48</t>
-        </is>
+      <c r="H433" s="1" t="n">
+        <v>44394.87555555555</v>
       </c>
       <c r="I433" t="n">
         <v>21</v>
@@ -31921,10 +31073,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H434" t="inlineStr">
-        <is>
-          <t>2021-07-17 21:00:30</t>
-        </is>
+      <c r="H434" s="1" t="n">
+        <v>44394.87534722222</v>
       </c>
       <c r="I434" t="n">
         <v>5</v>
@@ -31992,10 +31142,8 @@
           <t>4931589421</t>
         </is>
       </c>
-      <c r="H435" t="inlineStr">
-        <is>
-          <t>2021-07-17 21:00:30</t>
-        </is>
+      <c r="H435" s="1" t="n">
+        <v>44394.87534722222</v>
       </c>
       <c r="I435" t="n">
         <v>1</v>
@@ -32059,10 +31207,8 @@
           <t>4931501861</t>
         </is>
       </c>
-      <c r="H436" t="inlineStr">
-        <is>
-          <t>2021-07-17 21:00:19</t>
-        </is>
+      <c r="H436" s="1" t="n">
+        <v>44394.87521990741</v>
       </c>
       <c r="I436" t="n">
         <v>2</v>
@@ -32132,10 +31278,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H437" t="inlineStr">
-        <is>
-          <t>2021-07-17 21:00:01</t>
-        </is>
+      <c r="H437" s="1" t="n">
+        <v>44394.87501157408</v>
       </c>
       <c r="I437" t="n">
         <v>11</v>
@@ -32220,10 +31364,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H438" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:59:55</t>
-        </is>
+      <c r="H438" s="1" t="n">
+        <v>44394.87494212963</v>
       </c>
       <c r="I438" t="n">
         <v>18</v>
@@ -32299,10 +31441,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H439" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:59:49</t>
-        </is>
+      <c r="H439" s="1" t="n">
+        <v>44394.87487268518</v>
       </c>
       <c r="I439" t="n">
         <v>71</v>
@@ -32370,10 +31510,8 @@
           <t>4931418273</t>
         </is>
       </c>
-      <c r="H440" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:59:37</t>
-        </is>
+      <c r="H440" s="1" t="n">
+        <v>44394.8747337963</v>
       </c>
       <c r="I440" t="n">
         <v>0</v>
@@ -32449,10 +31587,8 @@
           <t>4931591143</t>
         </is>
       </c>
-      <c r="H441" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:59:24</t>
-        </is>
+      <c r="H441" s="1" t="n">
+        <v>44394.87458333333</v>
       </c>
       <c r="I441" t="n">
         <v>0</v>
@@ -32516,10 +31652,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H442" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:59:18</t>
-        </is>
+      <c r="H442" s="1" t="n">
+        <v>44394.87451388889</v>
       </c>
       <c r="I442" t="n">
         <v>15</v>
@@ -32606,10 +31740,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H443" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:59:11</t>
-        </is>
+      <c r="H443" s="1" t="n">
+        <v>44394.87443287037</v>
       </c>
       <c r="I443" t="n">
         <v>8</v>
@@ -32706,10 +31838,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H444" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:58:58</t>
-        </is>
+      <c r="H444" s="1" t="n">
+        <v>44394.87428240741</v>
       </c>
       <c r="I444" t="n">
         <v>2</v>
@@ -32785,10 +31915,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H445" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:58:47</t>
-        </is>
+      <c r="H445" s="1" t="n">
+        <v>44394.87415509259</v>
       </c>
       <c r="I445" t="n">
         <v>6</v>
@@ -32864,10 +31992,8 @@
           <t>4931418273</t>
         </is>
       </c>
-      <c r="H446" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:58:41</t>
-        </is>
+      <c r="H446" s="1" t="n">
+        <v>44394.87408564815</v>
       </c>
       <c r="I446" t="n">
         <v>0</v>
@@ -32935,10 +32061,8 @@
           <t>4931418273</t>
         </is>
       </c>
-      <c r="H447" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:58:36</t>
-        </is>
+      <c r="H447" s="1" t="n">
+        <v>44394.87402777778</v>
       </c>
       <c r="I447" t="n">
         <v>0</v>
@@ -33006,10 +32130,8 @@
           <t>4931286678</t>
         </is>
       </c>
-      <c r="H448" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:58:33</t>
-        </is>
+      <c r="H448" s="1" t="n">
+        <v>44394.87399305555</v>
       </c>
       <c r="I448" t="n">
         <v>0</v>
@@ -33077,10 +32199,8 @@
           <t>4931583387</t>
         </is>
       </c>
-      <c r="H449" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:58:22</t>
-        </is>
+      <c r="H449" s="1" t="n">
+        <v>44394.87386574074</v>
       </c>
       <c r="I449" t="n">
         <v>0</v>
@@ -33144,10 +32264,8 @@
           <t>4931559401</t>
         </is>
       </c>
-      <c r="H450" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:57:09</t>
-        </is>
+      <c r="H450" s="1" t="n">
+        <v>44394.87302083334</v>
       </c>
       <c r="I450" t="n">
         <v>0</v>
@@ -33211,10 +32329,8 @@
           <t>4931569898</t>
         </is>
       </c>
-      <c r="H451" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:56:58</t>
-        </is>
+      <c r="H451" s="1" t="n">
+        <v>44394.87289351852</v>
       </c>
       <c r="I451" t="n">
         <v>0</v>
@@ -33290,10 +32406,8 @@
           <t>4931570540</t>
         </is>
       </c>
-      <c r="H452" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:56:55</t>
-        </is>
+      <c r="H452" s="1" t="n">
+        <v>44394.8728587963</v>
       </c>
       <c r="I452" t="n">
         <v>0</v>
@@ -33357,10 +32471,8 @@
           <t>4931501861</t>
         </is>
       </c>
-      <c r="H453" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:56:51</t>
-        </is>
+      <c r="H453" s="1" t="n">
+        <v>44394.8728125</v>
       </c>
       <c r="I453" t="n">
         <v>1</v>
@@ -33428,10 +32540,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H454" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:56:28</t>
-        </is>
+      <c r="H454" s="1" t="n">
+        <v>44394.8725462963</v>
       </c>
       <c r="I454" t="n">
         <v>0</v>
@@ -33495,10 +32605,8 @@
           <t>4931559401</t>
         </is>
       </c>
-      <c r="H455" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:56:27</t>
-        </is>
+      <c r="H455" s="1" t="n">
+        <v>44394.87253472222</v>
       </c>
       <c r="I455" t="n">
         <v>0</v>
@@ -33562,10 +32670,8 @@
           <t>4931304289</t>
         </is>
       </c>
-      <c r="H456" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:56:09</t>
-        </is>
+      <c r="H456" s="1" t="n">
+        <v>44394.87232638889</v>
       </c>
       <c r="I456" t="n">
         <v>0</v>
@@ -33629,10 +32735,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H457" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:56:06</t>
-        </is>
+      <c r="H457" s="1" t="n">
+        <v>44394.87229166667</v>
       </c>
       <c r="I457" t="n">
         <v>0</v>
@@ -33704,10 +32808,8 @@
           <t>4931561664</t>
         </is>
       </c>
-      <c r="H458" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:55:22</t>
-        </is>
+      <c r="H458" s="1" t="n">
+        <v>44394.8717824074</v>
       </c>
       <c r="I458" t="n">
         <v>0</v>
@@ -33783,10 +32885,8 @@
           <t>4931565789</t>
         </is>
       </c>
-      <c r="H459" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:55:18</t>
-        </is>
+      <c r="H459" s="1" t="n">
+        <v>44394.87173611111</v>
       </c>
       <c r="I459" t="n">
         <v>0</v>
@@ -33862,10 +32962,8 @@
           <t>4931396503</t>
         </is>
       </c>
-      <c r="H460" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:55:17</t>
-        </is>
+      <c r="H460" s="1" t="n">
+        <v>44394.87172453704</v>
       </c>
       <c r="I460" t="n">
         <v>0</v>
@@ -33937,10 +33035,8 @@
           <t>4931459643</t>
         </is>
       </c>
-      <c r="H461" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:55:10</t>
-        </is>
+      <c r="H461" s="1" t="n">
+        <v>44394.87164351852</v>
       </c>
       <c r="I461" t="n">
         <v>0</v>
@@ -34016,10 +33112,8 @@
           <t>4931560908</t>
         </is>
       </c>
-      <c r="H462" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:55:04</t>
-        </is>
+      <c r="H462" s="1" t="n">
+        <v>44394.87157407407</v>
       </c>
       <c r="I462" t="n">
         <v>0</v>
@@ -34087,10 +33181,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H463" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:54:28</t>
-        </is>
+      <c r="H463" s="1" t="n">
+        <v>44394.8711574074</v>
       </c>
       <c r="I463" t="n">
         <v>0</v>
@@ -34162,10 +33254,8 @@
           <t>4931543859</t>
         </is>
       </c>
-      <c r="H464" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:54:05</t>
-        </is>
+      <c r="H464" s="1" t="n">
+        <v>44394.8708912037</v>
       </c>
       <c r="I464" t="n">
         <v>0</v>
@@ -34244,10 +33334,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H465" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:53:23</t>
-        </is>
+      <c r="H465" s="1" t="n">
+        <v>44394.8704050926</v>
       </c>
       <c r="I465" t="n">
         <v>1</v>
@@ -34311,10 +33399,8 @@
           <t>4931286678</t>
         </is>
       </c>
-      <c r="H466" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:53:13</t>
-        </is>
+      <c r="H466" s="1" t="n">
+        <v>44394.87028935185</v>
       </c>
       <c r="I466" t="n">
         <v>0</v>
@@ -34390,10 +33476,8 @@
           <t>4931308920</t>
         </is>
       </c>
-      <c r="H467" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:53:01</t>
-        </is>
+      <c r="H467" s="1" t="n">
+        <v>44394.87015046296</v>
       </c>
       <c r="I467" t="n">
         <v>0</v>
@@ -34469,10 +33553,8 @@
           <t>4931539984</t>
         </is>
       </c>
-      <c r="H468" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:52:58</t>
-        </is>
+      <c r="H468" s="1" t="n">
+        <v>44394.87011574074</v>
       </c>
       <c r="I468" t="n">
         <v>6</v>
@@ -34548,10 +33630,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H469" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:52:11</t>
-        </is>
+      <c r="H469" s="1" t="n">
+        <v>44394.86957175926</v>
       </c>
       <c r="I469" t="n">
         <v>4</v>
@@ -34619,10 +33699,8 @@
           <t>4931304289</t>
         </is>
       </c>
-      <c r="H470" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:52:09</t>
-        </is>
+      <c r="H470" s="1" t="n">
+        <v>44394.86954861111</v>
       </c>
       <c r="I470" t="n">
         <v>0</v>
@@ -34698,10 +33776,8 @@
           <t>4931528875</t>
         </is>
       </c>
-      <c r="H471" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:51:55</t>
-        </is>
+      <c r="H471" s="1" t="n">
+        <v>44394.86938657407</v>
       </c>
       <c r="I471" t="n">
         <v>0</v>
@@ -34777,10 +33853,8 @@
           <t>4931528663</t>
         </is>
       </c>
-      <c r="H472" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:51:49</t>
-        </is>
+      <c r="H472" s="1" t="n">
+        <v>44394.86931712963</v>
       </c>
       <c r="I472" t="n">
         <v>1</v>
@@ -34844,10 +33918,8 @@
           <t>4931378204</t>
         </is>
       </c>
-      <c r="H473" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:51:48</t>
-        </is>
+      <c r="H473" s="1" t="n">
+        <v>44394.86930555556</v>
       </c>
       <c r="I473" t="n">
         <v>0</v>
@@ -34919,10 +33991,8 @@
           <t>4931418273</t>
         </is>
       </c>
-      <c r="H474" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:51:45</t>
-        </is>
+      <c r="H474" s="1" t="n">
+        <v>44394.86927083333</v>
       </c>
       <c r="I474" t="n">
         <v>0</v>
@@ -34998,10 +34068,8 @@
           <t>4931532508</t>
         </is>
       </c>
-      <c r="H475" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:51:43</t>
-        </is>
+      <c r="H475" s="1" t="n">
+        <v>44394.86924768519</v>
       </c>
       <c r="I475" t="n">
         <v>0</v>
@@ -35069,10 +34137,8 @@
           <t>4931335150</t>
         </is>
       </c>
-      <c r="H476" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:51:40</t>
-        </is>
+      <c r="H476" s="1" t="n">
+        <v>44394.86921296296</v>
       </c>
       <c r="I476" t="n">
         <v>1</v>
@@ -35148,10 +34214,8 @@
           <t>4931459643</t>
         </is>
       </c>
-      <c r="H477" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:50:54</t>
-        </is>
+      <c r="H477" s="1" t="n">
+        <v>44394.86868055556</v>
       </c>
       <c r="I477" t="n">
         <v>0</v>
@@ -35219,10 +34283,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H478" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:50:23</t>
-        </is>
+      <c r="H478" s="1" t="n">
+        <v>44394.86832175926</v>
       </c>
       <c r="I478" t="n">
         <v>1</v>
@@ -35298,10 +34360,8 @@
           <t>4931525351</t>
         </is>
       </c>
-      <c r="H479" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:50:21</t>
-        </is>
+      <c r="H479" s="1" t="n">
+        <v>44394.86829861111</v>
       </c>
       <c r="I479" t="n">
         <v>0</v>
@@ -35365,10 +34425,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H480" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:50:18</t>
-        </is>
+      <c r="H480" s="1" t="n">
+        <v>44394.86826388889</v>
       </c>
       <c r="I480" t="n">
         <v>0</v>
@@ -35432,10 +34490,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H481" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:49:47</t>
-        </is>
+      <c r="H481" s="1" t="n">
+        <v>44394.86790509259</v>
       </c>
       <c r="I481" t="n">
         <v>0</v>
@@ -35511,10 +34567,8 @@
           <t>4931410257</t>
         </is>
       </c>
-      <c r="H482" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:49:47</t>
-        </is>
+      <c r="H482" s="1" t="n">
+        <v>44394.86790509259</v>
       </c>
       <c r="I482" t="n">
         <v>0</v>
@@ -35578,10 +34632,8 @@
           <t>4931521104</t>
         </is>
       </c>
-      <c r="H483" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:49:27</t>
-        </is>
+      <c r="H483" s="1" t="n">
+        <v>44394.86767361111</v>
       </c>
       <c r="I483" t="n">
         <v>0</v>
@@ -35657,10 +34709,8 @@
           <t>4931520598</t>
         </is>
       </c>
-      <c r="H484" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:49:15</t>
-        </is>
+      <c r="H484" s="1" t="n">
+        <v>44394.86753472222</v>
       </c>
       <c r="I484" t="n">
         <v>0</v>
@@ -35728,10 +34778,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H485" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:49:05</t>
-        </is>
+      <c r="H485" s="1" t="n">
+        <v>44394.86741898148</v>
       </c>
       <c r="I485" t="n">
         <v>0</v>
@@ -35807,10 +34855,8 @@
           <t>4931418273</t>
         </is>
       </c>
-      <c r="H486" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:49:04</t>
-        </is>
+      <c r="H486" s="1" t="n">
+        <v>44394.86740740741</v>
       </c>
       <c r="I486" t="n">
         <v>0</v>
@@ -35879,10 +34925,8 @@
           <t>4931511355</t>
         </is>
       </c>
-      <c r="H487" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:48:41</t>
-        </is>
+      <c r="H487" s="1" t="n">
+        <v>44394.8671412037</v>
       </c>
       <c r="I487" t="n">
         <v>1</v>
@@ -35958,10 +35002,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H488" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:48:36</t>
-        </is>
+      <c r="H488" s="1" t="n">
+        <v>44394.86708333333</v>
       </c>
       <c r="I488" t="n">
         <v>0</v>
@@ -36038,10 +35080,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H489" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:48:27</t>
-        </is>
+      <c r="H489" s="1" t="n">
+        <v>44394.86697916667</v>
       </c>
       <c r="I489" t="n">
         <v>55</v>
@@ -36109,10 +35149,8 @@
           <t>4931459643</t>
         </is>
       </c>
-      <c r="H490" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:47:48</t>
-        </is>
+      <c r="H490" s="1" t="n">
+        <v>44394.86652777778</v>
       </c>
       <c r="I490" t="n">
         <v>0</v>
@@ -36188,10 +35226,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H491" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:47:40</t>
-        </is>
+      <c r="H491" s="1" t="n">
+        <v>44394.86643518518</v>
       </c>
       <c r="I491" t="n">
         <v>4</v>
@@ -36259,10 +35295,8 @@
           <t>4931501861</t>
         </is>
       </c>
-      <c r="H492" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:47:28</t>
-        </is>
+      <c r="H492" s="1" t="n">
+        <v>44394.8662962963</v>
       </c>
       <c r="I492" t="n">
         <v>3</v>
@@ -36338,10 +35372,8 @@
           <t>4931505815</t>
         </is>
       </c>
-      <c r="H493" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:47:25</t>
-        </is>
+      <c r="H493" s="1" t="n">
+        <v>44394.86626157408</v>
       </c>
       <c r="I493" t="n">
         <v>0</v>
@@ -36417,10 +35449,8 @@
           <t>4931378204</t>
         </is>
       </c>
-      <c r="H494" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:47:20</t>
-        </is>
+      <c r="H494" s="1" t="n">
+        <v>44394.86620370371</v>
       </c>
       <c r="I494" t="n">
         <v>0</v>
@@ -36496,10 +35526,8 @@
           <t>4931501148</t>
         </is>
       </c>
-      <c r="H495" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:47:11</t>
-        </is>
+      <c r="H495" s="1" t="n">
+        <v>44394.86609953704</v>
       </c>
       <c r="I495" t="n">
         <v>5</v>
@@ -36575,10 +35603,8 @@
           <t>4931410257</t>
         </is>
       </c>
-      <c r="H496" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:47:08</t>
-        </is>
+      <c r="H496" s="1" t="n">
+        <v>44394.86606481481</v>
       </c>
       <c r="I496" t="n">
         <v>2</v>
@@ -36654,10 +35680,8 @@
           <t>4931489478</t>
         </is>
       </c>
-      <c r="H497" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:46:32</t>
-        </is>
+      <c r="H497" s="1" t="n">
+        <v>44394.86564814814</v>
       </c>
       <c r="I497" t="n">
         <v>0</v>
@@ -36733,10 +35757,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H498" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:46:18</t>
-        </is>
+      <c r="H498" s="1" t="n">
+        <v>44394.86548611111</v>
       </c>
       <c r="I498" t="n">
         <v>1</v>
@@ -36804,10 +35826,8 @@
           <t>4931492660</t>
         </is>
       </c>
-      <c r="H499" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:46:11</t>
-        </is>
+      <c r="H499" s="1" t="n">
+        <v>44394.86540509259</v>
       </c>
       <c r="I499" t="n">
         <v>0</v>
@@ -36883,10 +35903,8 @@
           <t>4931492272</t>
         </is>
       </c>
-      <c r="H500" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:46:02</t>
-        </is>
+      <c r="H500" s="1" t="n">
+        <v>44394.86530092593</v>
       </c>
       <c r="I500" t="n">
         <v>0</v>
@@ -36954,10 +35972,8 @@
           <t>4931481360</t>
         </is>
       </c>
-      <c r="H501" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:45:45</t>
-        </is>
+      <c r="H501" s="1" t="n">
+        <v>44394.86510416667</v>
       </c>
       <c r="I501" t="n">
         <v>1</v>
@@ -37025,10 +36041,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H502" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:45:39</t>
-        </is>
+      <c r="H502" s="1" t="n">
+        <v>44394.86503472222</v>
       </c>
       <c r="I502" t="n">
         <v>0</v>
@@ -37100,10 +36114,8 @@
           <t>4931491055</t>
         </is>
       </c>
-      <c r="H503" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:45:33</t>
-        </is>
+      <c r="H503" s="1" t="n">
+        <v>44394.86496527777</v>
       </c>
       <c r="I503" t="n">
         <v>1</v>
@@ -37179,10 +36191,8 @@
           <t>4931378204</t>
         </is>
       </c>
-      <c r="H504" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:45:18</t>
-        </is>
+      <c r="H504" s="1" t="n">
+        <v>44394.86479166667</v>
       </c>
       <c r="I504" t="n">
         <v>0</v>
@@ -37258,10 +36268,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H505" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:45:12</t>
-        </is>
+      <c r="H505" s="1" t="n">
+        <v>44394.86472222222</v>
       </c>
       <c r="I505" t="n">
         <v>7</v>
@@ -37333,10 +36341,8 @@
           <t>4931431984</t>
         </is>
       </c>
-      <c r="H506" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:44:39</t>
-        </is>
+      <c r="H506" s="1" t="n">
+        <v>44394.86434027777</v>
       </c>
       <c r="I506" t="n">
         <v>0</v>
@@ -37408,10 +36414,8 @@
           <t>4931302859</t>
         </is>
       </c>
-      <c r="H507" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:44:37</t>
-        </is>
+      <c r="H507" s="1" t="n">
+        <v>44394.86431712963</v>
       </c>
       <c r="I507" t="n">
         <v>0</v>
@@ -37487,10 +36491,8 @@
           <t>4931478681</t>
         </is>
       </c>
-      <c r="H508" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:44:37</t>
-        </is>
+      <c r="H508" s="1" t="n">
+        <v>44394.86431712963</v>
       </c>
       <c r="I508" t="n">
         <v>0</v>
@@ -37567,10 +36569,8 @@
           <t>4931481360</t>
         </is>
       </c>
-      <c r="H509" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:44:26</t>
-        </is>
+      <c r="H509" s="1" t="n">
+        <v>44394.86418981481</v>
       </c>
       <c r="I509" t="n">
         <v>3</v>
@@ -37647,10 +36647,8 @@
           <t>4931378204</t>
         </is>
       </c>
-      <c r="H510" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:44:23</t>
-        </is>
+      <c r="H510" s="1" t="n">
+        <v>44394.86415509259</v>
       </c>
       <c r="I510" t="n">
         <v>0</v>
@@ -37736,10 +36734,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H511" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:44:17</t>
-        </is>
+      <c r="H511" s="1" t="n">
+        <v>44394.86408564815</v>
       </c>
       <c r="I511" t="n">
         <v>18</v>
@@ -37807,10 +36803,8 @@
           <t>4931469344</t>
         </is>
       </c>
-      <c r="H512" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:43:35</t>
-        </is>
+      <c r="H512" s="1" t="n">
+        <v>44394.86359953704</v>
       </c>
       <c r="I512" t="n">
         <v>0</v>
@@ -37878,10 +36872,8 @@
           <t>4931475581</t>
         </is>
       </c>
-      <c r="H513" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:43:22</t>
-        </is>
+      <c r="H513" s="1" t="n">
+        <v>44394.86344907407</v>
       </c>
       <c r="I513" t="n">
         <v>0</v>
@@ -37957,10 +36949,8 @@
           <t>4931468791</t>
         </is>
       </c>
-      <c r="H514" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:43:20</t>
-        </is>
+      <c r="H514" s="1" t="n">
+        <v>44394.86342592593</v>
       </c>
       <c r="I514" t="n">
         <v>0</v>
@@ -38032,10 +37022,8 @@
           <t>4931459643</t>
         </is>
       </c>
-      <c r="H515" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:42:38</t>
-        </is>
+      <c r="H515" s="1" t="n">
+        <v>44394.86293981481</v>
       </c>
       <c r="I515" t="n">
         <v>1</v>
@@ -38107,10 +37095,8 @@
           <t>4931302859</t>
         </is>
       </c>
-      <c r="H516" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:42:34</t>
-        </is>
+      <c r="H516" s="1" t="n">
+        <v>44394.86289351852</v>
       </c>
       <c r="I516" t="n">
         <v>0</v>
@@ -38178,10 +37164,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H517" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:42:31</t>
-        </is>
+      <c r="H517" s="1" t="n">
+        <v>44394.8628587963</v>
       </c>
       <c r="I517" t="n">
         <v>4</v>
@@ -38249,10 +37233,8 @@
           <t>4931463252</t>
         </is>
       </c>
-      <c r="H518" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:42:27</t>
-        </is>
+      <c r="H518" s="1" t="n">
+        <v>44394.8628125</v>
       </c>
       <c r="I518" t="n">
         <v>0</v>
@@ -38328,10 +37310,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H519" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:41:48</t>
-        </is>
+      <c r="H519" s="1" t="n">
+        <v>44394.86236111111</v>
       </c>
       <c r="I519" t="n">
         <v>54</v>
@@ -38395,10 +37375,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H520" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:41:45</t>
-        </is>
+      <c r="H520" s="1" t="n">
+        <v>44394.86232638889</v>
       </c>
       <c r="I520" t="n">
         <v>21</v>
@@ -38466,10 +37444,8 @@
           <t>4931297038</t>
         </is>
       </c>
-      <c r="H521" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:41:36</t>
-        </is>
+      <c r="H521" s="1" t="n">
+        <v>44394.86222222223</v>
       </c>
       <c r="I521" t="n">
         <v>4</v>
@@ -38533,10 +37509,8 @@
           <t>4931448841</t>
         </is>
       </c>
-      <c r="H522" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:40:43</t>
-        </is>
+      <c r="H522" s="1" t="n">
+        <v>44394.86160879629</v>
       </c>
       <c r="I522" t="n">
         <v>0</v>
@@ -38604,10 +37578,8 @@
           <t>4931302859</t>
         </is>
       </c>
-      <c r="H523" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:40:31</t>
-        </is>
+      <c r="H523" s="1" t="n">
+        <v>44394.86146990741</v>
       </c>
       <c r="I523" t="n">
         <v>0</v>
@@ -38679,10 +37651,8 @@
           <t>4931444177</t>
         </is>
       </c>
-      <c r="H524" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:40:30</t>
-        </is>
+      <c r="H524" s="1" t="n">
+        <v>44394.86145833333</v>
       </c>
       <c r="I524" t="n">
         <v>0</v>
@@ -38746,10 +37716,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H525" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:39:54</t>
-        </is>
+      <c r="H525" s="1" t="n">
+        <v>44394.86104166666</v>
       </c>
       <c r="I525" t="n">
         <v>0</v>
@@ -38825,10 +37793,8 @@
           <t>4931286678</t>
         </is>
       </c>
-      <c r="H526" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:39:53</t>
-        </is>
+      <c r="H526" s="1" t="n">
+        <v>44394.86103009259</v>
       </c>
       <c r="I526" t="n">
         <v>1</v>
@@ -38896,10 +37862,8 @@
           <t>4931378470</t>
         </is>
       </c>
-      <c r="H527" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:39:51</t>
-        </is>
+      <c r="H527" s="1" t="n">
+        <v>44394.86100694445</v>
       </c>
       <c r="I527" t="n">
         <v>0</v>
@@ -38971,10 +37935,8 @@
           <t>4931431984</t>
         </is>
       </c>
-      <c r="H528" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:39:34</t>
-        </is>
+      <c r="H528" s="1" t="n">
+        <v>44394.86081018519</v>
       </c>
       <c r="I528" t="n">
         <v>0</v>
@@ -39050,10 +38012,8 @@
           <t>4931440858</t>
         </is>
       </c>
-      <c r="H529" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:39:13</t>
-        </is>
+      <c r="H529" s="1" t="n">
+        <v>44394.86056712963</v>
       </c>
       <c r="I529" t="n">
         <v>1</v>
@@ -39129,10 +38089,8 @@
           <t>4931308920</t>
         </is>
       </c>
-      <c r="H530" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:38:52</t>
-        </is>
+      <c r="H530" s="1" t="n">
+        <v>44394.86032407408</v>
       </c>
       <c r="I530" t="n">
         <v>0</v>
@@ -39196,10 +38154,8 @@
           <t>4931438413</t>
         </is>
       </c>
-      <c r="H531" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:38:46</t>
-        </is>
+      <c r="H531" s="1" t="n">
+        <v>44394.86025462963</v>
       </c>
       <c r="I531" t="n">
         <v>0</v>
@@ -39263,10 +38219,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H532" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:38:33</t>
-        </is>
+      <c r="H532" s="1" t="n">
+        <v>44394.86010416667</v>
       </c>
       <c r="I532" t="n">
         <v>1</v>
@@ -39342,10 +38296,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H533" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:38:29</t>
-        </is>
+      <c r="H533" s="1" t="n">
+        <v>44394.86005787037</v>
       </c>
       <c r="I533" t="n">
         <v>0</v>
@@ -39409,10 +38361,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H534" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:38:04</t>
-        </is>
+      <c r="H534" s="1" t="n">
+        <v>44394.85976851852</v>
       </c>
       <c r="I534" t="n">
         <v>3</v>
@@ -39476,10 +38426,8 @@
           <t>4931431984</t>
         </is>
       </c>
-      <c r="H535" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:37:58</t>
-        </is>
+      <c r="H535" s="1" t="n">
+        <v>44394.85969907408</v>
       </c>
       <c r="I535" t="n">
         <v>1</v>
@@ -39543,10 +38491,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H536" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:37:55</t>
-        </is>
+      <c r="H536" s="1" t="n">
+        <v>44394.85966435185</v>
       </c>
       <c r="I536" t="n">
         <v>1</v>
@@ -39614,10 +38560,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H537" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:37:53</t>
-        </is>
+      <c r="H537" s="1" t="n">
+        <v>44394.8596412037</v>
       </c>
       <c r="I537" t="n">
         <v>0</v>
@@ -39712,10 +38656,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H538" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:37:38</t>
-        </is>
+      <c r="H538" s="1" t="n">
+        <v>44394.85946759259</v>
       </c>
       <c r="I538" t="n">
         <v>1</v>
@@ -39779,10 +38721,8 @@
           <t>4931424944</t>
         </is>
       </c>
-      <c r="H539" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:37:09</t>
-        </is>
+      <c r="H539" s="1" t="n">
+        <v>44394.85913194445</v>
       </c>
       <c r="I539" t="n">
         <v>2</v>
@@ -39850,10 +38790,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H540" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:37:08</t>
-        </is>
+      <c r="H540" s="1" t="n">
+        <v>44394.85912037037</v>
       </c>
       <c r="I540" t="n">
         <v>36</v>
@@ -39929,10 +38867,8 @@
           <t>4931362059</t>
         </is>
       </c>
-      <c r="H541" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:37:04</t>
-        </is>
+      <c r="H541" s="1" t="n">
+        <v>44394.85907407408</v>
       </c>
       <c r="I541" t="n">
         <v>0</v>
@@ -40008,10 +38944,8 @@
           <t>4931418991</t>
         </is>
       </c>
-      <c r="H542" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:36:52</t>
-        </is>
+      <c r="H542" s="1" t="n">
+        <v>44394.85893518518</v>
       </c>
       <c r="I542" t="n">
         <v>0</v>
@@ -40087,10 +39021,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H543" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:36:37</t>
-        </is>
+      <c r="H543" s="1" t="n">
+        <v>44394.85876157408</v>
       </c>
       <c r="I543" t="n">
         <v>0</v>
@@ -40154,10 +39086,8 @@
           <t>4931418273</t>
         </is>
       </c>
-      <c r="H544" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:36:34</t>
-        </is>
+      <c r="H544" s="1" t="n">
+        <v>44394.85872685185</v>
       </c>
       <c r="I544" t="n">
         <v>0</v>
@@ -40233,10 +39163,8 @@
           <t>4931302859</t>
         </is>
       </c>
-      <c r="H545" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:36:20</t>
-        </is>
+      <c r="H545" s="1" t="n">
+        <v>44394.85856481481</v>
       </c>
       <c r="I545" t="n">
         <v>4</v>
@@ -40321,10 +39249,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H546" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:35:57</t>
-        </is>
+      <c r="H546" s="1" t="n">
+        <v>44394.85829861111</v>
       </c>
       <c r="I546" t="n">
         <v>9</v>
@@ -40400,10 +39326,8 @@
           <t>4931262506</t>
         </is>
       </c>
-      <c r="H547" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:35:23</t>
-        </is>
+      <c r="H547" s="1" t="n">
+        <v>44394.85790509259</v>
       </c>
       <c r="I547" t="n">
         <v>0</v>
@@ -40471,10 +39395,8 @@
           <t>4931420163</t>
         </is>
       </c>
-      <c r="H548" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:35:15</t>
-        </is>
+      <c r="H548" s="1" t="n">
+        <v>44394.8578125</v>
       </c>
       <c r="I548" t="n">
         <v>0</v>
@@ -40546,10 +39468,8 @@
           <t>4931302859</t>
         </is>
       </c>
-      <c r="H549" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:35:13</t>
-        </is>
+      <c r="H549" s="1" t="n">
+        <v>44394.85778935185</v>
       </c>
       <c r="I549" t="n">
         <v>0</v>
@@ -40625,10 +39545,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H550" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:35:12</t>
-        </is>
+      <c r="H550" s="1" t="n">
+        <v>44394.85777777778</v>
       </c>
       <c r="I550" t="n">
         <v>0</v>
@@ -40696,10 +39614,8 @@
           <t>4931410257</t>
         </is>
       </c>
-      <c r="H551" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:34:58</t>
-        </is>
+      <c r="H551" s="1" t="n">
+        <v>44394.85761574074</v>
       </c>
       <c r="I551" t="n">
         <v>7</v>
@@ -40775,10 +39691,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H552" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:34:53</t>
-        </is>
+      <c r="H552" s="1" t="n">
+        <v>44394.85755787037</v>
       </c>
       <c r="I552" t="n">
         <v>0</v>
@@ -40846,10 +39760,8 @@
           <t>4931362059</t>
         </is>
       </c>
-      <c r="H553" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:34:50</t>
-        </is>
+      <c r="H553" s="1" t="n">
+        <v>44394.85752314814</v>
       </c>
       <c r="I553" t="n">
         <v>0</v>
@@ -40921,10 +39833,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H554" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:34:27</t>
-        </is>
+      <c r="H554" s="1" t="n">
+        <v>44394.85725694444</v>
       </c>
       <c r="I554" t="n">
         <v>0</v>
@@ -40993,10 +39903,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H555" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:34:23</t>
-        </is>
+      <c r="H555" s="1" t="n">
+        <v>44394.85721064815</v>
       </c>
       <c r="I555" t="n">
         <v>0</v>
@@ -41072,10 +39980,8 @@
           <t>4931406462</t>
         </is>
       </c>
-      <c r="H556" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:33:48</t>
-        </is>
+      <c r="H556" s="1" t="n">
+        <v>44394.85680555556</v>
       </c>
       <c r="I556" t="n">
         <v>0</v>
@@ -41135,10 +40041,8 @@
           <t>4931401935</t>
         </is>
       </c>
-      <c r="H557" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:33:48</t>
-        </is>
+      <c r="H557" s="1" t="n">
+        <v>44394.85680555556</v>
       </c>
       <c r="I557" t="n">
         <v>0</v>
@@ -41206,10 +40110,8 @@
           <t>4931405807</t>
         </is>
       </c>
-      <c r="H558" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:33:33</t>
-        </is>
+      <c r="H558" s="1" t="n">
+        <v>44394.85663194444</v>
       </c>
       <c r="I558" t="n">
         <v>0</v>
@@ -41281,10 +40183,8 @@
           <t>4931362059</t>
         </is>
       </c>
-      <c r="H559" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:33:31</t>
-        </is>
+      <c r="H559" s="1" t="n">
+        <v>44394.8566087963</v>
       </c>
       <c r="I559" t="n">
         <v>0</v>
@@ -41360,10 +40260,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H560" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:33:29</t>
-        </is>
+      <c r="H560" s="1" t="n">
+        <v>44394.85658564815</v>
       </c>
       <c r="I560" t="n">
         <v>0</v>
@@ -41439,10 +40337,8 @@
           <t>4931396503</t>
         </is>
       </c>
-      <c r="H561" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:33:28</t>
-        </is>
+      <c r="H561" s="1" t="n">
+        <v>44394.85657407407</v>
       </c>
       <c r="I561" t="n">
         <v>2</v>
@@ -41514,10 +40410,8 @@
           <t>4931395723</t>
         </is>
       </c>
-      <c r="H562" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:33:10</t>
-        </is>
+      <c r="H562" s="1" t="n">
+        <v>44394.85636574074</v>
       </c>
       <c r="I562" t="n">
         <v>0</v>
@@ -41577,10 +40471,8 @@
           <t>4931400432</t>
         </is>
       </c>
-      <c r="H563" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:33:09</t>
-        </is>
+      <c r="H563" s="1" t="n">
+        <v>44394.85635416667</v>
       </c>
       <c r="I563" t="n">
         <v>0</v>
@@ -41656,10 +40548,8 @@
           <t>4931362059</t>
         </is>
       </c>
-      <c r="H564" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:32:48</t>
-        </is>
+      <c r="H564" s="1" t="n">
+        <v>44394.85611111111</v>
       </c>
       <c r="I564" t="n">
         <v>0</v>
@@ -41731,10 +40621,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H565" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:32:46</t>
-        </is>
+      <c r="H565" s="1" t="n">
+        <v>44394.85608796297</v>
       </c>
       <c r="I565" t="n">
         <v>7</v>
@@ -41806,10 +40694,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H566" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:32:33</t>
-        </is>
+      <c r="H566" s="1" t="n">
+        <v>44394.8559375</v>
       </c>
       <c r="I566" t="n">
         <v>17</v>
@@ -41885,10 +40771,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H567" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:32:27</t>
-        </is>
+      <c r="H567" s="1" t="n">
+        <v>44394.85586805556</v>
       </c>
       <c r="I567" t="n">
         <v>1</v>
@@ -41960,10 +40844,8 @@
           <t>4931378470</t>
         </is>
       </c>
-      <c r="H568" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:31:49</t>
-        </is>
+      <c r="H568" s="1" t="n">
+        <v>44394.85542824074</v>
       </c>
       <c r="I568" t="n">
         <v>1</v>
@@ -42032,10 +40914,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H569" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:31:33</t>
-        </is>
+      <c r="H569" s="1" t="n">
+        <v>44394.85524305556</v>
       </c>
       <c r="I569" t="n">
         <v>4</v>
@@ -42103,10 +40983,8 @@
           <t>4931379975</t>
         </is>
       </c>
-      <c r="H570" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:31:14</t>
-        </is>
+      <c r="H570" s="1" t="n">
+        <v>44394.85502314815</v>
       </c>
       <c r="I570" t="n">
         <v>0</v>
@@ -42170,10 +41048,8 @@
           <t>4931379121</t>
         </is>
       </c>
-      <c r="H571" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:30:53</t>
-        </is>
+      <c r="H571" s="1" t="n">
+        <v>44394.8547800926</v>
       </c>
       <c r="I571" t="n">
         <v>0</v>
@@ -42249,10 +41125,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H572" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:30:50</t>
-        </is>
+      <c r="H572" s="1" t="n">
+        <v>44394.85474537037</v>
       </c>
       <c r="I572" t="n">
         <v>0</v>
@@ -42330,10 +41204,8 @@
           <t>4931378470</t>
         </is>
       </c>
-      <c r="H573" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:30:37</t>
-        </is>
+      <c r="H573" s="1" t="n">
+        <v>44394.85459490741</v>
       </c>
       <c r="I573" t="n">
         <v>1</v>
@@ -42405,10 +41277,8 @@
           <t>4931378353</t>
         </is>
       </c>
-      <c r="H574" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:30:35</t>
-        </is>
+      <c r="H574" s="1" t="n">
+        <v>44394.85457175926</v>
       </c>
       <c r="I574" t="n">
         <v>0</v>
@@ -42472,10 +41342,8 @@
           <t>4931378204</t>
         </is>
       </c>
-      <c r="H575" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:30:31</t>
-        </is>
+      <c r="H575" s="1" t="n">
+        <v>44394.85452546296</v>
       </c>
       <c r="I575" t="n">
         <v>5</v>
@@ -42552,10 +41420,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H576" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:30:23</t>
-        </is>
+      <c r="H576" s="1" t="n">
+        <v>44394.85443287037</v>
       </c>
       <c r="I576" t="n">
         <v>14</v>
@@ -42623,10 +41489,8 @@
           <t>4931373618</t>
         </is>
       </c>
-      <c r="H577" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:30:20</t>
-        </is>
+      <c r="H577" s="1" t="n">
+        <v>44394.85439814815</v>
       </c>
       <c r="I577" t="n">
         <v>11</v>
@@ -42702,10 +41566,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H578" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:30:15</t>
-        </is>
+      <c r="H578" s="1" t="n">
+        <v>44394.85434027778</v>
       </c>
       <c r="I578" t="n">
         <v>0</v>
@@ -42777,10 +41639,8 @@
           <t>4931377457</t>
         </is>
       </c>
-      <c r="H579" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:30:14</t>
-        </is>
+      <c r="H579" s="1" t="n">
+        <v>44394.8543287037</v>
       </c>
       <c r="I579" t="n">
         <v>0</v>
@@ -42848,10 +41708,8 @@
           <t>4931377404</t>
         </is>
       </c>
-      <c r="H580" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:30:12</t>
-        </is>
+      <c r="H580" s="1" t="n">
+        <v>44394.85430555556</v>
       </c>
       <c r="I580" t="n">
         <v>0</v>
@@ -42936,10 +41794,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H581" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:29:52</t>
-        </is>
+      <c r="H581" s="1" t="n">
+        <v>44394.85407407407</v>
       </c>
       <c r="I581" t="n">
         <v>1</v>
@@ -43013,10 +41869,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H582" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:29:44</t>
-        </is>
+      <c r="H582" s="1" t="n">
+        <v>44394.85398148148</v>
       </c>
       <c r="I582" t="n">
         <v>0</v>
@@ -43092,10 +41946,8 @@
           <t>4931367233</t>
         </is>
       </c>
-      <c r="H583" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:29:38</t>
-        </is>
+      <c r="H583" s="1" t="n">
+        <v>44394.85391203704</v>
       </c>
       <c r="I583" t="n">
         <v>0</v>
@@ -43159,10 +42011,8 @@
           <t>4931371812</t>
         </is>
       </c>
-      <c r="H584" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:29:37</t>
-        </is>
+      <c r="H584" s="1" t="n">
+        <v>44394.85390046296</v>
       </c>
       <c r="I584" t="n">
         <v>0</v>
@@ -43234,10 +42084,8 @@
           <t>4931364640</t>
         </is>
       </c>
-      <c r="H585" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:29:08</t>
-        </is>
+      <c r="H585" s="1" t="n">
+        <v>44394.85356481482</v>
       </c>
       <c r="I585" t="n">
         <v>0</v>
@@ -43307,10 +42155,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H586" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:29:04</t>
-        </is>
+      <c r="H586" s="1" t="n">
+        <v>44394.85351851852</v>
       </c>
       <c r="I586" t="n">
         <v>1</v>
@@ -43386,10 +42232,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H587" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:29:02</t>
-        </is>
+      <c r="H587" s="1" t="n">
+        <v>44394.85349537037</v>
       </c>
       <c r="I587" t="n">
         <v>0</v>
@@ -43461,10 +42305,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H588" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:28:58</t>
-        </is>
+      <c r="H588" s="1" t="n">
+        <v>44394.85344907407</v>
       </c>
       <c r="I588" t="n">
         <v>15</v>
@@ -43536,10 +42378,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H589" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:28:51</t>
-        </is>
+      <c r="H589" s="1" t="n">
+        <v>44394.85336805556</v>
       </c>
       <c r="I589" t="n">
         <v>1</v>
@@ -43603,10 +42443,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H590" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:28:44</t>
-        </is>
+      <c r="H590" s="1" t="n">
+        <v>44394.85328703704</v>
       </c>
       <c r="I590" t="n">
         <v>0</v>
@@ -43682,10 +42520,8 @@
           <t>4931363332</t>
         </is>
       </c>
-      <c r="H591" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:28:37</t>
-        </is>
+      <c r="H591" s="1" t="n">
+        <v>44394.85320601852</v>
       </c>
       <c r="I591" t="n">
         <v>0</v>
@@ -43758,10 +42594,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H592" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:28:36</t>
-        </is>
+      <c r="H592" s="1" t="n">
+        <v>44394.85319444445</v>
       </c>
       <c r="I592" t="n">
         <v>1</v>
@@ -43829,10 +42663,8 @@
           <t>4931354698</t>
         </is>
       </c>
-      <c r="H593" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:28:34</t>
-        </is>
+      <c r="H593" s="1" t="n">
+        <v>44394.85317129629</v>
       </c>
       <c r="I593" t="n">
         <v>1</v>
@@ -43896,10 +42728,8 @@
           <t>4931308920</t>
         </is>
       </c>
-      <c r="H594" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:28:22</t>
-        </is>
+      <c r="H594" s="1" t="n">
+        <v>44394.85303240741</v>
       </c>
       <c r="I594" t="n">
         <v>0</v>
@@ -43975,10 +42805,8 @@
           <t>4931358195</t>
         </is>
       </c>
-      <c r="H595" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:28:14</t>
-        </is>
+      <c r="H595" s="1" t="n">
+        <v>44394.85293981482</v>
       </c>
       <c r="I595" t="n">
         <v>5</v>
@@ -44042,10 +42870,8 @@
           <t>4931362059</t>
         </is>
       </c>
-      <c r="H596" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:28:07</t>
-        </is>
+      <c r="H596" s="1" t="n">
+        <v>44394.85285879629</v>
       </c>
       <c r="I596" t="n">
         <v>3</v>
@@ -44121,10 +42947,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H597" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:28:05</t>
-        </is>
+      <c r="H597" s="1" t="n">
+        <v>44394.85283564815</v>
       </c>
       <c r="I597" t="n">
         <v>5</v>
@@ -44192,10 +43016,8 @@
           <t>4931352672</t>
         </is>
       </c>
-      <c r="H598" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:27:40</t>
-        </is>
+      <c r="H598" s="1" t="n">
+        <v>44394.85254629629</v>
       </c>
       <c r="I598" t="n">
         <v>0</v>
@@ -44263,10 +43085,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H599" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:27:30</t>
-        </is>
+      <c r="H599" s="1" t="n">
+        <v>44394.85243055555</v>
       </c>
       <c r="I599" t="n">
         <v>0</v>
@@ -44334,10 +43154,8 @@
           <t>4931350339</t>
         </is>
       </c>
-      <c r="H600" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:26:39</t>
-        </is>
+      <c r="H600" s="1" t="n">
+        <v>44394.85184027778</v>
       </c>
       <c r="I600" t="n">
         <v>1</v>
@@ -44413,10 +43231,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H601" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:26:13</t>
-        </is>
+      <c r="H601" s="1" t="n">
+        <v>44394.85153935185</v>
       </c>
       <c r="I601" t="n">
         <v>1</v>
@@ -44488,10 +43304,8 @@
           <t>4931343135</t>
         </is>
       </c>
-      <c r="H602" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:26:10</t>
-        </is>
+      <c r="H602" s="1" t="n">
+        <v>44394.85150462963</v>
       </c>
       <c r="I602" t="n">
         <v>0</v>
@@ -44567,10 +43381,8 @@
           <t>4931342867</t>
         </is>
       </c>
-      <c r="H603" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:26:03</t>
-        </is>
+      <c r="H603" s="1" t="n">
+        <v>44394.85142361111</v>
       </c>
       <c r="I603" t="n">
         <v>0</v>
@@ -44646,10 +43458,8 @@
           <t>4931342388</t>
         </is>
       </c>
-      <c r="H604" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:25:53</t>
-        </is>
+      <c r="H604" s="1" t="n">
+        <v>44394.85130787037</v>
       </c>
       <c r="I604" t="n">
         <v>8</v>
@@ -44713,10 +43523,8 @@
           <t>4931303857</t>
         </is>
       </c>
-      <c r="H605" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:25:43</t>
-        </is>
+      <c r="H605" s="1" t="n">
+        <v>44394.85119212963</v>
       </c>
       <c r="I605" t="n">
         <v>0</v>
@@ -44781,10 +43589,8 @@
           <t>4931337559</t>
         </is>
       </c>
-      <c r="H606" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:25:28</t>
-        </is>
+      <c r="H606" s="1" t="n">
+        <v>44394.85101851852</v>
       </c>
       <c r="I606" t="n">
         <v>0</v>
@@ -44861,10 +43667,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H607" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:25:13</t>
-        </is>
+      <c r="H607" s="1" t="n">
+        <v>44394.85084490741</v>
       </c>
       <c r="I607" t="n">
         <v>7</v>
@@ -44928,10 +43732,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H608" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:25:09</t>
-        </is>
+      <c r="H608" s="1" t="n">
+        <v>44394.85079861111</v>
       </c>
       <c r="I608" t="n">
         <v>2</v>
@@ -44999,10 +43801,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H609" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:25:02</t>
-        </is>
+      <c r="H609" s="1" t="n">
+        <v>44394.85071759259</v>
       </c>
       <c r="I609" t="n">
         <v>0</v>
@@ -45074,10 +43874,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H610" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:24:43</t>
-        </is>
+      <c r="H610" s="1" t="n">
+        <v>44394.85049768518</v>
       </c>
       <c r="I610" t="n">
         <v>0</v>
@@ -45153,10 +43951,8 @@
           <t>4931333388</t>
         </is>
       </c>
-      <c r="H611" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:24:43</t>
-        </is>
+      <c r="H611" s="1" t="n">
+        <v>44394.85049768518</v>
       </c>
       <c r="I611" t="n">
         <v>0</v>
@@ -45224,10 +44020,8 @@
           <t>4931329172</t>
         </is>
       </c>
-      <c r="H612" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:24:36</t>
-        </is>
+      <c r="H612" s="1" t="n">
+        <v>44394.85041666667</v>
       </c>
       <c r="I612" t="n">
         <v>1</v>
@@ -45303,10 +44097,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H613" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:24:34</t>
-        </is>
+      <c r="H613" s="1" t="n">
+        <v>44394.85039351852</v>
       </c>
       <c r="I613" t="n">
         <v>2</v>
@@ -45374,10 +44166,8 @@
           <t>4931335150</t>
         </is>
       </c>
-      <c r="H614" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:24:26</t>
-        </is>
+      <c r="H614" s="1" t="n">
+        <v>44394.85030092593</v>
       </c>
       <c r="I614" t="n">
         <v>0</v>
@@ -45453,10 +44243,8 @@
           <t>4931303857</t>
         </is>
       </c>
-      <c r="H615" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:24:22</t>
-        </is>
+      <c r="H615" s="1" t="n">
+        <v>44394.85025462963</v>
       </c>
       <c r="I615" t="n">
         <v>0</v>
@@ -45528,10 +44316,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H616" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:23:37</t>
-        </is>
+      <c r="H616" s="1" t="n">
+        <v>44394.8497337963</v>
       </c>
       <c r="I616" t="n">
         <v>0</v>
@@ -45599,10 +44385,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H617" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:23:34</t>
-        </is>
+      <c r="H617" s="1" t="n">
+        <v>44394.84969907408</v>
       </c>
       <c r="I617" t="n">
         <v>1</v>
@@ -45670,10 +44454,8 @@
           <t>4931262506</t>
         </is>
       </c>
-      <c r="H618" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:23:32</t>
-        </is>
+      <c r="H618" s="1" t="n">
+        <v>44394.84967592593</v>
       </c>
       <c r="I618" t="n">
         <v>1</v>
@@ -45745,10 +44527,8 @@
           <t>4931257502</t>
         </is>
       </c>
-      <c r="H619" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:23:05</t>
-        </is>
+      <c r="H619" s="1" t="n">
+        <v>44394.84936342593</v>
       </c>
       <c r="I619" t="n">
         <v>6</v>
@@ -45812,10 +44592,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H620" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:22:58</t>
-        </is>
+      <c r="H620" s="1" t="n">
+        <v>44394.84928240741</v>
       </c>
       <c r="I620" t="n">
         <v>644</v>
@@ -45891,10 +44669,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H621" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:22:53</t>
-        </is>
+      <c r="H621" s="1" t="n">
+        <v>44394.84922453704</v>
       </c>
       <c r="I621" t="n">
         <v>2</v>
@@ -45962,10 +44738,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H622" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:22:41</t>
-        </is>
+      <c r="H622" s="1" t="n">
+        <v>44394.84908564815</v>
       </c>
       <c r="I622" t="n">
         <v>1</v>
@@ -46037,10 +44811,8 @@
           <t>4931321204</t>
         </is>
       </c>
-      <c r="H623" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:22:41</t>
-        </is>
+      <c r="H623" s="1" t="n">
+        <v>44394.84908564815</v>
       </c>
       <c r="I623" t="n">
         <v>7</v>
@@ -46117,10 +44889,8 @@
           <t>4931308920</t>
         </is>
       </c>
-      <c r="H624" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:22:26</t>
-        </is>
+      <c r="H624" s="1" t="n">
+        <v>44394.84891203704</v>
       </c>
       <c r="I624" t="n">
         <v>3</v>
@@ -46184,10 +44954,8 @@
           <t>4931317245</t>
         </is>
       </c>
-      <c r="H625" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:22:17</t>
-        </is>
+      <c r="H625" s="1" t="n">
+        <v>44394.84880787037</v>
       </c>
       <c r="I625" t="n">
         <v>0</v>
@@ -46263,10 +45031,8 @@
           <t>4931313156</t>
         </is>
       </c>
-      <c r="H626" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:22:09</t>
-        </is>
+      <c r="H626" s="1" t="n">
+        <v>44394.84871527777</v>
       </c>
       <c r="I626" t="n">
         <v>0</v>
@@ -46330,10 +45096,8 @@
           <t>4931257502</t>
         </is>
       </c>
-      <c r="H627" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:22:00</t>
-        </is>
+      <c r="H627" s="1" t="n">
+        <v>44394.84861111111</v>
       </c>
       <c r="I627" t="n">
         <v>1</v>
@@ -46401,10 +45165,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H628" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:21:44</t>
-        </is>
+      <c r="H628" s="1" t="n">
+        <v>44394.84842592593</v>
       </c>
       <c r="I628" t="n">
         <v>5</v>
@@ -46476,10 +45238,8 @@
           <t>4931308920</t>
         </is>
       </c>
-      <c r="H629" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:21:42</t>
-        </is>
+      <c r="H629" s="1" t="n">
+        <v>44394.84840277778</v>
       </c>
       <c r="I629" t="n">
         <v>1</v>
@@ -46555,10 +45315,8 @@
           <t>4931311861</t>
         </is>
       </c>
-      <c r="H630" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:21:39</t>
-        </is>
+      <c r="H630" s="1" t="n">
+        <v>44394.84836805556</v>
       </c>
       <c r="I630" t="n">
         <v>1</v>
@@ -46634,10 +45392,8 @@
           <t>4931311574</t>
         </is>
       </c>
-      <c r="H631" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:21:32</t>
-        </is>
+      <c r="H631" s="1" t="n">
+        <v>44394.84828703704</v>
       </c>
       <c r="I631" t="n">
         <v>0</v>
@@ -46713,10 +45469,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H632" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:21:26</t>
-        </is>
+      <c r="H632" s="1" t="n">
+        <v>44394.84821759259</v>
       </c>
       <c r="I632" t="n">
         <v>22</v>
@@ -46788,10 +45542,8 @@
           <t>4931307698</t>
         </is>
       </c>
-      <c r="H633" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:21:10</t>
-        </is>
+      <c r="H633" s="1" t="n">
+        <v>44394.8480324074</v>
       </c>
       <c r="I633" t="n">
         <v>0</v>
@@ -46863,10 +45615,8 @@
           <t>4931259242</t>
         </is>
       </c>
-      <c r="H634" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:21:10</t>
-        </is>
+      <c r="H634" s="1" t="n">
+        <v>44394.8480324074</v>
       </c>
       <c r="I634" t="n">
         <v>1</v>
@@ -46945,10 +45695,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H635" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:21:08</t>
-        </is>
+      <c r="H635" s="1" t="n">
+        <v>44394.84800925926</v>
       </c>
       <c r="I635" t="n">
         <v>26</v>
@@ -47024,10 +45772,8 @@
           <t>4931304289</t>
         </is>
       </c>
-      <c r="H636" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:21:07</t>
-        </is>
+      <c r="H636" s="1" t="n">
+        <v>44394.84799768519</v>
       </c>
       <c r="I636" t="n">
         <v>38</v>
@@ -47095,10 +45841,8 @@
           <t>4931303857</t>
         </is>
       </c>
-      <c r="H637" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:20:57</t>
-        </is>
+      <c r="H637" s="1" t="n">
+        <v>44394.84788194444</v>
       </c>
       <c r="I637" t="n">
         <v>0</v>
@@ -47165,10 +45909,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H638" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:20:55</t>
-        </is>
+      <c r="H638" s="1" t="n">
+        <v>44394.8478587963</v>
       </c>
       <c r="I638" t="n">
         <v>1</v>
@@ -47240,10 +45982,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H639" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:20:39</t>
-        </is>
+      <c r="H639" s="1" t="n">
+        <v>44394.84767361111</v>
       </c>
       <c r="I639" t="n">
         <v>3</v>
@@ -47315,10 +46055,8 @@
           <t>4931302859</t>
         </is>
       </c>
-      <c r="H640" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:20:33</t>
-        </is>
+      <c r="H640" s="1" t="n">
+        <v>44394.84760416667</v>
       </c>
       <c r="I640" t="n">
         <v>4</v>
@@ -47386,10 +46124,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H641" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:20:28</t>
-        </is>
+      <c r="H641" s="1" t="n">
+        <v>44394.8475462963</v>
       </c>
       <c r="I641" t="n">
         <v>20</v>
@@ -47457,10 +46193,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H642" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:20:24</t>
-        </is>
+      <c r="H642" s="1" t="n">
+        <v>44394.8475</v>
       </c>
       <c r="I642" t="n">
         <v>0</v>
@@ -47532,10 +46266,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H643" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:20:22</t>
-        </is>
+      <c r="H643" s="1" t="n">
+        <v>44394.84747685185</v>
       </c>
       <c r="I643" t="n">
         <v>163</v>
@@ -47611,10 +46343,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H644" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:20:20</t>
-        </is>
+      <c r="H644" s="1" t="n">
+        <v>44394.8474537037</v>
       </c>
       <c r="I644" t="n">
         <v>1</v>
@@ -47678,10 +46408,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H645" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:20:18</t>
-        </is>
+      <c r="H645" s="1" t="n">
+        <v>44394.84743055556</v>
       </c>
       <c r="I645" t="n">
         <v>4</v>
@@ -47745,10 +46473,8 @@
           <t>4931259242</t>
         </is>
       </c>
-      <c r="H646" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:20:12</t>
-        </is>
+      <c r="H646" s="1" t="n">
+        <v>44394.84736111111</v>
       </c>
       <c r="I646" t="n">
         <v>3</v>
@@ -47824,10 +46550,8 @@
           <t>4931301991</t>
         </is>
       </c>
-      <c r="H647" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:20:12</t>
-        </is>
+      <c r="H647" s="1" t="n">
+        <v>44394.84736111111</v>
       </c>
       <c r="I647" t="n">
         <v>0</v>
@@ -47891,10 +46615,8 @@
           <t>4931298016</t>
         </is>
       </c>
-      <c r="H648" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:20:08</t>
-        </is>
+      <c r="H648" s="1" t="n">
+        <v>44394.84731481481</v>
       </c>
       <c r="I648" t="n">
         <v>1</v>
@@ -47970,10 +46692,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H649" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:19:48</t>
-        </is>
+      <c r="H649" s="1" t="n">
+        <v>44394.84708333333</v>
       </c>
       <c r="I649" t="n">
         <v>2</v>
@@ -48049,10 +46769,8 @@
           <t>4931297038</t>
         </is>
       </c>
-      <c r="H650" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:19:45</t>
-        </is>
+      <c r="H650" s="1" t="n">
+        <v>44394.84704861111</v>
       </c>
       <c r="I650" t="n">
         <v>114</v>
@@ -48128,10 +46846,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H651" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:19:41</t>
-        </is>
+      <c r="H651" s="1" t="n">
+        <v>44394.84700231482</v>
       </c>
       <c r="I651" t="n">
         <v>1</v>
@@ -48207,10 +46923,8 @@
           <t>4931300550</t>
         </is>
       </c>
-      <c r="H652" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:19:39</t>
-        </is>
+      <c r="H652" s="1" t="n">
+        <v>44394.84697916666</v>
       </c>
       <c r="I652" t="n">
         <v>0</v>
@@ -48278,10 +46992,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H653" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:19:26</t>
-        </is>
+      <c r="H653" s="1" t="n">
+        <v>44394.8468287037</v>
       </c>
       <c r="I653" t="n">
         <v>0</v>
@@ -48349,10 +47061,8 @@
           <t>4931296130</t>
         </is>
       </c>
-      <c r="H654" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:19:23</t>
-        </is>
+      <c r="H654" s="1" t="n">
+        <v>44394.84679398148</v>
       </c>
       <c r="I654" t="n">
         <v>0</v>
@@ -48428,10 +47138,8 @@
           <t>4931296094</t>
         </is>
       </c>
-      <c r="H655" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:19:22</t>
-        </is>
+      <c r="H655" s="1" t="n">
+        <v>44394.84678240741</v>
       </c>
       <c r="I655" t="n">
         <v>1</v>
@@ -48499,10 +47207,8 @@
           <t>4931289134</t>
         </is>
       </c>
-      <c r="H656" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:19:07</t>
-        </is>
+      <c r="H656" s="1" t="n">
+        <v>44394.8466087963</v>
       </c>
       <c r="I656" t="n">
         <v>0</v>
@@ -48574,10 +47280,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H657" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:19:02</t>
-        </is>
+      <c r="H657" s="1" t="n">
+        <v>44394.84655092593</v>
       </c>
       <c r="I657" t="n">
         <v>0</v>
@@ -48653,10 +47357,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H658" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:18:58</t>
-        </is>
+      <c r="H658" s="1" t="n">
+        <v>44394.84650462963</v>
       </c>
       <c r="I658" t="n">
         <v>0</v>
@@ -48720,10 +47422,8 @@
           <t>4931284554</t>
         </is>
       </c>
-      <c r="H659" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:18:46</t>
-        </is>
+      <c r="H659" s="1" t="n">
+        <v>44394.84636574074</v>
       </c>
       <c r="I659" t="n">
         <v>1</v>
@@ -48799,10 +47499,8 @@
           <t>4931283978</t>
         </is>
       </c>
-      <c r="H660" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:18:32</t>
-        </is>
+      <c r="H660" s="1" t="n">
+        <v>44394.8462037037</v>
       </c>
       <c r="I660" t="n">
         <v>0</v>
@@ -48866,10 +47564,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H661" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:18:31</t>
-        </is>
+      <c r="H661" s="1" t="n">
+        <v>44394.84619212963</v>
       </c>
       <c r="I661" t="n">
         <v>15</v>
@@ -48933,10 +47629,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H662" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:18:30</t>
-        </is>
+      <c r="H662" s="1" t="n">
+        <v>44394.84618055556</v>
       </c>
       <c r="I662" t="n">
         <v>26</v>
@@ -49004,10 +47698,8 @@
           <t>4931283706</t>
         </is>
       </c>
-      <c r="H663" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:18:26</t>
-        </is>
+      <c r="H663" s="1" t="n">
+        <v>44394.84613425926</v>
       </c>
       <c r="I663" t="n">
         <v>0</v>
@@ -49071,10 +47763,8 @@
           <t>4931283474</t>
         </is>
       </c>
-      <c r="H664" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:18:20</t>
-        </is>
+      <c r="H664" s="1" t="n">
+        <v>44394.84606481482</v>
       </c>
       <c r="I664" t="n">
         <v>0</v>
@@ -49146,10 +47836,8 @@
           <t>4931287112</t>
         </is>
       </c>
-      <c r="H665" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:18:19</t>
-        </is>
+      <c r="H665" s="1" t="n">
+        <v>44394.84605324074</v>
       </c>
       <c r="I665" t="n">
         <v>1</v>
@@ -49213,10 +47901,8 @@
           <t>4931283373</t>
         </is>
       </c>
-      <c r="H666" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:18:18</t>
-        </is>
+      <c r="H666" s="1" t="n">
+        <v>44394.84604166666</v>
       </c>
       <c r="I666" t="n">
         <v>0</v>
@@ -49288,10 +47974,8 @@
           <t>4931286678</t>
         </is>
       </c>
-      <c r="H667" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:18:09</t>
-        </is>
+      <c r="H667" s="1" t="n">
+        <v>44394.8459375</v>
       </c>
       <c r="I667" t="n">
         <v>0</v>
@@ -49367,10 +48051,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H668" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:18:01</t>
-        </is>
+      <c r="H668" s="1" t="n">
+        <v>44394.84584490741</v>
       </c>
       <c r="I668" t="n">
         <v>0</v>
@@ -49446,10 +48128,8 @@
           <t>4931285891</t>
         </is>
       </c>
-      <c r="H669" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:17:51</t>
-        </is>
+      <c r="H669" s="1" t="n">
+        <v>44394.84572916666</v>
       </c>
       <c r="I669" t="n">
         <v>3</v>
@@ -49521,10 +48201,8 @@
           <t>4931262506</t>
         </is>
       </c>
-      <c r="H670" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:17:43</t>
-        </is>
+      <c r="H670" s="1" t="n">
+        <v>44394.84563657407</v>
       </c>
       <c r="I670" t="n">
         <v>1</v>
@@ -49596,10 +48274,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H671" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:17:31</t>
-        </is>
+      <c r="H671" s="1" t="n">
+        <v>44394.84549768519</v>
       </c>
       <c r="I671" t="n">
         <v>28</v>
@@ -49675,10 +48351,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H672" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:17:24</t>
-        </is>
+      <c r="H672" s="1" t="n">
+        <v>44394.84541666666</v>
       </c>
       <c r="I672" t="n">
         <v>0</v>
@@ -49754,10 +48428,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H673" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:17:22</t>
-        </is>
+      <c r="H673" s="1" t="n">
+        <v>44394.84539351852</v>
       </c>
       <c r="I673" t="n">
         <v>2</v>
@@ -49821,10 +48493,8 @@
           <t>4931274199</t>
         </is>
       </c>
-      <c r="H674" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:17:14</t>
-        </is>
+      <c r="H674" s="1" t="n">
+        <v>44394.84530092592</v>
       </c>
       <c r="I674" t="n">
         <v>0</v>
@@ -49896,10 +48566,8 @@
           <t>4931280662</t>
         </is>
       </c>
-      <c r="H675" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:17:13</t>
-        </is>
+      <c r="H675" s="1" t="n">
+        <v>44394.84528935186</v>
       </c>
       <c r="I675" t="n">
         <v>0</v>
@@ -49971,10 +48639,8 @@
           <t>4931278396</t>
         </is>
       </c>
-      <c r="H676" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:17:11</t>
-        </is>
+      <c r="H676" s="1" t="n">
+        <v>44394.8452662037</v>
       </c>
       <c r="I676" t="n">
         <v>0</v>
@@ -50050,10 +48716,8 @@
           <t>4931273943</t>
         </is>
       </c>
-      <c r="H677" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:17:08</t>
-        </is>
+      <c r="H677" s="1" t="n">
+        <v>44394.84523148148</v>
       </c>
       <c r="I677" t="n">
         <v>0</v>
@@ -50117,10 +48781,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H678" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:17:00</t>
-        </is>
+      <c r="H678" s="1" t="n">
+        <v>44394.84513888889</v>
       </c>
       <c r="I678" t="n">
         <v>1</v>
@@ -50199,10 +48861,8 @@
           <t>4931273397</t>
         </is>
       </c>
-      <c r="H679" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:16:56</t>
-        </is>
+      <c r="H679" s="1" t="n">
+        <v>44394.84509259259</v>
       </c>
       <c r="I679" t="n">
         <v>3</v>
@@ -50270,10 +48930,8 @@
           <t>4931277583</t>
         </is>
       </c>
-      <c r="H680" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:16:51</t>
-        </is>
+      <c r="H680" s="1" t="n">
+        <v>44394.84503472222</v>
       </c>
       <c r="I680" t="n">
         <v>0</v>
@@ -50337,10 +48995,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H681" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:16:46</t>
-        </is>
+      <c r="H681" s="1" t="n">
+        <v>44394.84497685185</v>
       </c>
       <c r="I681" t="n">
         <v>0</v>
@@ -50416,10 +49072,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H682" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:16:44</t>
-        </is>
+      <c r="H682" s="1" t="n">
+        <v>44394.8449537037</v>
       </c>
       <c r="I682" t="n">
         <v>0</v>
@@ -50491,10 +49145,8 @@
           <t>4931272819</t>
         </is>
       </c>
-      <c r="H683" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:16:42</t>
-        </is>
+      <c r="H683" s="1" t="n">
+        <v>44394.84493055556</v>
       </c>
       <c r="I683" t="n">
         <v>0</v>
@@ -50570,10 +49222,8 @@
           <t>4931272755</t>
         </is>
       </c>
-      <c r="H684" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:16:41</t>
-        </is>
+      <c r="H684" s="1" t="n">
+        <v>44394.84491898148</v>
       </c>
       <c r="I684" t="n">
         <v>1</v>
@@ -50633,10 +49283,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H685" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:16:41</t>
-        </is>
+      <c r="H685" s="1" t="n">
+        <v>44394.84491898148</v>
       </c>
       <c r="I685" t="n">
         <v>3</v>
@@ -50708,10 +49356,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H686" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:16:40</t>
-        </is>
+      <c r="H686" s="1" t="n">
+        <v>44394.84490740741</v>
       </c>
       <c r="I686" t="n">
         <v>0</v>
@@ -50775,10 +49421,8 @@
           <t>4931272411</t>
         </is>
       </c>
-      <c r="H687" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:16:33</t>
-        </is>
+      <c r="H687" s="1" t="n">
+        <v>44394.84482638889</v>
       </c>
       <c r="I687" t="n">
         <v>0</v>
@@ -50851,10 +49495,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H688" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:16:32</t>
-        </is>
+      <c r="H688" s="1" t="n">
+        <v>44394.84481481482</v>
       </c>
       <c r="I688" t="n">
         <v>1</v>
@@ -50918,10 +49560,8 @@
           <t>4931272193</t>
         </is>
       </c>
-      <c r="H689" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:16:28</t>
-        </is>
+      <c r="H689" s="1" t="n">
+        <v>44394.84476851852</v>
       </c>
       <c r="I689" t="n">
         <v>5</v>
@@ -50989,10 +49629,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H690" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:16:24</t>
-        </is>
+      <c r="H690" s="1" t="n">
+        <v>44394.84472222222</v>
       </c>
       <c r="I690" t="n">
         <v>0</v>
@@ -51056,10 +49694,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H691" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:16:23</t>
-        </is>
+      <c r="H691" s="1" t="n">
+        <v>44394.84471064815</v>
       </c>
       <c r="I691" t="n">
         <v>0</v>
@@ -51127,10 +49763,8 @@
           <t>4931257502</t>
         </is>
       </c>
-      <c r="H692" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:16:20</t>
-        </is>
+      <c r="H692" s="1" t="n">
+        <v>44394.84467592592</v>
       </c>
       <c r="I692" t="n">
         <v>52</v>
@@ -51206,10 +49840,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H693" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:16:16</t>
-        </is>
+      <c r="H693" s="1" t="n">
+        <v>44394.84462962963</v>
       </c>
       <c r="I693" t="n">
         <v>11</v>
@@ -51273,10 +49905,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H694" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:16:15</t>
-        </is>
+      <c r="H694" s="1" t="n">
+        <v>44394.84461805555</v>
       </c>
       <c r="I694" t="n">
         <v>0</v>
@@ -51344,10 +49974,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H695" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:16:13</t>
-        </is>
+      <c r="H695" s="1" t="n">
+        <v>44394.84459490741</v>
       </c>
       <c r="I695" t="n">
         <v>45</v>
@@ -51420,10 +50048,8 @@
           <t>4931271044</t>
         </is>
       </c>
-      <c r="H696" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:16:03</t>
-        </is>
+      <c r="H696" s="1" t="n">
+        <v>44394.84447916667</v>
       </c>
       <c r="I696" t="n">
         <v>11</v>
@@ -51495,10 +50121,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H697" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:15:51</t>
-        </is>
+      <c r="H697" s="1" t="n">
+        <v>44394.84434027778</v>
       </c>
       <c r="I697" t="n">
         <v>0</v>
@@ -51566,10 +50190,8 @@
           <t>4931275125</t>
         </is>
       </c>
-      <c r="H698" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:15:50</t>
-        </is>
+      <c r="H698" s="1" t="n">
+        <v>44394.8443287037</v>
       </c>
       <c r="I698" t="n">
         <v>1</v>
@@ -51629,10 +50251,8 @@
           <t>4931270146</t>
         </is>
       </c>
-      <c r="H699" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:15:40</t>
-        </is>
+      <c r="H699" s="1" t="n">
+        <v>44394.84421296296</v>
       </c>
       <c r="I699" t="n">
         <v>34</v>
@@ -51704,10 +50324,8 @@
           <t>4931270042</t>
         </is>
       </c>
-      <c r="H700" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:15:38</t>
-        </is>
+      <c r="H700" s="1" t="n">
+        <v>44394.84418981482</v>
       </c>
       <c r="I700" t="n">
         <v>0</v>
@@ -51775,10 +50393,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H701" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:15:35</t>
-        </is>
+      <c r="H701" s="1" t="n">
+        <v>44394.84415509259</v>
       </c>
       <c r="I701" t="n">
         <v>492</v>
@@ -51854,10 +50470,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H702" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:15:29</t>
-        </is>
+      <c r="H702" s="1" t="n">
+        <v>44394.84408564815</v>
       </c>
       <c r="I702" t="n">
         <v>1</v>
@@ -51925,10 +50539,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H703" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:15:28</t>
-        </is>
+      <c r="H703" s="1" t="n">
+        <v>44394.84407407408</v>
       </c>
       <c r="I703" t="n">
         <v>200</v>
@@ -51992,10 +50604,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H704" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:15:26</t>
-        </is>
+      <c r="H704" s="1" t="n">
+        <v>44394.84405092592</v>
       </c>
       <c r="I704" t="n">
         <v>1</v>
@@ -52063,10 +50673,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H705" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:15:20</t>
-        </is>
+      <c r="H705" s="1" t="n">
+        <v>44394.84398148148</v>
       </c>
       <c r="I705" t="n">
         <v>97</v>
@@ -52142,10 +50750,8 @@
           <t>4931259242</t>
         </is>
       </c>
-      <c r="H706" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:15:20</t>
-        </is>
+      <c r="H706" s="1" t="n">
+        <v>44394.84398148148</v>
       </c>
       <c r="I706" t="n">
         <v>2</v>
@@ -52221,10 +50827,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H707" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:15:19</t>
-        </is>
+      <c r="H707" s="1" t="n">
+        <v>44394.84396990741</v>
       </c>
       <c r="I707" t="n">
         <v>14</v>
@@ -52300,10 +50904,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H708" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:15:17</t>
-        </is>
+      <c r="H708" s="1" t="n">
+        <v>44394.84394675926</v>
       </c>
       <c r="I708" t="n">
         <v>1</v>
@@ -52375,10 +50977,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H709" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:15:16</t>
-        </is>
+      <c r="H709" s="1" t="n">
+        <v>44394.84393518518</v>
       </c>
       <c r="I709" t="n">
         <v>3</v>
@@ -52442,10 +51042,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H710" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:15:10</t>
-        </is>
+      <c r="H710" s="1" t="n">
+        <v>44394.84386574074</v>
       </c>
       <c r="I710" t="n">
         <v>0</v>
@@ -52517,10 +51115,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H711" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:15:08</t>
-        </is>
+      <c r="H711" s="1" t="n">
+        <v>44394.84384259259</v>
       </c>
       <c r="I711" t="n">
         <v>1</v>
@@ -52596,10 +51192,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H712" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:15:01</t>
-        </is>
+      <c r="H712" s="1" t="n">
+        <v>44394.84376157408</v>
       </c>
       <c r="I712" t="n">
         <v>0</v>
@@ -52667,10 +51261,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H713" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:14:59</t>
-        </is>
+      <c r="H713" s="1" t="n">
+        <v>44394.84373842592</v>
       </c>
       <c r="I713" t="n">
         <v>8</v>
@@ -52746,10 +51338,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H714" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:14:56</t>
-        </is>
+      <c r="H714" s="1" t="n">
+        <v>44394.8437037037</v>
       </c>
       <c r="I714" t="n">
         <v>0</v>
@@ -52813,10 +51403,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H715" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:14:54</t>
-        </is>
+      <c r="H715" s="1" t="n">
+        <v>44394.84368055555</v>
       </c>
       <c r="I715" t="n">
         <v>1</v>
@@ -52884,10 +51472,8 @@
           <t>4931257950</t>
         </is>
       </c>
-      <c r="H716" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:14:50</t>
-        </is>
+      <c r="H716" s="1" t="n">
+        <v>44394.84363425926</v>
       </c>
       <c r="I716" t="n">
         <v>4</v>
@@ -52959,10 +51545,8 @@
           <t>4931257837</t>
         </is>
       </c>
-      <c r="H717" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:14:48</t>
-        </is>
+      <c r="H717" s="1" t="n">
+        <v>44394.84361111111</v>
       </c>
       <c r="I717" t="n">
         <v>4</v>
@@ -53036,10 +51620,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H718" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:14:47</t>
-        </is>
+      <c r="H718" s="1" t="n">
+        <v>44394.84359953704</v>
       </c>
       <c r="I718" t="n">
         <v>12</v>
@@ -53103,10 +51685,8 @@
           <t>4931262506</t>
         </is>
       </c>
-      <c r="H719" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:14:46</t>
-        </is>
+      <c r="H719" s="1" t="n">
+        <v>44394.84358796296</v>
       </c>
       <c r="I719" t="n">
         <v>1</v>
@@ -53178,10 +51758,8 @@
           <t>4931253980</t>
         </is>
       </c>
-      <c r="H720" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:14:40</t>
-        </is>
+      <c r="H720" s="1" t="n">
+        <v>44394.84351851852</v>
       </c>
       <c r="I720" t="n">
         <v>7</v>
@@ -53245,10 +51823,8 @@
           <t>4931257502</t>
         </is>
       </c>
-      <c r="H721" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:14:39</t>
-        </is>
+      <c r="H721" s="1" t="n">
+        <v>44394.84350694445</v>
       </c>
       <c r="I721" t="n">
         <v>92</v>
@@ -53312,10 +51888,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H722" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:14:30</t>
-        </is>
+      <c r="H722" s="1" t="n">
+        <v>44394.84340277778</v>
       </c>
       <c r="I722" t="n">
         <v>6</v>
@@ -53379,10 +51953,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H723" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:14:29</t>
-        </is>
+      <c r="H723" s="1" t="n">
+        <v>44394.84339120371</v>
       </c>
       <c r="I723" t="n">
         <v>1</v>
@@ -53450,10 +52022,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H724" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:14:25</t>
-        </is>
+      <c r="H724" s="1" t="n">
+        <v>44394.84334490741</v>
       </c>
       <c r="I724" t="n">
         <v>0</v>
@@ -53517,10 +52087,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H725" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:14:22</t>
-        </is>
+      <c r="H725" s="1" t="n">
+        <v>44394.84331018518</v>
       </c>
       <c r="I725" t="n">
         <v>1</v>
@@ -53584,10 +52152,8 @@
           <t>4931256658</t>
         </is>
       </c>
-      <c r="H726" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:14:20</t>
-        </is>
+      <c r="H726" s="1" t="n">
+        <v>44394.84328703704</v>
       </c>
       <c r="I726" t="n">
         <v>4</v>
@@ -53655,10 +52221,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H727" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:14:17</t>
-        </is>
+      <c r="H727" s="1" t="n">
+        <v>44394.84325231481</v>
       </c>
       <c r="I727" t="n">
         <v>1</v>
@@ -53734,10 +52298,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H728" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:14:13</t>
-        </is>
+      <c r="H728" s="1" t="n">
+        <v>44394.84320601852</v>
       </c>
       <c r="I728" t="n">
         <v>0</v>
@@ -53801,10 +52363,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H729" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:14:06</t>
-        </is>
+      <c r="H729" s="1" t="n">
+        <v>44394.843125</v>
       </c>
       <c r="I729" t="n">
         <v>0</v>
@@ -53876,10 +52436,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H730" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:14:06</t>
-        </is>
+      <c r="H730" s="1" t="n">
+        <v>44394.843125</v>
       </c>
       <c r="I730" t="n">
         <v>0</v>
@@ -53943,10 +52501,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H731" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:14:05</t>
-        </is>
+      <c r="H731" s="1" t="n">
+        <v>44394.84311342592</v>
       </c>
       <c r="I731" t="n">
         <v>0</v>
@@ -54010,10 +52566,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H732" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:14:03</t>
-        </is>
+      <c r="H732" s="1" t="n">
+        <v>44394.84309027778</v>
       </c>
       <c r="I732" t="n">
         <v>0</v>
@@ -54077,10 +52631,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H733" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:14:03</t>
-        </is>
+      <c r="H733" s="1" t="n">
+        <v>44394.84309027778</v>
       </c>
       <c r="I733" t="n">
         <v>22</v>
@@ -54152,10 +52704,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H734" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:14:01</t>
-        </is>
+      <c r="H734" s="1" t="n">
+        <v>44394.84306712963</v>
       </c>
       <c r="I734" t="n">
         <v>1165</v>
@@ -54233,10 +52783,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H735" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:13:58</t>
-        </is>
+      <c r="H735" s="1" t="n">
+        <v>44394.84303240741</v>
       </c>
       <c r="I735" t="n">
         <v>48</v>
@@ -54300,10 +52848,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H736" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:13:52</t>
-        </is>
+      <c r="H736" s="1" t="n">
+        <v>44394.84296296296</v>
       </c>
       <c r="I736" t="n">
         <v>0</v>
